--- a/BackTest/2020-01-16 BackTest FAB.xlsx
+++ b/BackTest/2020-01-16 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14.09</v>
+        <v>14.1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.09</v>
+        <v>14.1</v>
       </c>
       <c r="D2" t="n">
-        <v>14.09</v>
+        <v>14.1</v>
       </c>
       <c r="E2" t="n">
-        <v>14.09</v>
+        <v>14.1</v>
       </c>
       <c r="F2" t="n">
-        <v>44818.2503</v>
+        <v>1399.8298</v>
       </c>
       <c r="G2" t="n">
-        <v>13.53350000000001</v>
+        <v>13.51550000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.1</v>
+        <v>14.09</v>
       </c>
       <c r="C3" t="n">
-        <v>14.1</v>
+        <v>14.09</v>
       </c>
       <c r="D3" t="n">
-        <v>14.1</v>
+        <v>14.09</v>
       </c>
       <c r="E3" t="n">
-        <v>14.1</v>
+        <v>14.09</v>
       </c>
       <c r="F3" t="n">
-        <v>12405.7805</v>
+        <v>44818.2503</v>
       </c>
       <c r="G3" t="n">
-        <v>13.56100000000001</v>
+        <v>13.53350000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.09</v>
+        <v>14.1</v>
       </c>
       <c r="C4" t="n">
         <v>14.1</v>
@@ -512,13 +512,13 @@
         <v>14.1</v>
       </c>
       <c r="E4" t="n">
-        <v>14.09</v>
+        <v>14.1</v>
       </c>
       <c r="F4" t="n">
-        <v>30489.0795</v>
+        <v>12405.7805</v>
       </c>
       <c r="G4" t="n">
-        <v>13.59416666666667</v>
+        <v>13.56100000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.25</v>
+        <v>14.09</v>
       </c>
       <c r="C5" t="n">
-        <v>14.25</v>
+        <v>14.1</v>
       </c>
       <c r="D5" t="n">
-        <v>14.25</v>
+        <v>14.1</v>
       </c>
       <c r="E5" t="n">
-        <v>14.25</v>
+        <v>14.09</v>
       </c>
       <c r="F5" t="n">
-        <v>1823.9193</v>
+        <v>30489.0795</v>
       </c>
       <c r="G5" t="n">
-        <v>13.62983333333334</v>
+        <v>13.59416666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="C6" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="D6" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="E6" t="n">
-        <v>14.1</v>
+        <v>14.25</v>
       </c>
       <c r="F6" t="n">
-        <v>34781.2022</v>
+        <v>1823.9193</v>
       </c>
       <c r="G6" t="n">
-        <v>13.67766666666667</v>
+        <v>13.62983333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>14.1</v>
       </c>
       <c r="F7" t="n">
-        <v>11451.8214</v>
+        <v>34781.2022</v>
       </c>
       <c r="G7" t="n">
-        <v>13.70950000000001</v>
+        <v>13.67766666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>14.1</v>
       </c>
       <c r="F8" t="n">
-        <v>5776.4566</v>
+        <v>11451.8214</v>
       </c>
       <c r="G8" t="n">
-        <v>13.74116666666667</v>
+        <v>13.70950000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.19</v>
+        <v>14.1</v>
       </c>
       <c r="C9" t="n">
-        <v>14.28</v>
+        <v>14.1</v>
       </c>
       <c r="D9" t="n">
-        <v>14.28</v>
+        <v>14.1</v>
       </c>
       <c r="E9" t="n">
-        <v>14.19</v>
+        <v>14.1</v>
       </c>
       <c r="F9" t="n">
-        <v>177926.9333</v>
+        <v>5776.4566</v>
       </c>
       <c r="G9" t="n">
-        <v>13.77433333333334</v>
+        <v>13.74116666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.28</v>
+        <v>14.19</v>
       </c>
       <c r="C10" t="n">
         <v>14.28</v>
@@ -722,13 +722,13 @@
         <v>14.28</v>
       </c>
       <c r="E10" t="n">
-        <v>14.28</v>
+        <v>14.19</v>
       </c>
       <c r="F10" t="n">
-        <v>2623.9932</v>
+        <v>177926.9333</v>
       </c>
       <c r="G10" t="n">
-        <v>13.80750000000001</v>
+        <v>13.77433333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.2</v>
+        <v>14.28</v>
       </c>
       <c r="C11" t="n">
-        <v>14.2</v>
+        <v>14.28</v>
       </c>
       <c r="D11" t="n">
-        <v>14.2</v>
+        <v>14.28</v>
       </c>
       <c r="E11" t="n">
-        <v>14.2</v>
+        <v>14.28</v>
       </c>
       <c r="F11" t="n">
-        <v>1399.8298</v>
+        <v>2623.9932</v>
       </c>
       <c r="G11" t="n">
-        <v>13.83916666666667</v>
+        <v>13.80750000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.22</v>
+        <v>14.2</v>
       </c>
       <c r="C12" t="n">
-        <v>14.22</v>
+        <v>14.2</v>
       </c>
       <c r="D12" t="n">
-        <v>14.22</v>
+        <v>14.2</v>
       </c>
       <c r="E12" t="n">
-        <v>14.22</v>
+        <v>14.2</v>
       </c>
       <c r="F12" t="n">
-        <v>11241.7119</v>
+        <v>1399.8298</v>
       </c>
       <c r="G12" t="n">
-        <v>13.84966666666667</v>
+        <v>13.83916666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14.21</v>
+        <v>14.22</v>
       </c>
       <c r="C13" t="n">
-        <v>14.2</v>
+        <v>14.22</v>
       </c>
       <c r="D13" t="n">
-        <v>14.21</v>
+        <v>14.22</v>
       </c>
       <c r="E13" t="n">
-        <v>14.1</v>
+        <v>14.22</v>
       </c>
       <c r="F13" t="n">
-        <v>20399.5015</v>
+        <v>11241.7119</v>
       </c>
       <c r="G13" t="n">
-        <v>13.86000000000001</v>
+        <v>13.84966666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14.28</v>
+        <v>14.21</v>
       </c>
       <c r="C14" t="n">
-        <v>14.28</v>
+        <v>14.2</v>
       </c>
       <c r="D14" t="n">
-        <v>14.28</v>
+        <v>14.21</v>
       </c>
       <c r="E14" t="n">
-        <v>14.28</v>
+        <v>14.1</v>
       </c>
       <c r="F14" t="n">
-        <v>309.225</v>
+        <v>20399.5015</v>
       </c>
       <c r="G14" t="n">
-        <v>13.87500000000001</v>
+        <v>13.86000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.2</v>
+        <v>14.28</v>
       </c>
       <c r="C15" t="n">
-        <v>14.2</v>
+        <v>14.28</v>
       </c>
       <c r="D15" t="n">
-        <v>14.2</v>
+        <v>14.28</v>
       </c>
       <c r="E15" t="n">
-        <v>14.2</v>
+        <v>14.28</v>
       </c>
       <c r="F15" t="n">
-        <v>28417.9496</v>
+        <v>309.225</v>
       </c>
       <c r="G15" t="n">
-        <v>13.88850000000001</v>
+        <v>13.87500000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14.29</v>
+        <v>14.2</v>
       </c>
       <c r="C16" t="n">
-        <v>14.29</v>
+        <v>14.2</v>
       </c>
       <c r="D16" t="n">
-        <v>14.29</v>
+        <v>14.2</v>
       </c>
       <c r="E16" t="n">
-        <v>14.29</v>
+        <v>14.2</v>
       </c>
       <c r="F16" t="n">
-        <v>10000</v>
+        <v>28417.9496</v>
       </c>
       <c r="G16" t="n">
-        <v>13.89333333333334</v>
+        <v>13.88850000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>14.29</v>
       </c>
       <c r="F17" t="n">
-        <v>44311.3873</v>
+        <v>10000</v>
       </c>
       <c r="G17" t="n">
-        <v>13.89816666666667</v>
+        <v>13.89333333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>14.29</v>
       </c>
       <c r="C18" t="n">
-        <v>14.35</v>
+        <v>14.29</v>
       </c>
       <c r="D18" t="n">
-        <v>14.35</v>
+        <v>14.29</v>
       </c>
       <c r="E18" t="n">
         <v>14.29</v>
       </c>
       <c r="F18" t="n">
-        <v>89340.4163</v>
+        <v>44311.3873</v>
       </c>
       <c r="G18" t="n">
-        <v>13.90900000000001</v>
+        <v>13.89816666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14.39</v>
+        <v>14.29</v>
       </c>
       <c r="C19" t="n">
-        <v>14.5</v>
+        <v>14.35</v>
       </c>
       <c r="D19" t="n">
-        <v>14.5</v>
+        <v>14.35</v>
       </c>
       <c r="E19" t="n">
-        <v>14.39</v>
+        <v>14.29</v>
       </c>
       <c r="F19" t="n">
-        <v>1242</v>
+        <v>89340.4163</v>
       </c>
       <c r="G19" t="n">
-        <v>13.92233333333334</v>
+        <v>13.90900000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14.5</v>
+        <v>14.39</v>
       </c>
       <c r="C20" t="n">
         <v>14.5</v>
@@ -1072,13 +1072,13 @@
         <v>14.5</v>
       </c>
       <c r="E20" t="n">
-        <v>14.5</v>
+        <v>14.39</v>
       </c>
       <c r="F20" t="n">
-        <v>46883.2484</v>
+        <v>1242</v>
       </c>
       <c r="G20" t="n">
-        <v>13.93566666666667</v>
+        <v>13.92233333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14.45</v>
+        <v>14.5</v>
       </c>
       <c r="C21" t="n">
-        <v>14.45</v>
+        <v>14.5</v>
       </c>
       <c r="D21" t="n">
-        <v>14.45</v>
+        <v>14.5</v>
       </c>
       <c r="E21" t="n">
-        <v>14.45</v>
+        <v>14.5</v>
       </c>
       <c r="F21" t="n">
-        <v>18934.4203</v>
+        <v>46883.2484</v>
       </c>
       <c r="G21" t="n">
-        <v>13.94650000000001</v>
+        <v>13.93566666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14.5</v>
+        <v>14.45</v>
       </c>
       <c r="C22" t="n">
-        <v>14.5</v>
+        <v>14.45</v>
       </c>
       <c r="D22" t="n">
-        <v>14.5</v>
+        <v>14.45</v>
       </c>
       <c r="E22" t="n">
-        <v>14.5</v>
+        <v>14.45</v>
       </c>
       <c r="F22" t="n">
-        <v>800.2320999999999</v>
+        <v>18934.4203</v>
       </c>
       <c r="G22" t="n">
-        <v>13.95833333333334</v>
+        <v>13.94650000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>14.5</v>
       </c>
       <c r="F23" t="n">
-        <v>11725.2688</v>
+        <v>800.2320999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>13.97000000000001</v>
+        <v>13.95833333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14.64</v>
+        <v>14.5</v>
       </c>
       <c r="C24" t="n">
-        <v>14.64</v>
+        <v>14.5</v>
       </c>
       <c r="D24" t="n">
-        <v>14.64</v>
+        <v>14.5</v>
       </c>
       <c r="E24" t="n">
-        <v>14.64</v>
+        <v>14.5</v>
       </c>
       <c r="F24" t="n">
-        <v>3542.9193</v>
+        <v>11725.2688</v>
       </c>
       <c r="G24" t="n">
-        <v>13.98900000000001</v>
+        <v>13.97000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>14.64</v>
       </c>
       <c r="F25" t="n">
-        <v>8201.142599999999</v>
+        <v>3542.9193</v>
       </c>
       <c r="G25" t="n">
-        <v>14.00333333333334</v>
+        <v>13.98900000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>14.64</v>
       </c>
       <c r="F26" t="n">
-        <v>58881.5822</v>
+        <v>8201.142599999999</v>
       </c>
       <c r="G26" t="n">
-        <v>14.01766666666668</v>
+        <v>14.00333333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14.3</v>
+        <v>14.64</v>
       </c>
       <c r="C27" t="n">
-        <v>14.03</v>
+        <v>14.64</v>
       </c>
       <c r="D27" t="n">
-        <v>14.3</v>
+        <v>14.64</v>
       </c>
       <c r="E27" t="n">
-        <v>14.03</v>
+        <v>14.64</v>
       </c>
       <c r="F27" t="n">
         <v>58881.5822</v>
       </c>
       <c r="G27" t="n">
-        <v>14.02166666666668</v>
+        <v>14.01766666666668</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14.34</v>
+        <v>14.3</v>
       </c>
       <c r="C28" t="n">
-        <v>14.4</v>
+        <v>14.03</v>
       </c>
       <c r="D28" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E28" t="n">
-        <v>14.34</v>
+        <v>14.03</v>
       </c>
       <c r="F28" t="n">
-        <v>1122.5969</v>
+        <v>58881.5822</v>
       </c>
       <c r="G28" t="n">
-        <v>14.03166666666668</v>
+        <v>14.02166666666668</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>14.34</v>
       </c>
       <c r="C29" t="n">
-        <v>14.34</v>
+        <v>14.4</v>
       </c>
       <c r="D29" t="n">
-        <v>14.34</v>
+        <v>14.4</v>
       </c>
       <c r="E29" t="n">
         <v>14.34</v>
       </c>
       <c r="F29" t="n">
-        <v>292.693</v>
+        <v>1122.5969</v>
       </c>
       <c r="G29" t="n">
-        <v>14.03733333333334</v>
+        <v>14.03166666666668</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>14.1</v>
+        <v>14.34</v>
       </c>
       <c r="C30" t="n">
-        <v>14.1</v>
+        <v>14.34</v>
       </c>
       <c r="D30" t="n">
-        <v>14.1</v>
+        <v>14.34</v>
       </c>
       <c r="E30" t="n">
-        <v>14.1</v>
+        <v>14.34</v>
       </c>
       <c r="F30" t="n">
-        <v>7908.4496</v>
+        <v>292.693</v>
       </c>
       <c r="G30" t="n">
-        <v>14.03766666666668</v>
+        <v>14.03733333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14.06</v>
+        <v>14.1</v>
       </c>
       <c r="C31" t="n">
-        <v>14.06</v>
+        <v>14.1</v>
       </c>
       <c r="D31" t="n">
-        <v>14.06</v>
+        <v>14.1</v>
       </c>
       <c r="E31" t="n">
-        <v>14.06</v>
+        <v>14.1</v>
       </c>
       <c r="F31" t="n">
-        <v>15186</v>
+        <v>7908.4496</v>
       </c>
       <c r="G31" t="n">
-        <v>14.04150000000001</v>
+        <v>14.03766666666668</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>14.06</v>
       </c>
       <c r="F32" t="n">
-        <v>11725.2688</v>
+        <v>15186</v>
       </c>
       <c r="G32" t="n">
-        <v>14.04600000000001</v>
+        <v>14.04150000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14.3</v>
+        <v>14.06</v>
       </c>
       <c r="C33" t="n">
-        <v>14.3</v>
+        <v>14.06</v>
       </c>
       <c r="D33" t="n">
-        <v>14.3</v>
+        <v>14.06</v>
       </c>
       <c r="E33" t="n">
-        <v>14.3</v>
+        <v>14.06</v>
       </c>
       <c r="F33" t="n">
-        <v>2029</v>
+        <v>11725.2688</v>
       </c>
       <c r="G33" t="n">
-        <v>14.05933333333334</v>
+        <v>14.04600000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>14.3</v>
       </c>
       <c r="F34" t="n">
-        <v>34106.7771</v>
+        <v>2029</v>
       </c>
       <c r="G34" t="n">
-        <v>14.07266666666667</v>
+        <v>14.05933333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14.06</v>
+        <v>14.3</v>
       </c>
       <c r="C35" t="n">
-        <v>14.05</v>
+        <v>14.3</v>
       </c>
       <c r="D35" t="n">
-        <v>14.06</v>
+        <v>14.3</v>
       </c>
       <c r="E35" t="n">
-        <v>14.05</v>
+        <v>14.3</v>
       </c>
       <c r="F35" t="n">
-        <v>6259.2231</v>
+        <v>34106.7771</v>
       </c>
       <c r="G35" t="n">
-        <v>14.08366666666667</v>
+        <v>14.07266666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>14.34</v>
+        <v>14.06</v>
       </c>
       <c r="C36" t="n">
-        <v>14.34</v>
+        <v>14.05</v>
       </c>
       <c r="D36" t="n">
-        <v>14.34</v>
+        <v>14.06</v>
       </c>
       <c r="E36" t="n">
-        <v>14.34</v>
+        <v>14.05</v>
       </c>
       <c r="F36" t="n">
-        <v>77</v>
+        <v>6259.2231</v>
       </c>
       <c r="G36" t="n">
-        <v>14.10100000000001</v>
+        <v>14.08366666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14.05</v>
+        <v>14.34</v>
       </c>
       <c r="C37" t="n">
-        <v>14.05</v>
+        <v>14.34</v>
       </c>
       <c r="D37" t="n">
-        <v>14.05</v>
+        <v>14.34</v>
       </c>
       <c r="E37" t="n">
-        <v>14.05</v>
+        <v>14.34</v>
       </c>
       <c r="F37" t="n">
-        <v>559.9739</v>
+        <v>77</v>
       </c>
       <c r="G37" t="n">
-        <v>14.11350000000001</v>
+        <v>14.10100000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14.03</v>
+        <v>14.05</v>
       </c>
       <c r="C38" t="n">
-        <v>14.03</v>
+        <v>14.05</v>
       </c>
       <c r="D38" t="n">
-        <v>14.03</v>
+        <v>14.05</v>
       </c>
       <c r="E38" t="n">
-        <v>14.03</v>
+        <v>14.05</v>
       </c>
       <c r="F38" t="n">
-        <v>97</v>
+        <v>559.9739</v>
       </c>
       <c r="G38" t="n">
-        <v>14.12900000000001</v>
+        <v>14.11350000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14.05</v>
+        <v>14.03</v>
       </c>
       <c r="C39" t="n">
-        <v>14.2</v>
+        <v>14.03</v>
       </c>
       <c r="D39" t="n">
-        <v>14.2</v>
+        <v>14.03</v>
       </c>
       <c r="E39" t="n">
-        <v>14.05</v>
+        <v>14.03</v>
       </c>
       <c r="F39" t="n">
-        <v>5775</v>
+        <v>97</v>
       </c>
       <c r="G39" t="n">
-        <v>14.14883333333334</v>
+        <v>14.12900000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>14.05</v>
       </c>
       <c r="C40" t="n">
-        <v>14.05</v>
+        <v>14.2</v>
       </c>
       <c r="D40" t="n">
-        <v>14.05</v>
+        <v>14.2</v>
       </c>
       <c r="E40" t="n">
         <v>14.05</v>
       </c>
       <c r="F40" t="n">
-        <v>77.56</v>
+        <v>5775</v>
       </c>
       <c r="G40" t="n">
-        <v>14.16166666666667</v>
+        <v>14.14883333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>14.05</v>
       </c>
       <c r="F41" t="n">
-        <v>6630.9656</v>
+        <v>77.56</v>
       </c>
       <c r="G41" t="n">
-        <v>14.17750000000001</v>
+        <v>14.16166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14.2</v>
+        <v>14.05</v>
       </c>
       <c r="C42" t="n">
-        <v>14.3</v>
+        <v>14.05</v>
       </c>
       <c r="D42" t="n">
-        <v>14.3</v>
+        <v>14.05</v>
       </c>
       <c r="E42" t="n">
-        <v>14.2</v>
+        <v>14.05</v>
       </c>
       <c r="F42" t="n">
-        <v>59278.3671</v>
+        <v>6630.9656</v>
       </c>
       <c r="G42" t="n">
-        <v>14.18800000000001</v>
+        <v>14.17750000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="C43" t="n">
         <v>14.3</v>
@@ -1877,13 +1877,13 @@
         <v>14.3</v>
       </c>
       <c r="E43" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="F43" t="n">
-        <v>35</v>
+        <v>59278.3671</v>
       </c>
       <c r="G43" t="n">
-        <v>14.19833333333334</v>
+        <v>14.18800000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="C44" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="D44" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="E44" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="F44" t="n">
-        <v>577.1976</v>
+        <v>35</v>
       </c>
       <c r="G44" t="n">
-        <v>14.20466666666667</v>
+        <v>14.19833333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="C45" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="D45" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="E45" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="F45" t="n">
-        <v>35</v>
+        <v>577.1976</v>
       </c>
       <c r="G45" t="n">
-        <v>14.21266666666667</v>
+        <v>14.20466666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="C46" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="D46" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="E46" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="F46" t="n">
-        <v>3426.3399</v>
+        <v>35</v>
       </c>
       <c r="G46" t="n">
-        <v>14.21916666666667</v>
+        <v>14.21266666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14.06</v>
+        <v>14.2</v>
       </c>
       <c r="C47" t="n">
-        <v>14.06</v>
+        <v>14.2</v>
       </c>
       <c r="D47" t="n">
-        <v>14.06</v>
+        <v>14.2</v>
       </c>
       <c r="E47" t="n">
-        <v>14.06</v>
+        <v>14.2</v>
       </c>
       <c r="F47" t="n">
-        <v>1252.2745</v>
+        <v>3426.3399</v>
       </c>
       <c r="G47" t="n">
-        <v>14.22333333333334</v>
+        <v>14.21916666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>14.06</v>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>1252.2745</v>
       </c>
       <c r="G48" t="n">
-        <v>14.22516666666667</v>
+        <v>14.22333333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14.29</v>
+        <v>14.06</v>
       </c>
       <c r="C49" t="n">
-        <v>14.29</v>
+        <v>14.06</v>
       </c>
       <c r="D49" t="n">
-        <v>14.29</v>
+        <v>14.06</v>
       </c>
       <c r="E49" t="n">
-        <v>14.29</v>
+        <v>14.06</v>
       </c>
       <c r="F49" t="n">
-        <v>37902.2396</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>14.23083333333333</v>
+        <v>14.22516666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14.3</v>
+        <v>14.29</v>
       </c>
       <c r="C50" t="n">
-        <v>14.4</v>
+        <v>14.29</v>
       </c>
       <c r="D50" t="n">
-        <v>14.65</v>
+        <v>14.29</v>
       </c>
       <c r="E50" t="n">
-        <v>14.3</v>
+        <v>14.29</v>
       </c>
       <c r="F50" t="n">
-        <v>81413.1547</v>
+        <v>37902.2396</v>
       </c>
       <c r="G50" t="n">
-        <v>14.23583333333334</v>
+        <v>14.23083333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C51" t="n">
         <v>14.4</v>
       </c>
-      <c r="C51" t="n">
-        <v>14.6</v>
-      </c>
       <c r="D51" t="n">
-        <v>14.64</v>
+        <v>14.65</v>
       </c>
       <c r="E51" t="n">
         <v>14.3</v>
       </c>
       <c r="F51" t="n">
-        <v>6903.6124</v>
+        <v>81413.1547</v>
       </c>
       <c r="G51" t="n">
-        <v>14.24166666666667</v>
+        <v>14.23583333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>14.4</v>
       </c>
       <c r="C52" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="D52" t="n">
-        <v>14.4</v>
+        <v>14.64</v>
       </c>
       <c r="E52" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F52" t="n">
-        <v>6970.8762</v>
+        <v>6903.6124</v>
       </c>
       <c r="G52" t="n">
-        <v>14.244</v>
+        <v>14.24166666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C53" t="n">
-        <v>14.63</v>
+        <v>14.4</v>
       </c>
       <c r="D53" t="n">
-        <v>14.65</v>
+        <v>14.4</v>
       </c>
       <c r="E53" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F53" t="n">
-        <v>95047.7518</v>
+        <v>6970.8762</v>
       </c>
       <c r="G53" t="n">
-        <v>14.25016666666667</v>
+        <v>14.244</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14.62</v>
+        <v>14.5</v>
       </c>
       <c r="C54" t="n">
         <v>14.63</v>
       </c>
       <c r="D54" t="n">
-        <v>14.63</v>
+        <v>14.65</v>
       </c>
       <c r="E54" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F54" t="n">
-        <v>2056</v>
+        <v>95047.7518</v>
       </c>
       <c r="G54" t="n">
-        <v>14.25633333333334</v>
+        <v>14.25016666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14.6</v>
+        <v>14.62</v>
       </c>
       <c r="C55" t="n">
-        <v>14.65</v>
+        <v>14.63</v>
       </c>
       <c r="D55" t="n">
-        <v>14.65</v>
+        <v>14.63</v>
       </c>
       <c r="E55" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="F55" t="n">
-        <v>40604.0257</v>
+        <v>2056</v>
       </c>
       <c r="G55" t="n">
-        <v>14.26283333333333</v>
+        <v>14.25633333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14.69</v>
+        <v>14.6</v>
       </c>
       <c r="C56" t="n">
-        <v>14.6</v>
+        <v>14.65</v>
       </c>
       <c r="D56" t="n">
-        <v>14.7</v>
+        <v>14.65</v>
       </c>
       <c r="E56" t="n">
         <v>14.6</v>
       </c>
       <c r="F56" t="n">
-        <v>49330.2767</v>
+        <v>40604.0257</v>
       </c>
       <c r="G56" t="n">
-        <v>14.27116666666667</v>
+        <v>14.26283333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14.59</v>
+        <v>14.69</v>
       </c>
       <c r="C57" t="n">
-        <v>14.59</v>
+        <v>14.6</v>
       </c>
       <c r="D57" t="n">
-        <v>14.59</v>
+        <v>14.7</v>
       </c>
       <c r="E57" t="n">
-        <v>14.59</v>
+        <v>14.6</v>
       </c>
       <c r="F57" t="n">
-        <v>1291.3172</v>
+        <v>49330.2767</v>
       </c>
       <c r="G57" t="n">
-        <v>14.27933333333334</v>
+        <v>14.27116666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14.6</v>
+        <v>14.59</v>
       </c>
       <c r="C58" t="n">
         <v>14.59</v>
       </c>
       <c r="D58" t="n">
-        <v>14.6</v>
+        <v>14.59</v>
       </c>
       <c r="E58" t="n">
         <v>14.59</v>
       </c>
       <c r="F58" t="n">
-        <v>33066.4492</v>
+        <v>1291.3172</v>
       </c>
       <c r="G58" t="n">
-        <v>14.2875</v>
+        <v>14.27933333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>14.6</v>
       </c>
       <c r="C59" t="n">
-        <v>14.7</v>
+        <v>14.59</v>
       </c>
       <c r="D59" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E59" t="n">
-        <v>14.6</v>
+        <v>14.59</v>
       </c>
       <c r="F59" t="n">
-        <v>15113.4659</v>
+        <v>33066.4492</v>
       </c>
       <c r="G59" t="n">
-        <v>14.2975</v>
+        <v>14.2875</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>14.6</v>
       </c>
       <c r="C60" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D60" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E60" t="n">
         <v>14.6</v>
       </c>
       <c r="F60" t="n">
-        <v>52445.3513</v>
+        <v>15113.4659</v>
       </c>
       <c r="G60" t="n">
-        <v>14.306</v>
+        <v>14.2975</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C61" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D61" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E61" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F61" t="n">
-        <v>674.3525</v>
+        <v>52445.3513</v>
       </c>
       <c r="G61" t="n">
-        <v>14.31266666666667</v>
+        <v>14.306</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C62" t="n">
-        <v>14.69</v>
+        <v>14.5</v>
       </c>
       <c r="D62" t="n">
-        <v>14.69</v>
+        <v>14.5</v>
       </c>
       <c r="E62" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F62" t="n">
-        <v>14744.77139040163</v>
+        <v>674.3525</v>
       </c>
       <c r="G62" t="n">
-        <v>14.32266666666667</v>
+        <v>14.31266666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14.51</v>
+        <v>14.6</v>
       </c>
       <c r="C63" t="n">
-        <v>14.3</v>
+        <v>14.69</v>
       </c>
       <c r="D63" t="n">
-        <v>14.51</v>
+        <v>14.69</v>
       </c>
       <c r="E63" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="F63" t="n">
-        <v>15111.2271</v>
+        <v>14744.77139040163</v>
       </c>
       <c r="G63" t="n">
-        <v>14.326</v>
+        <v>14.32266666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14.59</v>
+        <v>14.51</v>
       </c>
       <c r="C64" t="n">
-        <v>14.59</v>
+        <v>14.3</v>
       </c>
       <c r="D64" t="n">
-        <v>14.59</v>
+        <v>14.51</v>
       </c>
       <c r="E64" t="n">
-        <v>14.59</v>
+        <v>14.3</v>
       </c>
       <c r="F64" t="n">
-        <v>694.6746000000001</v>
+        <v>15111.2271</v>
       </c>
       <c r="G64" t="n">
-        <v>14.33416666666667</v>
+        <v>14.326</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14.3</v>
+        <v>14.59</v>
       </c>
       <c r="C65" t="n">
         <v>14.59</v>
@@ -2647,13 +2647,13 @@
         <v>14.59</v>
       </c>
       <c r="E65" t="n">
-        <v>14.3</v>
+        <v>14.59</v>
       </c>
       <c r="F65" t="n">
-        <v>10538.0203</v>
+        <v>694.6746000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>14.33983333333333</v>
+        <v>14.33416666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C66" t="n">
         <v>14.59</v>
       </c>
-      <c r="C66" t="n">
-        <v>14.6</v>
-      </c>
       <c r="D66" t="n">
-        <v>14.6</v>
+        <v>14.59</v>
       </c>
       <c r="E66" t="n">
-        <v>14.59</v>
+        <v>14.3</v>
       </c>
       <c r="F66" t="n">
-        <v>32974.0847</v>
+        <v>10538.0203</v>
       </c>
       <c r="G66" t="n">
-        <v>14.34816666666667</v>
+        <v>14.33983333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14.4</v>
+        <v>14.59</v>
       </c>
       <c r="C67" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="D67" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="E67" t="n">
-        <v>14.4</v>
+        <v>14.59</v>
       </c>
       <c r="F67" t="n">
-        <v>308.0367</v>
+        <v>32974.0847</v>
       </c>
       <c r="G67" t="n">
-        <v>14.35316666666667</v>
+        <v>14.34816666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="C68" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="D68" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="E68" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="F68" t="n">
-        <v>1384.1126</v>
+        <v>308.0367</v>
       </c>
       <c r="G68" t="n">
-        <v>14.3565</v>
+        <v>14.35316666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>14.3</v>
       </c>
       <c r="F69" t="n">
-        <v>30000</v>
+        <v>1384.1126</v>
       </c>
       <c r="G69" t="n">
-        <v>14.35683333333333</v>
+        <v>14.3565</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>14.3</v>
       </c>
       <c r="F70" t="n">
-        <v>44.5196</v>
+        <v>30000</v>
       </c>
       <c r="G70" t="n">
-        <v>14.35716666666667</v>
+        <v>14.35683333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C71" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D71" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E71" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F71" t="n">
-        <v>21862.5578</v>
+        <v>44.5196</v>
       </c>
       <c r="G71" t="n">
-        <v>14.3605</v>
+        <v>14.35716666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14.65</v>
+        <v>14.4</v>
       </c>
       <c r="C72" t="n">
-        <v>14.65</v>
+        <v>14.4</v>
       </c>
       <c r="D72" t="n">
-        <v>14.65</v>
+        <v>14.4</v>
       </c>
       <c r="E72" t="n">
-        <v>14.65</v>
+        <v>14.4</v>
       </c>
       <c r="F72" t="n">
-        <v>10540</v>
+        <v>21862.5578</v>
       </c>
       <c r="G72" t="n">
-        <v>14.36766666666666</v>
+        <v>14.3605</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>14.65</v>
       </c>
       <c r="F73" t="n">
-        <v>13953.8193</v>
+        <v>10540</v>
       </c>
       <c r="G73" t="n">
-        <v>14.37516666666666</v>
+        <v>14.36766666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>14.65</v>
       </c>
       <c r="F74" t="n">
-        <v>10000</v>
+        <v>13953.8193</v>
       </c>
       <c r="G74" t="n">
-        <v>14.38133333333333</v>
+        <v>14.37516666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>14.65</v>
       </c>
       <c r="F75" t="n">
-        <v>217.3528</v>
+        <v>10000</v>
       </c>
       <c r="G75" t="n">
-        <v>14.38883333333333</v>
+        <v>14.38133333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14.4</v>
+        <v>14.65</v>
       </c>
       <c r="C76" t="n">
-        <v>14.4</v>
+        <v>14.65</v>
       </c>
       <c r="D76" t="n">
-        <v>14.4</v>
+        <v>14.65</v>
       </c>
       <c r="E76" t="n">
-        <v>14.4</v>
+        <v>14.65</v>
       </c>
       <c r="F76" t="n">
-        <v>1422.0028</v>
+        <v>217.3528</v>
       </c>
       <c r="G76" t="n">
-        <v>14.39066666666666</v>
+        <v>14.38883333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="C77" t="n">
-        <v>14.64</v>
+        <v>14.4</v>
       </c>
       <c r="D77" t="n">
-        <v>14.64</v>
+        <v>14.4</v>
       </c>
       <c r="E77" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="F77" t="n">
-        <v>8106.5781</v>
+        <v>1422.0028</v>
       </c>
       <c r="G77" t="n">
-        <v>14.3965</v>
+        <v>14.39066666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C78" t="n">
         <v>14.64</v>
       </c>
-      <c r="C78" t="n">
-        <v>14.65</v>
-      </c>
       <c r="D78" t="n">
-        <v>14.65</v>
+        <v>14.64</v>
       </c>
       <c r="E78" t="n">
-        <v>14.64</v>
+        <v>14.6</v>
       </c>
       <c r="F78" t="n">
-        <v>47761.3557</v>
+        <v>8106.5781</v>
       </c>
       <c r="G78" t="n">
-        <v>14.4015</v>
+        <v>14.3965</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14.65</v>
+        <v>14.64</v>
       </c>
       <c r="C79" t="n">
         <v>14.65</v>
@@ -3137,13 +3137,13 @@
         <v>14.65</v>
       </c>
       <c r="E79" t="n">
-        <v>14.65</v>
+        <v>14.64</v>
       </c>
       <c r="F79" t="n">
-        <v>22105.1943</v>
+        <v>47761.3557</v>
       </c>
       <c r="G79" t="n">
-        <v>14.40399999999999</v>
+        <v>14.4015</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14.7</v>
+        <v>14.65</v>
       </c>
       <c r="C80" t="n">
-        <v>14.7</v>
+        <v>14.65</v>
       </c>
       <c r="D80" t="n">
-        <v>14.7</v>
+        <v>14.65</v>
       </c>
       <c r="E80" t="n">
-        <v>14.7</v>
+        <v>14.65</v>
       </c>
       <c r="F80" t="n">
-        <v>3074.971</v>
+        <v>22105.1943</v>
       </c>
       <c r="G80" t="n">
-        <v>14.40733333333333</v>
+        <v>14.40399999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14.69</v>
+        <v>14.7</v>
       </c>
       <c r="C81" t="n">
-        <v>14.65</v>
+        <v>14.7</v>
       </c>
       <c r="D81" t="n">
-        <v>14.99</v>
+        <v>14.7</v>
       </c>
       <c r="E81" t="n">
-        <v>14.65</v>
+        <v>14.7</v>
       </c>
       <c r="F81" t="n">
-        <v>108767.4197</v>
+        <v>3074.971</v>
       </c>
       <c r="G81" t="n">
-        <v>14.41066666666666</v>
+        <v>14.40733333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,10 +3233,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="C82" t="n">
         <v>14.65</v>
-      </c>
-      <c r="C82" t="n">
-        <v>14.99</v>
       </c>
       <c r="D82" t="n">
         <v>14.99</v>
@@ -3245,10 +3245,10 @@
         <v>14.65</v>
       </c>
       <c r="F82" t="n">
-        <v>24499.8872</v>
+        <v>108767.4197</v>
       </c>
       <c r="G82" t="n">
-        <v>14.41883333333333</v>
+        <v>14.41066666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>14.9</v>
+        <v>14.65</v>
       </c>
       <c r="C83" t="n">
         <v>14.99</v>
@@ -3277,13 +3277,13 @@
         <v>14.99</v>
       </c>
       <c r="E83" t="n">
-        <v>14.9</v>
+        <v>14.65</v>
       </c>
       <c r="F83" t="n">
-        <v>942.2618</v>
+        <v>24499.8872</v>
       </c>
       <c r="G83" t="n">
-        <v>14.42699999999999</v>
+        <v>14.41883333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C84" t="n">
         <v>14.99</v>
       </c>
-      <c r="C84" t="n">
-        <v>15</v>
-      </c>
       <c r="D84" t="n">
-        <v>15</v>
+        <v>14.99</v>
       </c>
       <c r="E84" t="n">
-        <v>14.99</v>
+        <v>14.9</v>
       </c>
       <c r="F84" t="n">
-        <v>93813.97689999999</v>
+        <v>942.2618</v>
       </c>
       <c r="G84" t="n">
-        <v>14.43299999999999</v>
+        <v>14.42699999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="C85" t="n">
         <v>15</v>
       </c>
-      <c r="C85" t="n">
-        <v>15.1</v>
-      </c>
       <c r="D85" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="E85" t="n">
-        <v>14.8</v>
+        <v>14.99</v>
       </c>
       <c r="F85" t="n">
-        <v>10043.4937</v>
+        <v>93813.97689999999</v>
       </c>
       <c r="G85" t="n">
-        <v>14.44066666666666</v>
+        <v>14.43299999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>15</v>
+      </c>
+      <c r="C86" t="n">
         <v>15.1</v>
-      </c>
-      <c r="C86" t="n">
-        <v>15.01</v>
       </c>
       <c r="D86" t="n">
         <v>15.1</v>
       </c>
       <c r="E86" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="F86" t="n">
-        <v>46562.2098</v>
+        <v>10043.4937</v>
       </c>
       <c r="G86" t="n">
-        <v>14.44683333333333</v>
+        <v>14.44066666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15.19</v>
+        <v>15.1</v>
       </c>
       <c r="C87" t="n">
-        <v>15.55</v>
+        <v>15.01</v>
       </c>
       <c r="D87" t="n">
-        <v>15.55</v>
+        <v>15.1</v>
       </c>
       <c r="E87" t="n">
-        <v>15.01</v>
+        <v>15</v>
       </c>
       <c r="F87" t="n">
-        <v>9934.4522</v>
+        <v>46562.2098</v>
       </c>
       <c r="G87" t="n">
-        <v>14.47216666666666</v>
+        <v>14.44683333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.3</v>
+        <v>15.19</v>
       </c>
       <c r="C88" t="n">
-        <v>15.48</v>
+        <v>15.55</v>
       </c>
       <c r="D88" t="n">
         <v>15.55</v>
       </c>
       <c r="E88" t="n">
-        <v>15.21</v>
+        <v>15.01</v>
       </c>
       <c r="F88" t="n">
-        <v>45356.2314</v>
+        <v>9934.4522</v>
       </c>
       <c r="G88" t="n">
-        <v>14.49016666666666</v>
+        <v>14.47216666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15.31</v>
+        <v>15.3</v>
       </c>
       <c r="C89" t="n">
         <v>15.48</v>
       </c>
       <c r="D89" t="n">
-        <v>15.48</v>
+        <v>15.55</v>
       </c>
       <c r="E89" t="n">
-        <v>15.22</v>
+        <v>15.21</v>
       </c>
       <c r="F89" t="n">
-        <v>16247.3346</v>
+        <v>45356.2314</v>
       </c>
       <c r="G89" t="n">
-        <v>14.50916666666666</v>
+        <v>14.49016666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15.48</v>
+        <v>15.31</v>
       </c>
       <c r="C90" t="n">
         <v>15.48</v>
       </c>
       <c r="D90" t="n">
-        <v>15.5</v>
+        <v>15.48</v>
       </c>
       <c r="E90" t="n">
-        <v>15.48</v>
+        <v>15.22</v>
       </c>
       <c r="F90" t="n">
-        <v>72631.4556</v>
+        <v>16247.3346</v>
       </c>
       <c r="G90" t="n">
-        <v>14.53216666666666</v>
+        <v>14.50916666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="C91" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="D91" t="n">
         <v>15.5</v>
-      </c>
-      <c r="C91" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="D91" t="n">
-        <v>15.99</v>
       </c>
       <c r="E91" t="n">
         <v>15.48</v>
       </c>
       <c r="F91" t="n">
-        <v>99780.4106</v>
+        <v>72631.4556</v>
       </c>
       <c r="G91" t="n">
-        <v>14.56433333333333</v>
+        <v>14.53216666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15.99</v>
+        <v>15.5</v>
       </c>
       <c r="C92" t="n">
         <v>15.99</v>
@@ -3592,13 +3592,13 @@
         <v>15.99</v>
       </c>
       <c r="E92" t="n">
-        <v>15.99</v>
+        <v>15.48</v>
       </c>
       <c r="F92" t="n">
-        <v>87.77800000000001</v>
+        <v>99780.4106</v>
       </c>
       <c r="G92" t="n">
-        <v>14.5965</v>
+        <v>14.56433333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3621,19 +3621,19 @@
         <v>15.99</v>
       </c>
       <c r="C93" t="n">
-        <v>16.9</v>
+        <v>15.99</v>
       </c>
       <c r="D93" t="n">
-        <v>16.9</v>
+        <v>15.99</v>
       </c>
       <c r="E93" t="n">
         <v>15.99</v>
       </c>
       <c r="F93" t="n">
-        <v>80829.4951</v>
+        <v>87.77800000000001</v>
       </c>
       <c r="G93" t="n">
-        <v>14.63983333333333</v>
+        <v>14.5965</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16</v>
+        <v>15.99</v>
       </c>
       <c r="C94" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="D94" t="n">
-        <v>16.81</v>
+        <v>16.9</v>
       </c>
       <c r="E94" t="n">
         <v>15.99</v>
       </c>
       <c r="F94" t="n">
-        <v>236000.4531</v>
+        <v>80829.4951</v>
       </c>
       <c r="G94" t="n">
-        <v>14.6815</v>
+        <v>14.63983333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>16</v>
+      </c>
+      <c r="C95" t="n">
         <v>16.8</v>
       </c>
-      <c r="C95" t="n">
-        <v>16.82</v>
-      </c>
       <c r="D95" t="n">
-        <v>16.82</v>
+        <v>16.81</v>
       </c>
       <c r="E95" t="n">
-        <v>16.8</v>
+        <v>15.99</v>
       </c>
       <c r="F95" t="n">
-        <v>216113.5291</v>
+        <v>236000.4531</v>
       </c>
       <c r="G95" t="n">
-        <v>14.72766666666667</v>
+        <v>14.6815</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,28 +3723,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C96" t="n">
         <v>16.82</v>
       </c>
-      <c r="C96" t="n">
-        <v>16.83</v>
-      </c>
       <c r="D96" t="n">
-        <v>16.83</v>
+        <v>16.82</v>
       </c>
       <c r="E96" t="n">
-        <v>16.82</v>
+        <v>16.8</v>
       </c>
       <c r="F96" t="n">
-        <v>96370.7071</v>
+        <v>216113.5291</v>
       </c>
       <c r="G96" t="n">
-        <v>14.76916666666667</v>
+        <v>14.72766666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3758,28 +3758,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16.9</v>
+        <v>16.82</v>
       </c>
       <c r="C97" t="n">
         <v>16.83</v>
       </c>
       <c r="D97" t="n">
-        <v>16.9</v>
+        <v>16.83</v>
       </c>
       <c r="E97" t="n">
-        <v>16.83</v>
+        <v>16.82</v>
       </c>
       <c r="F97" t="n">
-        <v>91137.8622</v>
+        <v>96370.7071</v>
       </c>
       <c r="G97" t="n">
-        <v>14.8155</v>
+        <v>14.76916666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3793,28 +3793,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16.83</v>
+        <v>16.9</v>
       </c>
       <c r="C98" t="n">
         <v>16.83</v>
       </c>
       <c r="D98" t="n">
-        <v>16.92</v>
+        <v>16.9</v>
       </c>
       <c r="E98" t="n">
         <v>16.83</v>
       </c>
       <c r="F98" t="n">
-        <v>63453.8758</v>
+        <v>91137.8622</v>
       </c>
       <c r="G98" t="n">
-        <v>14.86216666666667</v>
+        <v>14.8155</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3828,28 +3828,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16.82</v>
+        <v>16.83</v>
       </c>
       <c r="C99" t="n">
-        <v>16.82</v>
+        <v>16.83</v>
       </c>
       <c r="D99" t="n">
-        <v>16.82</v>
+        <v>16.92</v>
       </c>
       <c r="E99" t="n">
-        <v>16.82</v>
+        <v>16.83</v>
       </c>
       <c r="F99" t="n">
-        <v>5932.3743</v>
+        <v>63453.8758</v>
       </c>
       <c r="G99" t="n">
-        <v>14.90583333333334</v>
+        <v>14.86216666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3866,25 +3866,25 @@
         <v>16.82</v>
       </c>
       <c r="C100" t="n">
-        <v>16.92</v>
+        <v>16.82</v>
       </c>
       <c r="D100" t="n">
-        <v>16.92</v>
+        <v>16.82</v>
       </c>
       <c r="E100" t="n">
         <v>16.82</v>
       </c>
       <c r="F100" t="n">
-        <v>60405.8412</v>
+        <v>5932.3743</v>
       </c>
       <c r="G100" t="n">
-        <v>14.95366666666667</v>
+        <v>14.90583333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="C101" t="n">
         <v>16.92</v>
       </c>
-      <c r="C101" t="n">
-        <v>16.98</v>
-      </c>
       <c r="D101" t="n">
-        <v>16.98</v>
+        <v>16.92</v>
       </c>
       <c r="E101" t="n">
-        <v>16.92</v>
+        <v>16.82</v>
       </c>
       <c r="F101" t="n">
-        <v>36145.4542</v>
+        <v>60405.8412</v>
       </c>
       <c r="G101" t="n">
-        <v>15.0025</v>
+        <v>14.95366666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>16.95</v>
+        <v>16.92</v>
       </c>
       <c r="C102" t="n">
-        <v>16.95</v>
+        <v>16.98</v>
       </c>
       <c r="D102" t="n">
-        <v>16.95</v>
+        <v>16.98</v>
       </c>
       <c r="E102" t="n">
-        <v>16.95</v>
+        <v>16.92</v>
       </c>
       <c r="F102" t="n">
-        <v>18190.066</v>
+        <v>36145.4542</v>
       </c>
       <c r="G102" t="n">
-        <v>15.04666666666667</v>
+        <v>15.0025</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3971,19 +3971,19 @@
         <v>16.95</v>
       </c>
       <c r="C103" t="n">
-        <v>17.3</v>
+        <v>16.95</v>
       </c>
       <c r="D103" t="n">
-        <v>17.3</v>
+        <v>16.95</v>
       </c>
       <c r="E103" t="n">
         <v>16.95</v>
       </c>
       <c r="F103" t="n">
-        <v>240464.3477</v>
+        <v>18190.066</v>
       </c>
       <c r="G103" t="n">
-        <v>15.09666666666667</v>
+        <v>15.04666666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="C104" t="n">
         <v>17.3</v>
       </c>
-      <c r="C104" t="n">
-        <v>18</v>
-      </c>
       <c r="D104" t="n">
-        <v>18</v>
+        <v>17.3</v>
       </c>
       <c r="E104" t="n">
-        <v>17.3</v>
+        <v>16.95</v>
       </c>
       <c r="F104" t="n">
-        <v>603559.9708</v>
+        <v>240464.3477</v>
       </c>
       <c r="G104" t="n">
-        <v>15.16</v>
+        <v>15.09666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>17.9</v>
+        <v>17.3</v>
       </c>
       <c r="C105" t="n">
-        <v>18.26</v>
+        <v>18</v>
       </c>
       <c r="D105" t="n">
-        <v>18.26</v>
+        <v>18</v>
       </c>
       <c r="E105" t="n">
-        <v>17.9</v>
+        <v>17.3</v>
       </c>
       <c r="F105" t="n">
-        <v>388828.3674826944</v>
+        <v>603559.9708</v>
       </c>
       <c r="G105" t="n">
-        <v>15.226</v>
+        <v>15.16</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C106" t="n">
         <v>18.26</v>
       </c>
-      <c r="C106" t="n">
-        <v>18.6</v>
-      </c>
       <c r="D106" t="n">
-        <v>18.8</v>
+        <v>18.26</v>
       </c>
       <c r="E106" t="n">
-        <v>18.05</v>
+        <v>17.9</v>
       </c>
       <c r="F106" t="n">
-        <v>833624.8976173056</v>
+        <v>388828.3674826944</v>
       </c>
       <c r="G106" t="n">
-        <v>15.29933333333334</v>
+        <v>15.226</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,28 +4108,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="C107" t="n">
         <v>18.6</v>
       </c>
-      <c r="C107" t="n">
-        <v>18.4</v>
-      </c>
       <c r="D107" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="E107" t="n">
-        <v>18.39</v>
+        <v>18.05</v>
       </c>
       <c r="F107" t="n">
-        <v>264061.2491</v>
+        <v>833624.8976173056</v>
       </c>
       <c r="G107" t="n">
-        <v>15.37166666666667</v>
+        <v>15.29933333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C108" t="n">
         <v>18.4</v>
       </c>
-      <c r="C108" t="n">
-        <v>19.25</v>
-      </c>
       <c r="D108" t="n">
-        <v>19.25</v>
+        <v>18.7</v>
       </c>
       <c r="E108" t="n">
-        <v>18.4</v>
+        <v>18.39</v>
       </c>
       <c r="F108" t="n">
-        <v>209737.3774</v>
+        <v>264061.2491</v>
       </c>
       <c r="G108" t="n">
-        <v>15.45816666666667</v>
+        <v>15.37166666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="C109" t="n">
         <v>19.25</v>
       </c>
-      <c r="C109" t="n">
-        <v>19.4</v>
-      </c>
       <c r="D109" t="n">
-        <v>19.55</v>
+        <v>19.25</v>
       </c>
       <c r="E109" t="n">
-        <v>18.8</v>
+        <v>18.4</v>
       </c>
       <c r="F109" t="n">
-        <v>607101.0624000001</v>
+        <v>209737.3774</v>
       </c>
       <c r="G109" t="n">
-        <v>15.54333333333334</v>
+        <v>15.45816666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,28 +4213,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="C110" t="n">
         <v>19.4</v>
       </c>
-      <c r="C110" t="n">
-        <v>20.49</v>
-      </c>
       <c r="D110" t="n">
-        <v>21</v>
+        <v>19.55</v>
       </c>
       <c r="E110" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="F110" t="n">
-        <v>1407281.062688143</v>
+        <v>607101.0624000001</v>
       </c>
       <c r="G110" t="n">
-        <v>15.64483333333334</v>
+        <v>15.54333333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C111" t="n">
         <v>20.49</v>
       </c>
-      <c r="C111" t="n">
-        <v>20.1</v>
-      </c>
       <c r="D111" t="n">
-        <v>20.49</v>
+        <v>21</v>
       </c>
       <c r="E111" t="n">
-        <v>19.05</v>
+        <v>19.4</v>
       </c>
       <c r="F111" t="n">
-        <v>233407.235</v>
+        <v>1407281.062688143</v>
       </c>
       <c r="G111" t="n">
-        <v>15.73650000000001</v>
+        <v>15.64483333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,28 +4283,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="C112" t="n">
         <v>20.1</v>
       </c>
-      <c r="C112" t="n">
-        <v>19.26</v>
-      </c>
       <c r="D112" t="n">
-        <v>20.1</v>
+        <v>20.49</v>
       </c>
       <c r="E112" t="n">
-        <v>19.26</v>
+        <v>19.05</v>
       </c>
       <c r="F112" t="n">
-        <v>180493.293638806</v>
+        <v>233407.235</v>
       </c>
       <c r="G112" t="n">
-        <v>15.81750000000001</v>
+        <v>15.73650000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>19.27</v>
+        <v>20.1</v>
       </c>
       <c r="C113" t="n">
-        <v>18.39</v>
+        <v>19.26</v>
       </c>
       <c r="D113" t="n">
-        <v>19.27</v>
+        <v>20.1</v>
       </c>
       <c r="E113" t="n">
-        <v>18.29</v>
+        <v>19.26</v>
       </c>
       <c r="F113" t="n">
-        <v>1450822.6371</v>
+        <v>180493.293638806</v>
       </c>
       <c r="G113" t="n">
-        <v>15.88016666666667</v>
+        <v>15.81750000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>18.89</v>
+        <v>19.27</v>
       </c>
       <c r="C114" t="n">
-        <v>18.85</v>
+        <v>18.39</v>
       </c>
       <c r="D114" t="n">
-        <v>18.89</v>
+        <v>19.27</v>
       </c>
       <c r="E114" t="n">
-        <v>18.85</v>
+        <v>18.29</v>
       </c>
       <c r="F114" t="n">
-        <v>37941.87847769169</v>
+        <v>1450822.6371</v>
       </c>
       <c r="G114" t="n">
-        <v>15.95050000000001</v>
+        <v>15.88016666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>18.6</v>
+        <v>18.89</v>
       </c>
       <c r="C115" t="n">
-        <v>18.47</v>
+        <v>18.85</v>
       </c>
       <c r="D115" t="n">
-        <v>18.83</v>
+        <v>18.89</v>
       </c>
       <c r="E115" t="n">
-        <v>18</v>
+        <v>18.85</v>
       </c>
       <c r="F115" t="n">
-        <v>415352.2361</v>
+        <v>37941.87847769169</v>
       </c>
       <c r="G115" t="n">
-        <v>16.01416666666668</v>
+        <v>15.95050000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>18.46</v>
+        <v>18.6</v>
       </c>
       <c r="C116" t="n">
-        <v>18.46</v>
+        <v>18.47</v>
       </c>
       <c r="D116" t="n">
-        <v>18.46</v>
+        <v>18.83</v>
       </c>
       <c r="E116" t="n">
-        <v>18.46</v>
+        <v>18</v>
       </c>
       <c r="F116" t="n">
-        <v>10736.915</v>
+        <v>415352.2361</v>
       </c>
       <c r="G116" t="n">
-        <v>16.07850000000001</v>
+        <v>16.01416666666668</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>18.29</v>
+        <v>18.46</v>
       </c>
       <c r="C117" t="n">
-        <v>18</v>
+        <v>18.46</v>
       </c>
       <c r="D117" t="n">
-        <v>18.29</v>
+        <v>18.46</v>
       </c>
       <c r="E117" t="n">
-        <v>18</v>
+        <v>18.46</v>
       </c>
       <c r="F117" t="n">
-        <v>84429.4666</v>
+        <v>10736.915</v>
       </c>
       <c r="G117" t="n">
-        <v>16.13533333333334</v>
+        <v>16.07850000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="C118" t="n">
         <v>18</v>
       </c>
-      <c r="C118" t="n">
-        <v>17.42</v>
-      </c>
       <c r="D118" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="E118" t="n">
         <v>18</v>
       </c>
-      <c r="E118" t="n">
-        <v>17.41</v>
-      </c>
       <c r="F118" t="n">
-        <v>140246.731</v>
+        <v>84429.4666</v>
       </c>
       <c r="G118" t="n">
-        <v>16.18250000000001</v>
+        <v>16.13533333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4531,19 +4531,19 @@
         <v>18</v>
       </c>
       <c r="C119" t="n">
-        <v>18.3</v>
+        <v>17.42</v>
       </c>
       <c r="D119" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="E119" t="n">
-        <v>17.6</v>
+        <v>17.41</v>
       </c>
       <c r="F119" t="n">
-        <v>17763.7796</v>
+        <v>140246.731</v>
       </c>
       <c r="G119" t="n">
-        <v>16.2425</v>
+        <v>16.18250000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>17.64</v>
+        <v>18</v>
       </c>
       <c r="C120" t="n">
-        <v>17.35</v>
+        <v>18.3</v>
       </c>
       <c r="D120" t="n">
-        <v>17.64</v>
+        <v>18.3</v>
       </c>
       <c r="E120" t="n">
-        <v>17.35</v>
+        <v>17.6</v>
       </c>
       <c r="F120" t="n">
-        <v>89612.9063</v>
+        <v>17763.7796</v>
       </c>
       <c r="G120" t="n">
-        <v>16.28833333333334</v>
+        <v>16.2425</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="C121" t="n">
         <v>17.35</v>
       </c>
-      <c r="C121" t="n">
-        <v>16.71</v>
-      </c>
       <c r="D121" t="n">
-        <v>17.5</v>
+        <v>17.64</v>
       </c>
       <c r="E121" t="n">
-        <v>16.71</v>
+        <v>17.35</v>
       </c>
       <c r="F121" t="n">
-        <v>221242.4338</v>
+        <v>89612.9063</v>
       </c>
       <c r="G121" t="n">
-        <v>16.32516666666667</v>
+        <v>16.28833333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>17.2</v>
+        <v>17.35</v>
       </c>
       <c r="C122" t="n">
-        <v>17.3</v>
+        <v>16.71</v>
       </c>
       <c r="D122" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="E122" t="n">
-        <v>17.2</v>
+        <v>16.71</v>
       </c>
       <c r="F122" t="n">
-        <v>12044.5028</v>
+        <v>221242.4338</v>
       </c>
       <c r="G122" t="n">
-        <v>16.36866666666667</v>
+        <v>16.32516666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>17.6</v>
+        <v>17.2</v>
       </c>
       <c r="C123" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="D123" t="n">
-        <v>17.8</v>
+        <v>17.3</v>
       </c>
       <c r="E123" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="F123" t="n">
-        <v>77713.05190000001</v>
+        <v>12044.5028</v>
       </c>
       <c r="G123" t="n">
-        <v>16.42033333333334</v>
+        <v>16.36866666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4706,19 +4706,19 @@
         <v>17.6</v>
       </c>
       <c r="C124" t="n">
-        <v>17.31</v>
+        <v>17.4</v>
       </c>
       <c r="D124" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="E124" t="n">
-        <v>17.26</v>
+        <v>17.4</v>
       </c>
       <c r="F124" t="n">
-        <v>79705.9566</v>
+        <v>77713.05190000001</v>
       </c>
       <c r="G124" t="n">
-        <v>16.46566666666667</v>
+        <v>16.42033333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C125" t="n">
         <v>17.31</v>
       </c>
-      <c r="C125" t="n">
-        <v>17.4</v>
-      </c>
       <c r="D125" t="n">
-        <v>17.49</v>
+        <v>17.7</v>
       </c>
       <c r="E125" t="n">
-        <v>17.3</v>
+        <v>17.26</v>
       </c>
       <c r="F125" t="n">
-        <v>195629.6346</v>
+        <v>79705.9566</v>
       </c>
       <c r="G125" t="n">
-        <v>16.5125</v>
+        <v>16.46566666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>17.4</v>
+        <v>17.31</v>
       </c>
       <c r="C126" t="n">
         <v>17.4</v>
       </c>
       <c r="D126" t="n">
-        <v>17.4</v>
+        <v>17.49</v>
       </c>
       <c r="E126" t="n">
         <v>17.3</v>
       </c>
       <c r="F126" t="n">
-        <v>129449.6134</v>
+        <v>195629.6346</v>
       </c>
       <c r="G126" t="n">
-        <v>16.55916666666667</v>
+        <v>16.5125</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>17.23</v>
+        <v>17.4</v>
       </c>
       <c r="C127" t="n">
         <v>17.4</v>
@@ -4817,13 +4817,13 @@
         <v>17.4</v>
       </c>
       <c r="E127" t="n">
-        <v>17.23</v>
+        <v>17.3</v>
       </c>
       <c r="F127" t="n">
-        <v>14091.21111839081</v>
+        <v>129449.6134</v>
       </c>
       <c r="G127" t="n">
-        <v>16.60916666666667</v>
+        <v>16.55916666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>17.4</v>
+        <v>17.23</v>
       </c>
       <c r="C128" t="n">
         <v>17.4</v>
@@ -4852,13 +4852,13 @@
         <v>17.4</v>
       </c>
       <c r="E128" t="n">
-        <v>17.4</v>
+        <v>17.23</v>
       </c>
       <c r="F128" t="n">
-        <v>190.9772</v>
+        <v>14091.21111839081</v>
       </c>
       <c r="G128" t="n">
-        <v>16.66083333333334</v>
+        <v>16.60916666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>17.22</v>
+        <v>17.4</v>
       </c>
       <c r="C129" t="n">
-        <v>17.25</v>
+        <v>17.4</v>
       </c>
       <c r="D129" t="n">
-        <v>17.25</v>
+        <v>17.4</v>
       </c>
       <c r="E129" t="n">
-        <v>17.22</v>
+        <v>17.4</v>
       </c>
       <c r="F129" t="n">
-        <v>70342.9997</v>
+        <v>190.9772</v>
       </c>
       <c r="G129" t="n">
-        <v>16.71</v>
+        <v>16.66083333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4916,19 +4916,19 @@
         <v>17.22</v>
       </c>
       <c r="C130" t="n">
-        <v>16.54</v>
+        <v>17.25</v>
       </c>
       <c r="D130" t="n">
         <v>17.25</v>
       </c>
       <c r="E130" t="n">
-        <v>16.54</v>
+        <v>17.22</v>
       </c>
       <c r="F130" t="n">
-        <v>141962.7001</v>
+        <v>70342.9997</v>
       </c>
       <c r="G130" t="n">
-        <v>16.74733333333334</v>
+        <v>16.71</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>16.6</v>
+        <v>17.22</v>
       </c>
       <c r="C131" t="n">
-        <v>16.6</v>
+        <v>16.54</v>
       </c>
       <c r="D131" t="n">
-        <v>16.6</v>
+        <v>17.25</v>
       </c>
       <c r="E131" t="n">
-        <v>16.6</v>
+        <v>16.54</v>
       </c>
       <c r="F131" t="n">
-        <v>23178.0983</v>
+        <v>141962.7001</v>
       </c>
       <c r="G131" t="n">
-        <v>16.784</v>
+        <v>16.74733333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>16.66</v>
+        <v>16.6</v>
       </c>
       <c r="C132" t="n">
-        <v>16.35</v>
+        <v>16.6</v>
       </c>
       <c r="D132" t="n">
-        <v>16.66</v>
+        <v>16.6</v>
       </c>
       <c r="E132" t="n">
-        <v>16.35</v>
+        <v>16.6</v>
       </c>
       <c r="F132" t="n">
-        <v>135443.011</v>
+        <v>23178.0983</v>
       </c>
       <c r="G132" t="n">
-        <v>16.81233333333334</v>
+        <v>16.784</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="C133" t="n">
         <v>16.35</v>
       </c>
-      <c r="C133" t="n">
-        <v>15.97</v>
-      </c>
       <c r="D133" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="E133" t="n">
         <v>16.35</v>
       </c>
-      <c r="E133" t="n">
-        <v>15.97</v>
-      </c>
       <c r="F133" t="n">
-        <v>176903.4046</v>
+        <v>135443.011</v>
       </c>
       <c r="G133" t="n">
-        <v>16.83433333333334</v>
+        <v>16.81233333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>16.2</v>
+        <v>16.35</v>
       </c>
       <c r="C134" t="n">
-        <v>16.11</v>
+        <v>15.97</v>
       </c>
       <c r="D134" t="n">
-        <v>16.2</v>
+        <v>16.35</v>
       </c>
       <c r="E134" t="n">
-        <v>16.11</v>
+        <v>15.97</v>
       </c>
       <c r="F134" t="n">
-        <v>19341.0434</v>
+        <v>176903.4046</v>
       </c>
       <c r="G134" t="n">
-        <v>16.85866666666667</v>
+        <v>16.83433333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>15.77</v>
+        <v>16.2</v>
       </c>
       <c r="C135" t="n">
-        <v>16.18</v>
+        <v>16.11</v>
       </c>
       <c r="D135" t="n">
-        <v>16.18</v>
+        <v>16.2</v>
       </c>
       <c r="E135" t="n">
-        <v>15.77</v>
+        <v>16.11</v>
       </c>
       <c r="F135" t="n">
-        <v>55901.0256</v>
+        <v>19341.0434</v>
       </c>
       <c r="G135" t="n">
-        <v>16.88416666666667</v>
+        <v>16.85866666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,32 +5123,38 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>16.04</v>
+        <v>15.77</v>
       </c>
       <c r="C136" t="n">
-        <v>16.04</v>
+        <v>16.18</v>
       </c>
       <c r="D136" t="n">
-        <v>16.04</v>
+        <v>16.18</v>
       </c>
       <c r="E136" t="n">
-        <v>16</v>
+        <v>15.77</v>
       </c>
       <c r="F136" t="n">
-        <v>89652.99739999999</v>
+        <v>55901.0256</v>
       </c>
       <c r="G136" t="n">
-        <v>16.91150000000001</v>
+        <v>16.88416666666667</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>16.11</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5158,32 +5164,38 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>15.9</v>
+        <v>16.04</v>
       </c>
       <c r="C137" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="D137" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="E137" t="n">
         <v>16</v>
       </c>
-      <c r="D137" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="E137" t="n">
-        <v>15.9</v>
-      </c>
       <c r="F137" t="n">
-        <v>38527.757</v>
+        <v>89652.99739999999</v>
       </c>
       <c r="G137" t="n">
-        <v>16.93416666666668</v>
+        <v>16.91150000000001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>16.18</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5193,32 +5205,38 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>16.01</v>
+        <v>15.9</v>
       </c>
       <c r="C138" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D138" t="n">
-        <v>16.01</v>
+        <v>16.68</v>
       </c>
       <c r="E138" t="n">
         <v>15.9</v>
       </c>
       <c r="F138" t="n">
-        <v>62688.7996</v>
+        <v>38527.757</v>
       </c>
       <c r="G138" t="n">
-        <v>16.95500000000001</v>
+        <v>16.93416666666668</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>16.04</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5231,29 +5249,35 @@
         <v>16.01</v>
       </c>
       <c r="C139" t="n">
-        <v>15.89</v>
+        <v>15.9</v>
       </c>
       <c r="D139" t="n">
         <v>16.01</v>
       </c>
       <c r="E139" t="n">
-        <v>15.89</v>
+        <v>15.9</v>
       </c>
       <c r="F139" t="n">
-        <v>112389.6981</v>
+        <v>62688.7996</v>
       </c>
       <c r="G139" t="n">
-        <v>16.97566666666668</v>
+        <v>16.95500000000001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>16</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5263,32 +5287,38 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>15.79</v>
+        <v>16.01</v>
       </c>
       <c r="C140" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="D140" t="n">
-        <v>15.8</v>
+        <v>16.01</v>
       </c>
       <c r="E140" t="n">
-        <v>15.79</v>
+        <v>15.89</v>
       </c>
       <c r="F140" t="n">
-        <v>25278.0926</v>
+        <v>112389.6981</v>
       </c>
       <c r="G140" t="n">
-        <v>16.99400000000001</v>
+        <v>16.97566666666668</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>15.9</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5298,22 +5328,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>15.5</v>
+        <v>15.79</v>
       </c>
       <c r="C141" t="n">
-        <v>15.35</v>
+        <v>15.8</v>
       </c>
       <c r="D141" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E141" t="n">
-        <v>15.35</v>
+        <v>15.79</v>
       </c>
       <c r="F141" t="n">
-        <v>368924.4041</v>
+        <v>25278.0926</v>
       </c>
       <c r="G141" t="n">
-        <v>17.00566666666667</v>
+        <v>16.99400000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5323,7 +5353,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5333,32 +5367,38 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>15.19</v>
+        <v>15.5</v>
       </c>
       <c r="C142" t="n">
-        <v>15.99</v>
+        <v>15.35</v>
       </c>
       <c r="D142" t="n">
-        <v>15.99</v>
+        <v>15.5</v>
       </c>
       <c r="E142" t="n">
-        <v>15.19</v>
+        <v>15.35</v>
       </c>
       <c r="F142" t="n">
-        <v>232761.7548</v>
+        <v>368924.4041</v>
       </c>
       <c r="G142" t="n">
-        <v>17.02233333333334</v>
+        <v>17.00566666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>15.8</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5368,32 +5408,38 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>15.7</v>
+        <v>15.19</v>
       </c>
       <c r="C143" t="n">
-        <v>15.8</v>
+        <v>15.99</v>
       </c>
       <c r="D143" t="n">
-        <v>15.8</v>
+        <v>15.99</v>
       </c>
       <c r="E143" t="n">
-        <v>15.7</v>
+        <v>15.19</v>
       </c>
       <c r="F143" t="n">
-        <v>66618.2969</v>
+        <v>232761.7548</v>
       </c>
       <c r="G143" t="n">
-        <v>17.03583333333334</v>
+        <v>17.02233333333334</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>15.35</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5403,32 +5449,38 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C144" t="n">
         <v>15.8</v>
-      </c>
-      <c r="C144" t="n">
-        <v>15.69</v>
       </c>
       <c r="D144" t="n">
         <v>15.8</v>
       </c>
       <c r="E144" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F144" t="n">
-        <v>9995.953862025317</v>
+        <v>66618.2969</v>
       </c>
       <c r="G144" t="n">
-        <v>17.04733333333334</v>
+        <v>17.03583333333334</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>15.99</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5438,22 +5490,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>15.52</v>
+        <v>15.8</v>
       </c>
       <c r="C145" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="D145" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E145" t="n">
         <v>15.6</v>
       </c>
-      <c r="D145" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E145" t="n">
-        <v>15.51</v>
-      </c>
       <c r="F145" t="n">
-        <v>109715.3552</v>
+        <v>9995.953862025317</v>
       </c>
       <c r="G145" t="n">
-        <v>17.05566666666667</v>
+        <v>17.04733333333334</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5463,7 +5515,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5473,36 +5529,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>15.51</v>
+        <v>15.52</v>
       </c>
       <c r="C146" t="n">
-        <v>15.51</v>
+        <v>15.6</v>
       </c>
       <c r="D146" t="n">
         <v>15.6</v>
       </c>
       <c r="E146" t="n">
-        <v>15.5</v>
+        <v>15.51</v>
       </c>
       <c r="F146" t="n">
-        <v>109462.9423</v>
+        <v>109715.3552</v>
       </c>
       <c r="G146" t="n">
-        <v>17.06400000000001</v>
+        <v>17.05566666666667</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M146" t="n">
@@ -5517,29 +5571,27 @@
         <v>15.51</v>
       </c>
       <c r="C147" t="n">
-        <v>14.93</v>
+        <v>15.51</v>
       </c>
       <c r="D147" t="n">
-        <v>15.51</v>
+        <v>15.6</v>
       </c>
       <c r="E147" t="n">
-        <v>14.93</v>
+        <v>15.5</v>
       </c>
       <c r="F147" t="n">
-        <v>51463.7229</v>
+        <v>109462.9423</v>
       </c>
       <c r="G147" t="n">
-        <v>17.05366666666668</v>
+        <v>17.06400000000001</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>15.51</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -5555,32 +5607,30 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>15.2</v>
+        <v>15.51</v>
       </c>
       <c r="C148" t="n">
-        <v>15.6</v>
+        <v>14.93</v>
       </c>
       <c r="D148" t="n">
-        <v>15.6</v>
+        <v>15.51</v>
       </c>
       <c r="E148" t="n">
-        <v>15.11</v>
+        <v>14.93</v>
       </c>
       <c r="F148" t="n">
-        <v>326482.1645</v>
+        <v>51463.7229</v>
       </c>
       <c r="G148" t="n">
-        <v>17.05566666666667</v>
+        <v>17.05366666666668</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>14.93</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -5596,32 +5646,30 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>15.56</v>
+        <v>15.2</v>
       </c>
       <c r="C149" t="n">
-        <v>15.31</v>
+        <v>15.6</v>
       </c>
       <c r="D149" t="n">
-        <v>15.56</v>
+        <v>15.6</v>
       </c>
       <c r="E149" t="n">
-        <v>15.31</v>
+        <v>15.11</v>
       </c>
       <c r="F149" t="n">
-        <v>71370.3976</v>
+        <v>326482.1645</v>
       </c>
       <c r="G149" t="n">
-        <v>17.05283333333334</v>
+        <v>17.05566666666667</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -5637,32 +5685,30 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>15.15</v>
+        <v>15.56</v>
       </c>
       <c r="C150" t="n">
-        <v>15.16</v>
+        <v>15.31</v>
       </c>
       <c r="D150" t="n">
-        <v>15.16</v>
+        <v>15.56</v>
       </c>
       <c r="E150" t="n">
-        <v>15.14</v>
+        <v>15.31</v>
       </c>
       <c r="F150" t="n">
-        <v>376532.8567</v>
+        <v>71370.3976</v>
       </c>
       <c r="G150" t="n">
-        <v>17.04750000000001</v>
+        <v>17.05283333333334</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>15.31</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -5678,32 +5724,30 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>15.39</v>
+        <v>15.15</v>
       </c>
       <c r="C151" t="n">
-        <v>15.39</v>
+        <v>15.16</v>
       </c>
       <c r="D151" t="n">
-        <v>15.39</v>
+        <v>15.16</v>
       </c>
       <c r="E151" t="n">
-        <v>15.39</v>
+        <v>15.14</v>
       </c>
       <c r="F151" t="n">
-        <v>168622.6201</v>
+        <v>376532.8567</v>
       </c>
       <c r="G151" t="n">
-        <v>17.03750000000001</v>
+        <v>17.04750000000001</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>15.16</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -5719,32 +5763,30 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>15.51</v>
+        <v>15.39</v>
       </c>
       <c r="C152" t="n">
-        <v>15.69</v>
+        <v>15.39</v>
       </c>
       <c r="D152" t="n">
-        <v>15.69</v>
+        <v>15.39</v>
       </c>
       <c r="E152" t="n">
-        <v>15.5</v>
+        <v>15.39</v>
       </c>
       <c r="F152" t="n">
-        <v>28637.9371</v>
+        <v>168622.6201</v>
       </c>
       <c r="G152" t="n">
-        <v>17.03250000000001</v>
+        <v>17.03750000000001</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>15.39</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -5760,32 +5802,30 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="D153" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="E153" t="n">
         <v>15.5</v>
       </c>
-      <c r="C153" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D153" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E153" t="n">
-        <v>15.4</v>
-      </c>
       <c r="F153" t="n">
-        <v>55421.3455</v>
+        <v>28637.9371</v>
       </c>
       <c r="G153" t="n">
-        <v>17.00750000000001</v>
+        <v>17.03250000000001</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>15.69</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -5801,32 +5841,30 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>15.49</v>
+        <v>15.5</v>
       </c>
       <c r="C154" t="n">
-        <v>15.46</v>
+        <v>15.4</v>
       </c>
       <c r="D154" t="n">
-        <v>15.49</v>
+        <v>15.5</v>
       </c>
       <c r="E154" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F154" t="n">
-        <v>84401.11500000001</v>
+        <v>55421.3455</v>
       </c>
       <c r="G154" t="n">
-        <v>16.98516666666668</v>
+        <v>17.00750000000001</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -5842,22 +5880,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="C155" t="n">
         <v>15.46</v>
       </c>
-      <c r="C155" t="n">
-        <v>15.8</v>
-      </c>
       <c r="D155" t="n">
-        <v>15.8</v>
+        <v>15.49</v>
       </c>
       <c r="E155" t="n">
-        <v>15.46</v>
+        <v>15.3</v>
       </c>
       <c r="F155" t="n">
-        <v>138208.356</v>
+        <v>84401.11500000001</v>
       </c>
       <c r="G155" t="n">
-        <v>16.96816666666668</v>
+        <v>16.98516666666668</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5881,22 +5919,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>15.6</v>
+        <v>15.46</v>
       </c>
       <c r="C156" t="n">
-        <v>15.46</v>
+        <v>15.8</v>
       </c>
       <c r="D156" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E156" t="n">
         <v>15.46</v>
       </c>
       <c r="F156" t="n">
-        <v>22405.8672</v>
+        <v>138208.356</v>
       </c>
       <c r="G156" t="n">
-        <v>16.94533333333334</v>
+        <v>16.96816666666668</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5920,22 +5958,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C157" t="n">
         <v>15.46</v>
       </c>
-      <c r="C157" t="n">
-        <v>15.7</v>
-      </c>
       <c r="D157" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E157" t="n">
         <v>15.46</v>
       </c>
       <c r="F157" t="n">
-        <v>69138.6517</v>
+        <v>22405.8672</v>
       </c>
       <c r="G157" t="n">
-        <v>16.9265</v>
+        <v>16.94533333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5959,22 +5997,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>15.77</v>
+        <v>15.46</v>
       </c>
       <c r="C158" t="n">
-        <v>15.77</v>
+        <v>15.7</v>
       </c>
       <c r="D158" t="n">
-        <v>15.77</v>
+        <v>15.7</v>
       </c>
       <c r="E158" t="n">
-        <v>15.77</v>
+        <v>15.46</v>
       </c>
       <c r="F158" t="n">
-        <v>108</v>
+        <v>69138.6517</v>
       </c>
       <c r="G158" t="n">
-        <v>16.90883333333334</v>
+        <v>16.9265</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5998,22 +6036,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>15.75</v>
+        <v>15.77</v>
       </c>
       <c r="C159" t="n">
-        <v>15.75</v>
+        <v>15.77</v>
       </c>
       <c r="D159" t="n">
-        <v>15.75</v>
+        <v>15.77</v>
       </c>
       <c r="E159" t="n">
-        <v>15.75</v>
+        <v>15.77</v>
       </c>
       <c r="F159" t="n">
-        <v>6060.3345</v>
+        <v>108</v>
       </c>
       <c r="G159" t="n">
-        <v>16.891</v>
+        <v>16.90883333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6037,22 +6075,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>15.31</v>
+        <v>15.75</v>
       </c>
       <c r="C160" t="n">
-        <v>15.31</v>
+        <v>15.75</v>
       </c>
       <c r="D160" t="n">
-        <v>15.31</v>
+        <v>15.75</v>
       </c>
       <c r="E160" t="n">
-        <v>15.31</v>
+        <v>15.75</v>
       </c>
       <c r="F160" t="n">
-        <v>5126.3128</v>
+        <v>6060.3345</v>
       </c>
       <c r="G160" t="n">
-        <v>16.86416666666667</v>
+        <v>16.891</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6076,22 +6114,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>15.4</v>
+        <v>15.31</v>
       </c>
       <c r="C161" t="n">
-        <v>15.4</v>
+        <v>15.31</v>
       </c>
       <c r="D161" t="n">
-        <v>15.4</v>
+        <v>15.31</v>
       </c>
       <c r="E161" t="n">
-        <v>15.4</v>
+        <v>15.31</v>
       </c>
       <c r="F161" t="n">
-        <v>2998.3245</v>
+        <v>5126.3128</v>
       </c>
       <c r="G161" t="n">
-        <v>16.83783333333334</v>
+        <v>16.86416666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6115,22 +6153,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>15.31</v>
+        <v>15.4</v>
       </c>
       <c r="C162" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D162" t="n">
         <v>15.4</v>
       </c>
       <c r="E162" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F162" t="n">
-        <v>33993.0619</v>
+        <v>2998.3245</v>
       </c>
       <c r="G162" t="n">
-        <v>16.81033333333334</v>
+        <v>16.83783333333334</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6154,22 +6192,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>15.3</v>
+        <v>15.31</v>
       </c>
       <c r="C163" t="n">
         <v>15.3</v>
       </c>
       <c r="D163" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E163" t="n">
         <v>15.3</v>
       </c>
       <c r="F163" t="n">
-        <v>20114.9577</v>
+        <v>33993.0619</v>
       </c>
       <c r="G163" t="n">
-        <v>16.777</v>
+        <v>16.81033333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6188,6 +6226,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C164" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D164" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E164" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>20114.9577</v>
+      </c>
+      <c r="G164" t="n">
+        <v>16.777</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest FAB.xlsx
+++ b/BackTest/2020-01-16 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1399.8298</v>
       </c>
       <c r="G2" t="n">
+        <v>14.11266666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>13.51550000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>44818.2503</v>
       </c>
       <c r="G3" t="n">
+        <v>14.13133333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>13.53350000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>12405.7805</v>
       </c>
       <c r="G4" t="n">
+        <v>14.14133333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>13.56100000000001</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>30489.0795</v>
       </c>
       <c r="G5" t="n">
+        <v>14.15133333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>13.59416666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,29 @@
         <v>1823.9193</v>
       </c>
       <c r="G6" t="n">
+        <v>14.16133333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>13.62983333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +671,29 @@
         <v>34781.2022</v>
       </c>
       <c r="G7" t="n">
+        <v>14.15133333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>13.67766666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +717,29 @@
         <v>11451.8214</v>
       </c>
       <c r="G8" t="n">
+        <v>14.14066666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>13.70950000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +763,29 @@
         <v>5776.4566</v>
       </c>
       <c r="G9" t="n">
+        <v>14.12999999999999</v>
+      </c>
+      <c r="H9" t="n">
         <v>13.74116666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +809,29 @@
         <v>177926.9333</v>
       </c>
       <c r="G10" t="n">
+        <v>14.13133333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>13.77433333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +855,29 @@
         <v>2623.9932</v>
       </c>
       <c r="G11" t="n">
+        <v>14.13266666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>13.80750000000001</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="L11" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +901,29 @@
         <v>1399.8298</v>
       </c>
       <c r="G12" t="n">
+        <v>14.13933333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>13.83916666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="L12" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +947,29 @@
         <v>11241.7119</v>
       </c>
       <c r="G13" t="n">
+        <v>14.14733333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>13.84966666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +993,27 @@
         <v>20399.5015</v>
       </c>
       <c r="G14" t="n">
+        <v>14.15399999999999</v>
+      </c>
+      <c r="H14" t="n">
         <v>13.86000000000001</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1037,27 @@
         <v>309.225</v>
       </c>
       <c r="G15" t="n">
+        <v>14.166</v>
+      </c>
+      <c r="H15" t="n">
         <v>13.87500000000001</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1081,27 @@
         <v>28417.9496</v>
       </c>
       <c r="G16" t="n">
+        <v>14.17333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>13.88850000000001</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1125,27 @@
         <v>10000</v>
       </c>
       <c r="G17" t="n">
+        <v>14.18599999999999</v>
+      </c>
+      <c r="H17" t="n">
         <v>13.89333333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1169,27 @@
         <v>44311.3873</v>
       </c>
       <c r="G18" t="n">
+        <v>14.19933333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>13.89816666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1213,27 @@
         <v>89340.4163</v>
       </c>
       <c r="G19" t="n">
+        <v>14.21599999999999</v>
+      </c>
+      <c r="H19" t="n">
         <v>13.90900000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1257,27 @@
         <v>1242</v>
       </c>
       <c r="G20" t="n">
+        <v>14.24266666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>13.92233333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1301,27 @@
         <v>46883.2484</v>
       </c>
       <c r="G21" t="n">
+        <v>14.25933333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>13.93566666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1345,27 @@
         <v>18934.4203</v>
       </c>
       <c r="G22" t="n">
+        <v>14.28266666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>13.94650000000001</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1389,27 @@
         <v>800.2320999999999</v>
       </c>
       <c r="G23" t="n">
+        <v>14.30933333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>13.95833333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1433,27 @@
         <v>11725.2688</v>
       </c>
       <c r="G24" t="n">
+        <v>14.33599999999999</v>
+      </c>
+      <c r="H24" t="n">
         <v>13.97000000000001</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1477,27 @@
         <v>3542.9193</v>
       </c>
       <c r="G25" t="n">
+        <v>14.35999999999999</v>
+      </c>
+      <c r="H25" t="n">
         <v>13.98900000000001</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1521,27 @@
         <v>8201.142599999999</v>
       </c>
       <c r="G26" t="n">
+        <v>14.38399999999999</v>
+      </c>
+      <c r="H26" t="n">
         <v>14.00333333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1565,27 @@
         <v>58881.5822</v>
       </c>
       <c r="G27" t="n">
+        <v>14.41333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>14.01766666666668</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1609,27 @@
         <v>58881.5822</v>
       </c>
       <c r="G28" t="n">
+        <v>14.40066666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>14.02166666666668</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1653,27 @@
         <v>1122.5969</v>
       </c>
       <c r="G29" t="n">
+        <v>14.414</v>
+      </c>
+      <c r="H29" t="n">
         <v>14.03166666666668</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1697,27 @@
         <v>292.693</v>
       </c>
       <c r="G30" t="n">
+        <v>14.418</v>
+      </c>
+      <c r="H30" t="n">
         <v>14.03733333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1741,27 @@
         <v>7908.4496</v>
       </c>
       <c r="G31" t="n">
+        <v>14.41133333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>14.03766666666668</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1785,27 @@
         <v>15186</v>
       </c>
       <c r="G32" t="n">
+        <v>14.396</v>
+      </c>
+      <c r="H32" t="n">
         <v>14.04150000000001</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1829,27 @@
         <v>11725.2688</v>
       </c>
       <c r="G33" t="n">
+        <v>14.38066666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>14.04600000000001</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1873,27 @@
         <v>2029</v>
       </c>
       <c r="G34" t="n">
+        <v>14.37733333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>14.05933333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1917,27 @@
         <v>34106.7771</v>
       </c>
       <c r="G35" t="n">
+        <v>14.364</v>
+      </c>
+      <c r="H35" t="n">
         <v>14.07266666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1961,27 @@
         <v>6259.2231</v>
       </c>
       <c r="G36" t="n">
+        <v>14.334</v>
+      </c>
+      <c r="H36" t="n">
         <v>14.08366666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +2005,27 @@
         <v>77</v>
       </c>
       <c r="G37" t="n">
+        <v>14.32666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>14.10100000000001</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2049,27 @@
         <v>559.9739</v>
       </c>
       <c r="G38" t="n">
+        <v>14.29666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>14.11350000000001</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2093,27 @@
         <v>97</v>
       </c>
       <c r="G39" t="n">
+        <v>14.26533333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>14.12900000000001</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2137,27 @@
         <v>5775</v>
       </c>
       <c r="G40" t="n">
+        <v>14.236</v>
+      </c>
+      <c r="H40" t="n">
         <v>14.14883333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2181,27 @@
         <v>77.56</v>
       </c>
       <c r="G41" t="n">
+        <v>14.19666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>14.16166666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2225,27 @@
         <v>6630.9656</v>
       </c>
       <c r="G42" t="n">
+        <v>14.15733333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>14.17750000000001</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2269,27 @@
         <v>59278.3671</v>
       </c>
       <c r="G43" t="n">
+        <v>14.17533333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>14.18800000000001</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2313,27 @@
         <v>35</v>
       </c>
       <c r="G44" t="n">
+        <v>14.16866666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>14.19833333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2357,27 @@
         <v>577.1976</v>
       </c>
       <c r="G45" t="n">
+        <v>14.15933333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>14.20466666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2401,27 @@
         <v>35</v>
       </c>
       <c r="G46" t="n">
+        <v>14.17266666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>14.21266666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2445,27 @@
         <v>3426.3399</v>
       </c>
       <c r="G47" t="n">
+        <v>14.18200000000001</v>
+      </c>
+      <c r="H47" t="n">
         <v>14.21916666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2489,27 @@
         <v>1252.2745</v>
       </c>
       <c r="G48" t="n">
+        <v>14.18200000000001</v>
+      </c>
+      <c r="H48" t="n">
         <v>14.22333333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2533,27 @@
         <v>100</v>
       </c>
       <c r="G49" t="n">
+        <v>14.166</v>
+      </c>
+      <c r="H49" t="n">
         <v>14.22516666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2577,27 @@
         <v>37902.2396</v>
       </c>
       <c r="G50" t="n">
+        <v>14.16533333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>14.23083333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2621,27 @@
         <v>81413.1547</v>
       </c>
       <c r="G51" t="n">
+        <v>14.18866666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>14.23583333333334</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2665,27 @@
         <v>6903.6124</v>
       </c>
       <c r="G52" t="n">
+        <v>14.206</v>
+      </c>
+      <c r="H52" t="n">
         <v>14.24166666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2709,27 @@
         <v>6970.8762</v>
       </c>
       <c r="G53" t="n">
+        <v>14.22933333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>14.244</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2753,27 @@
         <v>95047.7518</v>
       </c>
       <c r="G54" t="n">
+        <v>14.26933333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>14.25016666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2797,27 @@
         <v>2056</v>
       </c>
       <c r="G55" t="n">
+        <v>14.298</v>
+      </c>
+      <c r="H55" t="n">
         <v>14.25633333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2841,27 @@
         <v>40604.0257</v>
       </c>
       <c r="G56" t="n">
+        <v>14.338</v>
+      </c>
+      <c r="H56" t="n">
         <v>14.26283333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2885,27 @@
         <v>49330.2767</v>
       </c>
       <c r="G57" t="n">
+        <v>14.37466666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>14.27116666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2929,27 @@
         <v>1291.3172</v>
       </c>
       <c r="G58" t="n">
+        <v>14.394</v>
+      </c>
+      <c r="H58" t="n">
         <v>14.27933333333334</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2973,27 @@
         <v>33066.4492</v>
       </c>
       <c r="G59" t="n">
+        <v>14.41333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>14.2875</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +3017,27 @@
         <v>15113.4659</v>
       </c>
       <c r="G60" t="n">
+        <v>14.44666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>14.2975</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +3061,27 @@
         <v>52445.3513</v>
       </c>
       <c r="G61" t="n">
+        <v>14.46666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>14.306</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3105,27 @@
         <v>674.3525</v>
       </c>
       <c r="G62" t="n">
+        <v>14.48666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>14.31266666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3149,27 @@
         <v>14744.77139040163</v>
       </c>
       <c r="G63" t="n">
+        <v>14.52866666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>14.32266666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3193,27 @@
         <v>15111.2271</v>
       </c>
       <c r="G64" t="n">
+        <v>14.54466666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>14.326</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3237,27 @@
         <v>694.6746000000001</v>
       </c>
       <c r="G65" t="n">
+        <v>14.56466666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>14.33416666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3281,27 @@
         <v>10538.0203</v>
       </c>
       <c r="G66" t="n">
+        <v>14.57733333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>14.33983333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3325,27 @@
         <v>32974.0847</v>
       </c>
       <c r="G67" t="n">
+        <v>14.57733333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>14.34816666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3369,27 @@
         <v>308.0367</v>
       </c>
       <c r="G68" t="n">
+        <v>14.57733333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>14.35316666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3413,27 @@
         <v>1384.1126</v>
       </c>
       <c r="G69" t="n">
+        <v>14.55533333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>14.3565</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3457,27 @@
         <v>30000</v>
       </c>
       <c r="G70" t="n">
+        <v>14.53333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>14.35683333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3501,27 @@
         <v>44.5196</v>
       </c>
       <c r="G71" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="H71" t="n">
         <v>14.35716666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3545,27 @@
         <v>21862.5578</v>
       </c>
       <c r="G72" t="n">
+        <v>14.49666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>14.3605</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3589,27 @@
         <v>10540</v>
       </c>
       <c r="G73" t="n">
+        <v>14.50066666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>14.36766666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3633,27 @@
         <v>13953.8193</v>
       </c>
       <c r="G74" t="n">
+        <v>14.50466666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>14.37516666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3677,27 @@
         <v>10000</v>
       </c>
       <c r="G75" t="n">
+        <v>14.50133333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>14.38133333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3721,27 @@
         <v>217.3528</v>
       </c>
       <c r="G76" t="n">
+        <v>14.50466666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>14.38883333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3765,27 @@
         <v>1422.0028</v>
       </c>
       <c r="G77" t="n">
+        <v>14.49800000000001</v>
+      </c>
+      <c r="H77" t="n">
         <v>14.39066666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3809,27 @@
         <v>8106.5781</v>
       </c>
       <c r="G78" t="n">
+        <v>14.49466666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>14.3965</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3853,27 @@
         <v>47761.3557</v>
       </c>
       <c r="G79" t="n">
+        <v>14.518</v>
+      </c>
+      <c r="H79" t="n">
         <v>14.4015</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3897,27 @@
         <v>22105.1943</v>
       </c>
       <c r="G80" t="n">
+        <v>14.522</v>
+      </c>
+      <c r="H80" t="n">
         <v>14.40399999999999</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3941,27 @@
         <v>3074.971</v>
       </c>
       <c r="G81" t="n">
+        <v>14.52933333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>14.40733333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3985,27 @@
         <v>108767.4197</v>
       </c>
       <c r="G82" t="n">
+        <v>14.53266666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>14.41066666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +4029,27 @@
         <v>24499.8872</v>
       </c>
       <c r="G83" t="n">
+        <v>14.572</v>
+      </c>
+      <c r="H83" t="n">
         <v>14.41883333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +4073,27 @@
         <v>942.2618</v>
       </c>
       <c r="G84" t="n">
+        <v>14.618</v>
+      </c>
+      <c r="H84" t="n">
         <v>14.42699999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +4117,27 @@
         <v>93813.97689999999</v>
       </c>
       <c r="G85" t="n">
+        <v>14.66466666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>14.43299999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +4161,27 @@
         <v>10043.4937</v>
       </c>
       <c r="G86" t="n">
+        <v>14.718</v>
+      </c>
+      <c r="H86" t="n">
         <v>14.44066666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4205,27 @@
         <v>46562.2098</v>
       </c>
       <c r="G87" t="n">
+        <v>14.75866666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>14.44683333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4249,27 @@
         <v>9934.4522</v>
       </c>
       <c r="G88" t="n">
+        <v>14.81866666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>14.47216666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4293,27 @@
         <v>45356.2314</v>
       </c>
       <c r="G89" t="n">
+        <v>14.874</v>
+      </c>
+      <c r="H89" t="n">
         <v>14.49016666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4337,27 @@
         <v>16247.3346</v>
       </c>
       <c r="G90" t="n">
+        <v>14.92933333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>14.50916666666666</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4381,27 @@
         <v>72631.4556</v>
       </c>
       <c r="G91" t="n">
+        <v>14.98466666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>14.53216666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4425,27 @@
         <v>99780.4106</v>
       </c>
       <c r="G92" t="n">
+        <v>15.09066666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>14.56433333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4469,27 @@
         <v>87.77800000000001</v>
       </c>
       <c r="G93" t="n">
+        <v>15.18066666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>14.5965</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4513,27 @@
         <v>80829.4951</v>
       </c>
       <c r="G94" t="n">
+        <v>15.33066666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>14.63983333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4557,27 @@
         <v>236000.4531</v>
       </c>
       <c r="G95" t="n">
+        <v>15.474</v>
+      </c>
+      <c r="H95" t="n">
         <v>14.6815</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4601,27 @@
         <v>216113.5291</v>
       </c>
       <c r="G96" t="n">
+        <v>15.61533333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>14.72766666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4645,27 @@
         <v>96370.7071</v>
       </c>
       <c r="G97" t="n">
+        <v>15.76066666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>14.76916666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4689,27 @@
         <v>91137.8622</v>
       </c>
       <c r="G98" t="n">
+        <v>15.88333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>14.8155</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4733,27 @@
         <v>63453.8758</v>
       </c>
       <c r="G99" t="n">
+        <v>16.006</v>
+      </c>
+      <c r="H99" t="n">
         <v>14.86216666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4777,27 @@
         <v>5932.3743</v>
       </c>
       <c r="G100" t="n">
+        <v>16.12733333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>14.90583333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4821,27 @@
         <v>60405.8412</v>
       </c>
       <c r="G101" t="n">
+        <v>16.24866666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>14.95366666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4865,27 @@
         <v>36145.4542</v>
       </c>
       <c r="G102" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="H102" t="n">
         <v>15.0025</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4909,27 @@
         <v>18190.066</v>
       </c>
       <c r="G103" t="n">
+        <v>16.47333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>15.04666666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4953,27 @@
         <v>240464.3477</v>
       </c>
       <c r="G104" t="n">
+        <v>16.59466666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>15.09666666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4997,27 @@
         <v>603559.9708</v>
       </c>
       <c r="G105" t="n">
+        <v>16.76266666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>15.16</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +5041,27 @@
         <v>388828.3674826944</v>
       </c>
       <c r="G106" t="n">
+        <v>16.948</v>
+      </c>
+      <c r="H106" t="n">
         <v>15.226</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +5085,27 @@
         <v>833624.8976173056</v>
       </c>
       <c r="G107" t="n">
+        <v>17.122</v>
+      </c>
+      <c r="H107" t="n">
         <v>15.29933333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +5129,27 @@
         <v>264061.2491</v>
       </c>
       <c r="G108" t="n">
+        <v>17.28266666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>15.37166666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +5173,27 @@
         <v>209737.3774</v>
       </c>
       <c r="G109" t="n">
+        <v>17.43933333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>15.45816666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +5217,27 @@
         <v>607101.0624000001</v>
       </c>
       <c r="G110" t="n">
+        <v>17.61266666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>15.54333333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +5261,27 @@
         <v>1407281.062688143</v>
       </c>
       <c r="G111" t="n">
+        <v>17.85733333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>15.64483333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,19 +5305,28 @@
         <v>233407.235</v>
       </c>
       <c r="G112" t="n">
+        <v>18.07533333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>15.73650000000001</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
+      <c r="L112" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>1.420531914893617</v>
       </c>
     </row>
     <row r="113">
@@ -4333,18 +5349,21 @@
         <v>180493.293638806</v>
       </c>
       <c r="G113" t="n">
+        <v>18.23733333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>15.81750000000001</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +5387,21 @@
         <v>1450822.6371</v>
       </c>
       <c r="G114" t="n">
+        <v>18.34133333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>15.88016666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +5425,21 @@
         <v>37941.87847769169</v>
       </c>
       <c r="G115" t="n">
+        <v>18.47666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>15.95050000000001</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +5463,21 @@
         <v>415352.2361</v>
       </c>
       <c r="G116" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="H116" t="n">
         <v>16.01416666666668</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5501,21 @@
         <v>10736.915</v>
       </c>
       <c r="G117" t="n">
+        <v>18.67866666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>16.07850000000001</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5539,21 @@
         <v>84429.4666</v>
       </c>
       <c r="G118" t="n">
+        <v>18.74866666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>16.13533333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5577,21 @@
         <v>140246.731</v>
       </c>
       <c r="G119" t="n">
+        <v>18.75666666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>16.18250000000001</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5615,21 @@
         <v>17763.7796</v>
       </c>
       <c r="G120" t="n">
+        <v>18.77666666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>16.2425</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5653,21 @@
         <v>89612.9063</v>
       </c>
       <c r="G121" t="n">
+        <v>18.716</v>
+      </c>
+      <c r="H121" t="n">
         <v>16.28833333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5691,21 @@
         <v>221242.4338</v>
       </c>
       <c r="G122" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="H122" t="n">
         <v>16.32516666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5729,21 @@
         <v>12044.5028</v>
       </c>
       <c r="G123" t="n">
+        <v>18.51666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>16.36866666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5767,21 @@
         <v>77713.05190000001</v>
       </c>
       <c r="G124" t="n">
+        <v>18.39333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>16.42033333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5805,21 @@
         <v>79705.9566</v>
       </c>
       <c r="G125" t="n">
+        <v>18.254</v>
+      </c>
+      <c r="H125" t="n">
         <v>16.46566666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5843,21 @@
         <v>195629.6346</v>
       </c>
       <c r="G126" t="n">
+        <v>18.048</v>
+      </c>
+      <c r="H126" t="n">
         <v>16.5125</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5881,21 @@
         <v>129449.6134</v>
       </c>
       <c r="G127" t="n">
+        <v>17.86799999999999</v>
+      </c>
+      <c r="H127" t="n">
         <v>16.55916666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5919,21 @@
         <v>14091.21111839081</v>
       </c>
       <c r="G128" t="n">
+        <v>17.74399999999999</v>
+      </c>
+      <c r="H128" t="n">
         <v>16.60916666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5957,21 @@
         <v>190.9772</v>
       </c>
       <c r="G129" t="n">
+        <v>17.67799999999999</v>
+      </c>
+      <c r="H129" t="n">
         <v>16.66083333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5995,21 @@
         <v>70342.9997</v>
       </c>
       <c r="G130" t="n">
+        <v>17.57133333333332</v>
+      </c>
+      <c r="H130" t="n">
         <v>16.71</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +6033,21 @@
         <v>141962.7001</v>
       </c>
       <c r="G131" t="n">
+        <v>17.44266666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>16.74733333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +6071,21 @@
         <v>23178.0983</v>
       </c>
       <c r="G132" t="n">
+        <v>17.31866666666666</v>
+      </c>
+      <c r="H132" t="n">
         <v>16.784</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +6109,21 @@
         <v>135443.011</v>
       </c>
       <c r="G133" t="n">
+        <v>17.20866666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>16.81233333333334</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +6147,21 @@
         <v>176903.4046</v>
       </c>
       <c r="G134" t="n">
+        <v>17.112</v>
+      </c>
+      <c r="H134" t="n">
         <v>16.83433333333334</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +6185,21 @@
         <v>19341.0434</v>
       </c>
       <c r="G135" t="n">
+        <v>16.966</v>
+      </c>
+      <c r="H135" t="n">
         <v>16.85866666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,24 +6223,21 @@
         <v>55901.0256</v>
       </c>
       <c r="G136" t="n">
+        <v>16.888</v>
+      </c>
+      <c r="H136" t="n">
         <v>16.88416666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>16.11</v>
+        <v>0</v>
       </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5179,24 +6261,21 @@
         <v>89652.99739999999</v>
       </c>
       <c r="G137" t="n">
+        <v>16.84333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>16.91150000000001</v>
       </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>16.18</v>
+        <v>0</v>
       </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5220,24 +6299,21 @@
         <v>38527.757</v>
       </c>
       <c r="G138" t="n">
+        <v>16.75666666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>16.93416666666668</v>
       </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>16.04</v>
+        <v>0</v>
       </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,24 +6337,21 @@
         <v>62688.7996</v>
       </c>
       <c r="G139" t="n">
+        <v>16.65666666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>16.95500000000001</v>
       </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5302,24 +6375,21 @@
         <v>112389.6981</v>
       </c>
       <c r="G140" t="n">
+        <v>16.562</v>
+      </c>
+      <c r="H140" t="n">
         <v>16.97566666666668</v>
       </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>15.9</v>
+        <v>0</v>
       </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5343,22 +6413,21 @@
         <v>25278.0926</v>
       </c>
       <c r="G141" t="n">
+        <v>16.45533333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>16.99400000000001</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,24 +6451,21 @@
         <v>368924.4041</v>
       </c>
       <c r="G142" t="n">
+        <v>16.31866666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>17.00566666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5423,24 +6489,21 @@
         <v>232761.7548</v>
       </c>
       <c r="G143" t="n">
+        <v>16.22466666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>17.02233333333334</v>
       </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>15.35</v>
+        <v>0</v>
       </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5464,24 +6527,21 @@
         <v>66618.2969</v>
       </c>
       <c r="G144" t="n">
+        <v>16.11799999999999</v>
+      </c>
+      <c r="H144" t="n">
         <v>17.03583333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>15.99</v>
+        <v>0</v>
       </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5505,22 +6565,21 @@
         <v>9995.953862025317</v>
       </c>
       <c r="G145" t="n">
+        <v>16.014</v>
+      </c>
+      <c r="H145" t="n">
         <v>17.04733333333334</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5544,22 +6603,21 @@
         <v>109715.3552</v>
       </c>
       <c r="G146" t="n">
+        <v>15.95133333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>17.05566666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5583,22 +6641,21 @@
         <v>109462.9423</v>
       </c>
       <c r="G147" t="n">
+        <v>15.87866666666666</v>
+      </c>
+      <c r="H147" t="n">
         <v>17.06400000000001</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5622,22 +6679,21 @@
         <v>51463.7229</v>
       </c>
       <c r="G148" t="n">
+        <v>15.784</v>
+      </c>
+      <c r="H148" t="n">
         <v>17.05366666666668</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5661,22 +6717,21 @@
         <v>326482.1645</v>
       </c>
       <c r="G149" t="n">
+        <v>15.75933333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>17.05566666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5700,22 +6755,21 @@
         <v>71370.3976</v>
       </c>
       <c r="G150" t="n">
+        <v>15.70599999999999</v>
+      </c>
+      <c r="H150" t="n">
         <v>17.05283333333334</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5739,22 +6793,21 @@
         <v>376532.8567</v>
       </c>
       <c r="G151" t="n">
+        <v>15.63799999999999</v>
+      </c>
+      <c r="H151" t="n">
         <v>17.04750000000001</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5778,22 +6831,21 @@
         <v>168622.6201</v>
       </c>
       <c r="G152" t="n">
+        <v>15.59466666666666</v>
+      </c>
+      <c r="H152" t="n">
         <v>17.03750000000001</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5817,22 +6869,21 @@
         <v>28637.9371</v>
       </c>
       <c r="G153" t="n">
+        <v>15.57399999999999</v>
+      </c>
+      <c r="H153" t="n">
         <v>17.03250000000001</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,22 +6907,21 @@
         <v>55421.3455</v>
       </c>
       <c r="G154" t="n">
+        <v>15.54066666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>17.00750000000001</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5895,22 +6945,21 @@
         <v>84401.11500000001</v>
       </c>
       <c r="G155" t="n">
+        <v>15.512</v>
+      </c>
+      <c r="H155" t="n">
         <v>16.98516666666668</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5934,22 +6983,21 @@
         <v>138208.356</v>
       </c>
       <c r="G156" t="n">
+        <v>15.512</v>
+      </c>
+      <c r="H156" t="n">
         <v>16.96816666666668</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5973,22 +7021,21 @@
         <v>22405.8672</v>
       </c>
       <c r="G157" t="n">
+        <v>15.51933333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>16.94533333333334</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6012,22 +7059,21 @@
         <v>69138.6517</v>
       </c>
       <c r="G158" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H158" t="n">
         <v>16.9265</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6051,22 +7097,21 @@
         <v>108</v>
       </c>
       <c r="G159" t="n">
+        <v>15.498</v>
+      </c>
+      <c r="H159" t="n">
         <v>16.90883333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6090,22 +7135,21 @@
         <v>6060.3345</v>
       </c>
       <c r="G160" t="n">
+        <v>15.502</v>
+      </c>
+      <c r="H160" t="n">
         <v>16.891</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6129,22 +7173,21 @@
         <v>5126.3128</v>
       </c>
       <c r="G161" t="n">
+        <v>15.48266666666666</v>
+      </c>
+      <c r="H161" t="n">
         <v>16.86416666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6168,22 +7211,21 @@
         <v>2998.3245</v>
       </c>
       <c r="G162" t="n">
+        <v>15.47533333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>16.83783333333334</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6207,22 +7249,21 @@
         <v>33993.0619</v>
       </c>
       <c r="G163" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H163" t="n">
         <v>16.81033333333334</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6246,22 +7287,401 @@
         <v>20114.9577</v>
       </c>
       <c r="G164" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="H164" t="n">
         <v>16.777</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C165" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="D165" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E165" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="F165" t="n">
+        <v>177364.7921</v>
+      </c>
+      <c r="G165" t="n">
+        <v>15.47466666666667</v>
+      </c>
+      <c r="H165" t="n">
+        <v>16.73083333333334</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="C166" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="D166" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="E166" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="F166" t="n">
+        <v>4439.9536</v>
+      </c>
+      <c r="G166" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="H166" t="n">
+        <v>16.6805</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="C167" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="D167" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="E167" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="F167" t="n">
+        <v>32019.3859</v>
+      </c>
+      <c r="G167" t="n">
+        <v>15.46933333333333</v>
+      </c>
+      <c r="H167" t="n">
+        <v>16.62433333333334</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="C168" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="D168" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="E168" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="F168" t="n">
+        <v>243017.2588</v>
+      </c>
+      <c r="G168" t="n">
+        <v>15.424</v>
+      </c>
+      <c r="H168" t="n">
+        <v>16.56783333333334</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="C169" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E169" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="F169" t="n">
+        <v>69105.1367</v>
+      </c>
+      <c r="G169" t="n">
+        <v>15.404</v>
+      </c>
+      <c r="H169" t="n">
+        <v>16.49866666666667</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="C170" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="D170" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="E170" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="F170" t="n">
+        <v>6005.7272</v>
+      </c>
+      <c r="G170" t="n">
+        <v>15.37533333333333</v>
+      </c>
+      <c r="H170" t="n">
+        <v>16.42583333333334</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="D171" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="E171" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>117605.129</v>
+      </c>
+      <c r="G171" t="n">
+        <v>15.33466666666666</v>
+      </c>
+      <c r="H171" t="n">
+        <v>16.3375</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="C172" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="D172" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="E172" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="F172" t="n">
+        <v>33</v>
+      </c>
+      <c r="G172" t="n">
+        <v>15.326</v>
+      </c>
+      <c r="H172" t="n">
+        <v>16.258</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="C173" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="D173" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E173" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="F173" t="n">
+        <v>51463.9726</v>
+      </c>
+      <c r="G173" t="n">
+        <v>15.30133333333333</v>
+      </c>
+      <c r="H173" t="n">
+        <v>16.19250000000001</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="C174" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="D174" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="E174" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="F174" t="n">
+        <v>38460.8249</v>
+      </c>
+      <c r="G174" t="n">
+        <v>15.26933333333333</v>
+      </c>
+      <c r="H174" t="n">
+        <v>16.14083333333334</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest FAB.xlsx
+++ b/BackTest/2020-01-16 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:N161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.82</v>
+        <v>14.28</v>
       </c>
       <c r="C2" t="n">
-        <v>13.79</v>
+        <v>14.28</v>
       </c>
       <c r="D2" t="n">
-        <v>13.82</v>
+        <v>14.28</v>
       </c>
       <c r="E2" t="n">
-        <v>13.79</v>
+        <v>14.28</v>
       </c>
       <c r="F2" t="n">
-        <v>71558.7328729927</v>
+        <v>309.225</v>
       </c>
       <c r="G2" t="n">
-        <v>-548993.9323868444</v>
+        <v>-287366.0446868444</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,63 +467,69 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
       <c r="D3" t="n">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
       <c r="E3" t="n">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
       <c r="F3" t="n">
-        <v>496.9241</v>
+        <v>28417.9496</v>
       </c>
       <c r="G3" t="n">
-        <v>-549490.8564868444</v>
+        <v>-315783.9942868444</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.28</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5</v>
+        <v>14.29</v>
       </c>
       <c r="C4" t="n">
-        <v>13.5</v>
+        <v>14.29</v>
       </c>
       <c r="D4" t="n">
-        <v>13.5</v>
+        <v>14.29</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5</v>
+        <v>14.29</v>
       </c>
       <c r="F4" t="n">
-        <v>1103.0343</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="n">
-        <v>-549490.8564868444</v>
+        <v>-305783.9942868444</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -527,47 +538,54 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
       <c r="K4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+        <v>14.28</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.39</v>
+        <v>14.29</v>
       </c>
       <c r="C5" t="n">
-        <v>13.39</v>
+        <v>14.29</v>
       </c>
       <c r="D5" t="n">
-        <v>13.39</v>
+        <v>14.29</v>
       </c>
       <c r="E5" t="n">
-        <v>13.39</v>
+        <v>14.29</v>
       </c>
       <c r="F5" t="n">
-        <v>1570.447</v>
+        <v>44311.3873</v>
       </c>
       <c r="G5" t="n">
-        <v>-551061.3034868444</v>
+        <v>-305783.9942868444</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>14.29</v>
+      </c>
       <c r="K5" t="n">
-        <v>13.5</v>
+        <v>14.28</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -577,69 +595,73 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.3</v>
+        <v>14.29</v>
       </c>
       <c r="C6" t="n">
-        <v>13.3</v>
+        <v>14.35</v>
       </c>
       <c r="D6" t="n">
-        <v>13.3</v>
+        <v>14.35</v>
       </c>
       <c r="E6" t="n">
-        <v>13.3</v>
+        <v>14.29</v>
       </c>
       <c r="F6" t="n">
-        <v>4209.2474</v>
+        <v>89340.4163</v>
       </c>
       <c r="G6" t="n">
-        <v>-555270.5508868444</v>
+        <v>-216443.5779868444</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>14.29</v>
+      </c>
       <c r="K6" t="n">
-        <v>13.5</v>
+        <v>14.28</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.3</v>
+        <v>14.39</v>
       </c>
       <c r="C7" t="n">
-        <v>13.3</v>
+        <v>14.5</v>
       </c>
       <c r="D7" t="n">
-        <v>13.3</v>
+        <v>14.5</v>
       </c>
       <c r="E7" t="n">
-        <v>13.3</v>
+        <v>14.39</v>
       </c>
       <c r="F7" t="n">
-        <v>87.0453</v>
+        <v>1242</v>
       </c>
       <c r="G7" t="n">
-        <v>-555270.5508868444</v>
+        <v>-215201.5779868444</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -648,78 +670,86 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>13.3</v>
+        <v>14.35</v>
       </c>
       <c r="K7" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>14.28</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.3</v>
+        <v>14.5</v>
       </c>
       <c r="C8" t="n">
-        <v>13.1</v>
+        <v>14.5</v>
       </c>
       <c r="D8" t="n">
-        <v>13.3</v>
+        <v>14.5</v>
       </c>
       <c r="E8" t="n">
-        <v>13.1</v>
+        <v>14.5</v>
       </c>
       <c r="F8" t="n">
-        <v>7076.7049</v>
+        <v>46883.2484</v>
       </c>
       <c r="G8" t="n">
-        <v>-562347.2557868444</v>
+        <v>-215201.5779868444</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K8" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.01</v>
+        <v>14.45</v>
       </c>
       <c r="C9" t="n">
-        <v>13.01</v>
+        <v>14.45</v>
       </c>
       <c r="D9" t="n">
-        <v>13.01</v>
+        <v>14.45</v>
       </c>
       <c r="E9" t="n">
-        <v>13.01</v>
+        <v>14.45</v>
       </c>
       <c r="F9" t="n">
-        <v>3103.6283</v>
+        <v>18934.4203</v>
       </c>
       <c r="G9" t="n">
-        <v>-565450.8840868444</v>
+        <v>-234135.9982868444</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -728,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>13.1</v>
+        <v>14.5</v>
       </c>
       <c r="K9" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -741,28 +771,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.28</v>
+        <v>14.5</v>
       </c>
       <c r="C10" t="n">
-        <v>13.28</v>
+        <v>14.5</v>
       </c>
       <c r="D10" t="n">
-        <v>13.28</v>
+        <v>14.5</v>
       </c>
       <c r="E10" t="n">
-        <v>13.28</v>
+        <v>14.5</v>
       </c>
       <c r="F10" t="n">
-        <v>1912.2608</v>
+        <v>800.2320999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>-563538.6232868443</v>
+        <v>-233335.7661868444</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -771,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>13.01</v>
+        <v>14.45</v>
       </c>
       <c r="K10" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -784,28 +815,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13.4</v>
+        <v>14.5</v>
       </c>
       <c r="C11" t="n">
-        <v>13.1</v>
+        <v>14.5</v>
       </c>
       <c r="D11" t="n">
-        <v>13.4</v>
+        <v>14.5</v>
       </c>
       <c r="E11" t="n">
-        <v>13.01</v>
+        <v>14.5</v>
       </c>
       <c r="F11" t="n">
-        <v>203829.378</v>
+        <v>11725.2688</v>
       </c>
       <c r="G11" t="n">
-        <v>-767368.0012868444</v>
+        <v>-233335.7661868444</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -814,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>13.28</v>
+        <v>14.5</v>
       </c>
       <c r="K11" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -827,28 +859,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13.67</v>
+        <v>14.64</v>
       </c>
       <c r="C12" t="n">
-        <v>13.67</v>
+        <v>14.64</v>
       </c>
       <c r="D12" t="n">
-        <v>13.67</v>
+        <v>14.64</v>
       </c>
       <c r="E12" t="n">
-        <v>13.67</v>
+        <v>14.64</v>
       </c>
       <c r="F12" t="n">
-        <v>1597.8287</v>
+        <v>3542.9193</v>
       </c>
       <c r="G12" t="n">
-        <v>-765770.1725868444</v>
+        <v>-229792.8468868444</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -857,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>13.1</v>
+        <v>14.5</v>
       </c>
       <c r="K12" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -870,28 +903,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13.68</v>
+        <v>14.64</v>
       </c>
       <c r="C13" t="n">
-        <v>13.68</v>
+        <v>14.64</v>
       </c>
       <c r="D13" t="n">
-        <v>13.68</v>
+        <v>14.64</v>
       </c>
       <c r="E13" t="n">
-        <v>13.68</v>
+        <v>14.64</v>
       </c>
       <c r="F13" t="n">
-        <v>65066.0587</v>
+        <v>8201.142599999999</v>
       </c>
       <c r="G13" t="n">
-        <v>-700704.1138868444</v>
+        <v>-229792.8468868444</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -900,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>13.67</v>
+        <v>14.64</v>
       </c>
       <c r="K13" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -913,28 +947,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13.68</v>
+        <v>14.64</v>
       </c>
       <c r="C14" t="n">
-        <v>13.82</v>
+        <v>14.64</v>
       </c>
       <c r="D14" t="n">
-        <v>13.82</v>
+        <v>14.64</v>
       </c>
       <c r="E14" t="n">
-        <v>13.68</v>
+        <v>14.64</v>
       </c>
       <c r="F14" t="n">
-        <v>204016.4608</v>
+        <v>58881.5822</v>
       </c>
       <c r="G14" t="n">
-        <v>-496687.6530868444</v>
+        <v>-229792.8468868444</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -943,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>13.68</v>
+        <v>14.64</v>
       </c>
       <c r="K14" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -956,40 +991,39 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.82</v>
+        <v>14.3</v>
       </c>
       <c r="C15" t="n">
-        <v>13.82</v>
+        <v>14.03</v>
       </c>
       <c r="D15" t="n">
-        <v>13.82</v>
+        <v>14.3</v>
       </c>
       <c r="E15" t="n">
-        <v>13.82</v>
+        <v>14.03</v>
       </c>
       <c r="F15" t="n">
-        <v>1500</v>
+        <v>58881.5822</v>
       </c>
       <c r="G15" t="n">
-        <v>-496687.6530868444</v>
+        <v>-288674.4290868444</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>13.82</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -999,28 +1033,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>14.34</v>
       </c>
       <c r="C16" t="n">
-        <v>13.81</v>
+        <v>14.4</v>
       </c>
       <c r="D16" t="n">
-        <v>14.08</v>
+        <v>14.4</v>
       </c>
       <c r="E16" t="n">
-        <v>13.81</v>
+        <v>14.34</v>
       </c>
       <c r="F16" t="n">
-        <v>156194.5976</v>
+        <v>1122.5969</v>
       </c>
       <c r="G16" t="n">
-        <v>-652882.2506868443</v>
+        <v>-287551.8321868444</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1029,10 +1064,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>13.82</v>
+        <v>14.03</v>
       </c>
       <c r="K16" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1042,28 +1077,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13.81</v>
+        <v>14.34</v>
       </c>
       <c r="C17" t="n">
-        <v>13.81</v>
+        <v>14.34</v>
       </c>
       <c r="D17" t="n">
-        <v>13.81</v>
+        <v>14.34</v>
       </c>
       <c r="E17" t="n">
-        <v>13.81</v>
+        <v>14.34</v>
       </c>
       <c r="F17" t="n">
-        <v>32318.1774</v>
+        <v>292.693</v>
       </c>
       <c r="G17" t="n">
-        <v>-652882.2506868443</v>
+        <v>-287844.5251868444</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1072,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>13.81</v>
+        <v>14.4</v>
       </c>
       <c r="K17" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1085,28 +1121,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.95</v>
+        <v>14.1</v>
       </c>
       <c r="C18" t="n">
-        <v>13.95</v>
+        <v>14.1</v>
       </c>
       <c r="D18" t="n">
-        <v>13.95</v>
+        <v>14.1</v>
       </c>
       <c r="E18" t="n">
-        <v>13.95</v>
+        <v>14.1</v>
       </c>
       <c r="F18" t="n">
-        <v>169731.8647</v>
+        <v>7908.4496</v>
       </c>
       <c r="G18" t="n">
-        <v>-483150.3859868443</v>
+        <v>-295752.9747868444</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1115,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>13.81</v>
+        <v>14.34</v>
       </c>
       <c r="K18" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1128,28 +1165,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13.95</v>
+        <v>14.06</v>
       </c>
       <c r="C19" t="n">
-        <v>13.95</v>
+        <v>14.06</v>
       </c>
       <c r="D19" t="n">
-        <v>13.95</v>
+        <v>14.06</v>
       </c>
       <c r="E19" t="n">
-        <v>13.95</v>
+        <v>14.06</v>
       </c>
       <c r="F19" t="n">
-        <v>35252.0027</v>
+        <v>15186</v>
       </c>
       <c r="G19" t="n">
-        <v>-483150.3859868443</v>
+        <v>-310938.9747868444</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1158,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>13.95</v>
+        <v>14.1</v>
       </c>
       <c r="K19" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1171,28 +1209,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14.1</v>
+        <v>14.06</v>
       </c>
       <c r="C20" t="n">
-        <v>14.1</v>
+        <v>14.06</v>
       </c>
       <c r="D20" t="n">
-        <v>14.1</v>
+        <v>14.06</v>
       </c>
       <c r="E20" t="n">
-        <v>14.1</v>
+        <v>14.06</v>
       </c>
       <c r="F20" t="n">
-        <v>2855.0415</v>
+        <v>11725.2688</v>
       </c>
       <c r="G20" t="n">
-        <v>-480295.3444868443</v>
+        <v>-310938.9747868444</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1201,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>13.95</v>
+        <v>14.06</v>
       </c>
       <c r="K20" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1214,38 +1253,41 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14.24</v>
+        <v>14.3</v>
       </c>
       <c r="C21" t="n">
-        <v>14.25</v>
+        <v>14.3</v>
       </c>
       <c r="D21" t="n">
-        <v>14.25</v>
+        <v>14.3</v>
       </c>
       <c r="E21" t="n">
-        <v>14.24</v>
+        <v>14.3</v>
       </c>
       <c r="F21" t="n">
-        <v>22096.2275</v>
+        <v>2029</v>
       </c>
       <c r="G21" t="n">
-        <v>-458199.1169868443</v>
+        <v>-308909.9747868444</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>14.06</v>
+      </c>
       <c r="K21" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1255,38 +1297,41 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14.25</v>
+        <v>14.3</v>
       </c>
       <c r="C22" t="n">
-        <v>14.26</v>
+        <v>14.3</v>
       </c>
       <c r="D22" t="n">
-        <v>14.26</v>
+        <v>14.3</v>
       </c>
       <c r="E22" t="n">
-        <v>14.25</v>
+        <v>14.3</v>
       </c>
       <c r="F22" t="n">
-        <v>99792.32980000001</v>
+        <v>34106.7771</v>
       </c>
       <c r="G22" t="n">
-        <v>-358406.7871868443</v>
+        <v>-308909.9747868444</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>14.3</v>
+      </c>
       <c r="K22" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1296,28 +1341,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14.26</v>
+        <v>14.06</v>
       </c>
       <c r="C23" t="n">
-        <v>14.26</v>
+        <v>14.05</v>
       </c>
       <c r="D23" t="n">
-        <v>14.26</v>
+        <v>14.06</v>
       </c>
       <c r="E23" t="n">
-        <v>14.26</v>
+        <v>14.05</v>
       </c>
       <c r="F23" t="n">
-        <v>40697.5722</v>
+        <v>6259.2231</v>
       </c>
       <c r="G23" t="n">
-        <v>-358406.7871868443</v>
+        <v>-315169.1978868444</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1326,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>14.26</v>
+        <v>14.3</v>
       </c>
       <c r="K23" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1339,38 +1385,41 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14.26</v>
+        <v>14.34</v>
       </c>
       <c r="C24" t="n">
-        <v>14.26</v>
+        <v>14.34</v>
       </c>
       <c r="D24" t="n">
-        <v>14.26</v>
+        <v>14.34</v>
       </c>
       <c r="E24" t="n">
-        <v>14.26</v>
+        <v>14.34</v>
       </c>
       <c r="F24" t="n">
-        <v>65489.4362</v>
+        <v>77</v>
       </c>
       <c r="G24" t="n">
-        <v>-358406.7871868443</v>
+        <v>-315092.1978868444</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>14.05</v>
+      </c>
       <c r="K24" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1380,38 +1429,41 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14.26</v>
+        <v>14.05</v>
       </c>
       <c r="C25" t="n">
-        <v>14.26</v>
+        <v>14.05</v>
       </c>
       <c r="D25" t="n">
-        <v>14.26</v>
+        <v>14.05</v>
       </c>
       <c r="E25" t="n">
-        <v>14.26</v>
+        <v>14.05</v>
       </c>
       <c r="F25" t="n">
-        <v>1336.6793</v>
+        <v>559.9739</v>
       </c>
       <c r="G25" t="n">
-        <v>-358406.7871868443</v>
+        <v>-315652.1717868444</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>14.34</v>
+      </c>
       <c r="K25" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1421,38 +1473,41 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>14.1</v>
+        <v>14.03</v>
       </c>
       <c r="C26" t="n">
-        <v>14.1</v>
+        <v>14.03</v>
       </c>
       <c r="D26" t="n">
-        <v>14.1</v>
+        <v>14.03</v>
       </c>
       <c r="E26" t="n">
-        <v>14.1</v>
+        <v>14.03</v>
       </c>
       <c r="F26" t="n">
-        <v>8742.607900000001</v>
+        <v>97</v>
       </c>
       <c r="G26" t="n">
-        <v>-367149.3950868443</v>
+        <v>-315749.1717868444</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>14.05</v>
+      </c>
       <c r="K26" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1462,28 +1517,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14.1</v>
+        <v>14.05</v>
       </c>
       <c r="C27" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="D27" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="E27" t="n">
-        <v>14.1</v>
+        <v>14.05</v>
       </c>
       <c r="F27" t="n">
-        <v>118975.5092</v>
+        <v>5775</v>
       </c>
       <c r="G27" t="n">
-        <v>-367149.3950868443</v>
+        <v>-309974.1717868444</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1492,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14.1</v>
+        <v>14.03</v>
       </c>
       <c r="K27" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1505,38 +1561,41 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14.1</v>
+        <v>14.05</v>
       </c>
       <c r="C28" t="n">
-        <v>14.1</v>
+        <v>14.05</v>
       </c>
       <c r="D28" t="n">
-        <v>14.1</v>
+        <v>14.05</v>
       </c>
       <c r="E28" t="n">
-        <v>14.1</v>
+        <v>14.05</v>
       </c>
       <c r="F28" t="n">
-        <v>60000</v>
+        <v>77.56</v>
       </c>
       <c r="G28" t="n">
-        <v>-367149.3950868443</v>
+        <v>-310051.7317868444</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>14.2</v>
+      </c>
       <c r="K28" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1546,28 +1605,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>14.1</v>
+        <v>14.05</v>
       </c>
       <c r="C29" t="n">
-        <v>14.1</v>
+        <v>14.05</v>
       </c>
       <c r="D29" t="n">
-        <v>14.1</v>
+        <v>14.05</v>
       </c>
       <c r="E29" t="n">
-        <v>14.1</v>
+        <v>14.05</v>
       </c>
       <c r="F29" t="n">
-        <v>187547.1845</v>
+        <v>6630.9656</v>
       </c>
       <c r="G29" t="n">
-        <v>-367149.3950868443</v>
+        <v>-310051.7317868444</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1576,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>14.1</v>
+        <v>14.05</v>
       </c>
       <c r="K29" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1589,28 +1649,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>14.09</v>
+        <v>14.2</v>
       </c>
       <c r="C30" t="n">
-        <v>14.09</v>
+        <v>14.3</v>
       </c>
       <c r="D30" t="n">
-        <v>14.09</v>
+        <v>14.3</v>
       </c>
       <c r="E30" t="n">
-        <v>14.09</v>
+        <v>14.2</v>
       </c>
       <c r="F30" t="n">
-        <v>23925.2656</v>
+        <v>59278.3671</v>
       </c>
       <c r="G30" t="n">
-        <v>-391074.6606868443</v>
+        <v>-250773.3646868444</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1619,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>14.1</v>
+        <v>14.05</v>
       </c>
       <c r="K30" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1632,28 +1693,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="C31" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="D31" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="E31" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="F31" t="n">
-        <v>1399.8298</v>
+        <v>35</v>
       </c>
       <c r="G31" t="n">
-        <v>-389674.8308868443</v>
+        <v>-250773.3646868444</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1662,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>14.09</v>
+        <v>14.3</v>
       </c>
       <c r="K31" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1675,28 +1737,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14.09</v>
+        <v>14.2</v>
       </c>
       <c r="C32" t="n">
-        <v>14.09</v>
+        <v>14.2</v>
       </c>
       <c r="D32" t="n">
-        <v>14.09</v>
+        <v>14.2</v>
       </c>
       <c r="E32" t="n">
-        <v>14.09</v>
+        <v>14.2</v>
       </c>
       <c r="F32" t="n">
-        <v>44818.2503</v>
+        <v>577.1976</v>
       </c>
       <c r="G32" t="n">
-        <v>-434493.0811868443</v>
+        <v>-251350.5622868444</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -1705,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="K32" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1718,38 +1781,41 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="C33" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="D33" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="E33" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="F33" t="n">
-        <v>12405.7805</v>
+        <v>35</v>
       </c>
       <c r="G33" t="n">
-        <v>-422087.3006868443</v>
+        <v>-251315.5622868444</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>14.2</v>
+      </c>
       <c r="K33" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1759,28 +1825,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14.09</v>
+        <v>14.2</v>
       </c>
       <c r="C34" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="D34" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="E34" t="n">
-        <v>14.09</v>
+        <v>14.2</v>
       </c>
       <c r="F34" t="n">
-        <v>30489.0795</v>
+        <v>3426.3399</v>
       </c>
       <c r="G34" t="n">
-        <v>-422087.3006868443</v>
+        <v>-254741.9021868444</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1789,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="K34" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1802,28 +1869,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14.25</v>
+        <v>14.06</v>
       </c>
       <c r="C35" t="n">
-        <v>14.25</v>
+        <v>14.06</v>
       </c>
       <c r="D35" t="n">
-        <v>14.25</v>
+        <v>14.06</v>
       </c>
       <c r="E35" t="n">
-        <v>14.25</v>
+        <v>14.06</v>
       </c>
       <c r="F35" t="n">
-        <v>1823.9193</v>
+        <v>1252.2745</v>
       </c>
       <c r="G35" t="n">
-        <v>-420263.3813868443</v>
+        <v>-255994.1766868444</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -1832,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="K35" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1845,28 +1913,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>14.1</v>
+        <v>14.06</v>
       </c>
       <c r="C36" t="n">
-        <v>14.1</v>
+        <v>14.06</v>
       </c>
       <c r="D36" t="n">
-        <v>14.1</v>
+        <v>14.06</v>
       </c>
       <c r="E36" t="n">
-        <v>14.1</v>
+        <v>14.06</v>
       </c>
       <c r="F36" t="n">
-        <v>34781.2022</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>-455044.5835868443</v>
+        <v>-255994.1766868444</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1875,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>14.25</v>
+        <v>14.06</v>
       </c>
       <c r="K36" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1888,28 +1957,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14.1</v>
+        <v>14.29</v>
       </c>
       <c r="C37" t="n">
-        <v>14.1</v>
+        <v>14.29</v>
       </c>
       <c r="D37" t="n">
-        <v>14.1</v>
+        <v>14.29</v>
       </c>
       <c r="E37" t="n">
-        <v>14.1</v>
+        <v>14.29</v>
       </c>
       <c r="F37" t="n">
-        <v>11451.8214</v>
+        <v>37902.2396</v>
       </c>
       <c r="G37" t="n">
-        <v>-455044.5835868443</v>
+        <v>-218091.9370868444</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1918,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>14.1</v>
+        <v>14.06</v>
       </c>
       <c r="K37" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1931,38 +2001,41 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="C38" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="D38" t="n">
-        <v>14.1</v>
+        <v>14.65</v>
       </c>
       <c r="E38" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="F38" t="n">
-        <v>5776.4566</v>
+        <v>81413.1547</v>
       </c>
       <c r="G38" t="n">
-        <v>-455044.5835868443</v>
+        <v>-136678.7823868444</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>14.29</v>
+      </c>
       <c r="K38" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1972,28 +2045,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14.19</v>
+        <v>14.4</v>
       </c>
       <c r="C39" t="n">
-        <v>14.28</v>
+        <v>14.6</v>
       </c>
       <c r="D39" t="n">
-        <v>14.28</v>
+        <v>14.64</v>
       </c>
       <c r="E39" t="n">
-        <v>14.19</v>
+        <v>14.3</v>
       </c>
       <c r="F39" t="n">
-        <v>177926.9333</v>
+        <v>6903.6124</v>
       </c>
       <c r="G39" t="n">
-        <v>-277117.6502868443</v>
+        <v>-129775.1699868444</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -2002,10 +2076,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="K39" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2015,28 +2089,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14.28</v>
+        <v>14.4</v>
       </c>
       <c r="C40" t="n">
-        <v>14.28</v>
+        <v>14.4</v>
       </c>
       <c r="D40" t="n">
-        <v>14.28</v>
+        <v>14.4</v>
       </c>
       <c r="E40" t="n">
-        <v>14.28</v>
+        <v>14.4</v>
       </c>
       <c r="F40" t="n">
-        <v>2623.9932</v>
+        <v>6970.8762</v>
       </c>
       <c r="G40" t="n">
-        <v>-277117.6502868443</v>
+        <v>-136746.0461868444</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -2045,10 +2120,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>14.28</v>
+        <v>14.6</v>
       </c>
       <c r="K40" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2058,28 +2133,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="C41" t="n">
-        <v>14.2</v>
+        <v>14.63</v>
       </c>
       <c r="D41" t="n">
-        <v>14.2</v>
+        <v>14.65</v>
       </c>
       <c r="E41" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="F41" t="n">
-        <v>1399.8298</v>
+        <v>95047.7518</v>
       </c>
       <c r="G41" t="n">
-        <v>-278517.4800868444</v>
+        <v>-41698.29438684441</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -2088,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>14.28</v>
+        <v>14.4</v>
       </c>
       <c r="K41" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2101,40 +2177,39 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14.22</v>
+        <v>14.62</v>
       </c>
       <c r="C42" t="n">
-        <v>14.22</v>
+        <v>14.63</v>
       </c>
       <c r="D42" t="n">
-        <v>14.22</v>
+        <v>14.63</v>
       </c>
       <c r="E42" t="n">
-        <v>14.22</v>
+        <v>14.4</v>
       </c>
       <c r="F42" t="n">
-        <v>11241.7119</v>
+        <v>2056</v>
       </c>
       <c r="G42" t="n">
-        <v>-267275.7681868444</v>
+        <v>-41698.29438684441</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>14.2</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2144,40 +2219,39 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14.21</v>
+        <v>14.6</v>
       </c>
       <c r="C43" t="n">
-        <v>14.2</v>
+        <v>14.65</v>
       </c>
       <c r="D43" t="n">
-        <v>14.21</v>
+        <v>14.65</v>
       </c>
       <c r="E43" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="F43" t="n">
-        <v>20399.5015</v>
+        <v>40604.0257</v>
       </c>
       <c r="G43" t="n">
-        <v>-287675.2696868444</v>
+        <v>-1094.268686844414</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>14.22</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2187,40 +2261,39 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14.28</v>
+        <v>14.69</v>
       </c>
       <c r="C44" t="n">
-        <v>14.28</v>
+        <v>14.6</v>
       </c>
       <c r="D44" t="n">
-        <v>14.28</v>
+        <v>14.7</v>
       </c>
       <c r="E44" t="n">
-        <v>14.28</v>
+        <v>14.6</v>
       </c>
       <c r="F44" t="n">
-        <v>309.225</v>
+        <v>49330.2767</v>
       </c>
       <c r="G44" t="n">
-        <v>-287366.0446868444</v>
+        <v>-50424.54538684442</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>14.2</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2230,40 +2303,39 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14.2</v>
+        <v>14.59</v>
       </c>
       <c r="C45" t="n">
-        <v>14.2</v>
+        <v>14.59</v>
       </c>
       <c r="D45" t="n">
-        <v>14.2</v>
+        <v>14.59</v>
       </c>
       <c r="E45" t="n">
-        <v>14.2</v>
+        <v>14.59</v>
       </c>
       <c r="F45" t="n">
-        <v>28417.9496</v>
+        <v>1291.3172</v>
       </c>
       <c r="G45" t="n">
-        <v>-315783.9942868444</v>
+        <v>-51715.86258684441</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2273,40 +2345,39 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14.29</v>
+        <v>14.6</v>
       </c>
       <c r="C46" t="n">
-        <v>14.29</v>
+        <v>14.59</v>
       </c>
       <c r="D46" t="n">
-        <v>14.29</v>
+        <v>14.6</v>
       </c>
       <c r="E46" t="n">
-        <v>14.29</v>
+        <v>14.59</v>
       </c>
       <c r="F46" t="n">
-        <v>10000</v>
+        <v>33066.4492</v>
       </c>
       <c r="G46" t="n">
-        <v>-305783.9942868444</v>
+        <v>-51715.86258684441</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>14.2</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2316,40 +2387,39 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14.29</v>
+        <v>14.6</v>
       </c>
       <c r="C47" t="n">
-        <v>14.29</v>
+        <v>14.7</v>
       </c>
       <c r="D47" t="n">
-        <v>14.29</v>
+        <v>14.7</v>
       </c>
       <c r="E47" t="n">
-        <v>14.29</v>
+        <v>14.6</v>
       </c>
       <c r="F47" t="n">
-        <v>44311.3873</v>
+        <v>15113.4659</v>
       </c>
       <c r="G47" t="n">
-        <v>-305783.9942868444</v>
+        <v>-36602.39668684441</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>14.29</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2359,40 +2429,39 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14.29</v>
+        <v>14.6</v>
       </c>
       <c r="C48" t="n">
-        <v>14.35</v>
+        <v>14.6</v>
       </c>
       <c r="D48" t="n">
-        <v>14.35</v>
+        <v>14.6</v>
       </c>
       <c r="E48" t="n">
-        <v>14.29</v>
+        <v>14.6</v>
       </c>
       <c r="F48" t="n">
-        <v>89340.4163</v>
+        <v>52445.3513</v>
       </c>
       <c r="G48" t="n">
-        <v>-216443.5779868444</v>
+        <v>-89047.74798684442</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>14.29</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2402,13 +2471,14 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14.39</v>
+        <v>14.5</v>
       </c>
       <c r="C49" t="n">
         <v>14.5</v>
@@ -2417,25 +2487,23 @@
         <v>14.5</v>
       </c>
       <c r="E49" t="n">
-        <v>14.39</v>
+        <v>14.5</v>
       </c>
       <c r="F49" t="n">
-        <v>1242</v>
+        <v>674.3525</v>
       </c>
       <c r="G49" t="n">
-        <v>-215201.5779868444</v>
+        <v>-89722.10048684441</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>14.35</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2445,40 +2513,39 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C50" t="n">
-        <v>14.5</v>
+        <v>14.69</v>
       </c>
       <c r="D50" t="n">
-        <v>14.5</v>
+        <v>14.69</v>
       </c>
       <c r="E50" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F50" t="n">
-        <v>46883.2484</v>
+        <v>14744.77139040163</v>
       </c>
       <c r="G50" t="n">
-        <v>-215201.5779868444</v>
+        <v>-74977.32909644279</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2488,40 +2555,39 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14.45</v>
+        <v>14.51</v>
       </c>
       <c r="C51" t="n">
-        <v>14.45</v>
+        <v>14.3</v>
       </c>
       <c r="D51" t="n">
-        <v>14.45</v>
+        <v>14.51</v>
       </c>
       <c r="E51" t="n">
-        <v>14.45</v>
+        <v>14.3</v>
       </c>
       <c r="F51" t="n">
-        <v>18934.4203</v>
+        <v>15111.2271</v>
       </c>
       <c r="G51" t="n">
-        <v>-234135.9982868444</v>
+        <v>-90088.55619644279</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2531,28 +2597,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14.5</v>
+        <v>14.59</v>
       </c>
       <c r="C52" t="n">
-        <v>14.5</v>
+        <v>14.59</v>
       </c>
       <c r="D52" t="n">
-        <v>14.5</v>
+        <v>14.59</v>
       </c>
       <c r="E52" t="n">
-        <v>14.5</v>
+        <v>14.59</v>
       </c>
       <c r="F52" t="n">
-        <v>800.2320999999999</v>
+        <v>694.6746000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>-233335.7661868444</v>
+        <v>-89393.88159644279</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2562,7 +2629,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2572,28 +2639,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="C53" t="n">
-        <v>14.5</v>
+        <v>14.59</v>
       </c>
       <c r="D53" t="n">
-        <v>14.5</v>
+        <v>14.59</v>
       </c>
       <c r="E53" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="F53" t="n">
-        <v>11725.2688</v>
+        <v>10538.0203</v>
       </c>
       <c r="G53" t="n">
-        <v>-233335.7661868444</v>
+        <v>-89393.88159644279</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2603,7 +2671,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2613,40 +2681,39 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14.64</v>
+        <v>14.59</v>
       </c>
       <c r="C54" t="n">
-        <v>14.64</v>
+        <v>14.6</v>
       </c>
       <c r="D54" t="n">
-        <v>14.64</v>
+        <v>14.6</v>
       </c>
       <c r="E54" t="n">
-        <v>14.64</v>
+        <v>14.59</v>
       </c>
       <c r="F54" t="n">
-        <v>3542.9193</v>
+        <v>32974.0847</v>
       </c>
       <c r="G54" t="n">
-        <v>-229792.8468868444</v>
+        <v>-56419.79689644279</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2656,40 +2723,39 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14.64</v>
+        <v>14.4</v>
       </c>
       <c r="C55" t="n">
-        <v>14.64</v>
+        <v>14.4</v>
       </c>
       <c r="D55" t="n">
-        <v>14.64</v>
+        <v>14.4</v>
       </c>
       <c r="E55" t="n">
-        <v>14.64</v>
+        <v>14.4</v>
       </c>
       <c r="F55" t="n">
-        <v>8201.142599999999</v>
+        <v>308.0367</v>
       </c>
       <c r="G55" t="n">
-        <v>-229792.8468868444</v>
+        <v>-56727.83359644279</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>14.64</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2699,40 +2765,39 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14.64</v>
+        <v>14.3</v>
       </c>
       <c r="C56" t="n">
-        <v>14.64</v>
+        <v>14.3</v>
       </c>
       <c r="D56" t="n">
-        <v>14.64</v>
+        <v>14.3</v>
       </c>
       <c r="E56" t="n">
-        <v>14.64</v>
+        <v>14.3</v>
       </c>
       <c r="F56" t="n">
-        <v>58881.5822</v>
+        <v>1384.1126</v>
       </c>
       <c r="G56" t="n">
-        <v>-229792.8468868444</v>
+        <v>-58111.94619644279</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>14.64</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2742,6 +2807,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2751,29 +2817,31 @@
         <v>14.3</v>
       </c>
       <c r="C57" t="n">
-        <v>14.03</v>
+        <v>14.3</v>
       </c>
       <c r="D57" t="n">
         <v>14.3</v>
       </c>
       <c r="E57" t="n">
-        <v>14.03</v>
+        <v>14.3</v>
       </c>
       <c r="F57" t="n">
-        <v>58881.5822</v>
+        <v>30000</v>
       </c>
       <c r="G57" t="n">
-        <v>-288674.4290868444</v>
+        <v>-58111.94619644279</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>14.3</v>
+      </c>
       <c r="K57" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2783,40 +2851,39 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14.34</v>
+        <v>14.3</v>
       </c>
       <c r="C58" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D58" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E58" t="n">
-        <v>14.34</v>
+        <v>14.3</v>
       </c>
       <c r="F58" t="n">
-        <v>1122.5969</v>
+        <v>44.5196</v>
       </c>
       <c r="G58" t="n">
-        <v>-287551.8321868444</v>
+        <v>-58111.94619644279</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>14.03</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2826,28 +2893,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14.34</v>
+        <v>14.4</v>
       </c>
       <c r="C59" t="n">
-        <v>14.34</v>
+        <v>14.4</v>
       </c>
       <c r="D59" t="n">
-        <v>14.34</v>
+        <v>14.4</v>
       </c>
       <c r="E59" t="n">
-        <v>14.34</v>
+        <v>14.4</v>
       </c>
       <c r="F59" t="n">
-        <v>292.693</v>
+        <v>21862.5578</v>
       </c>
       <c r="G59" t="n">
-        <v>-287844.5251868444</v>
+        <v>-36249.3883964428</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -2856,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="K59" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2869,40 +2937,39 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14.1</v>
+        <v>14.65</v>
       </c>
       <c r="C60" t="n">
-        <v>14.1</v>
+        <v>14.65</v>
       </c>
       <c r="D60" t="n">
-        <v>14.1</v>
+        <v>14.65</v>
       </c>
       <c r="E60" t="n">
-        <v>14.1</v>
+        <v>14.65</v>
       </c>
       <c r="F60" t="n">
-        <v>7908.4496</v>
+        <v>10540</v>
       </c>
       <c r="G60" t="n">
-        <v>-295752.9747868444</v>
+        <v>-25709.3883964428</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>14.34</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2912,40 +2979,39 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14.06</v>
+        <v>14.65</v>
       </c>
       <c r="C61" t="n">
-        <v>14.06</v>
+        <v>14.65</v>
       </c>
       <c r="D61" t="n">
-        <v>14.06</v>
+        <v>14.65</v>
       </c>
       <c r="E61" t="n">
-        <v>14.06</v>
+        <v>14.65</v>
       </c>
       <c r="F61" t="n">
-        <v>15186</v>
+        <v>13953.8193</v>
       </c>
       <c r="G61" t="n">
-        <v>-310938.9747868444</v>
+        <v>-25709.3883964428</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2955,40 +3021,39 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14.06</v>
+        <v>14.65</v>
       </c>
       <c r="C62" t="n">
-        <v>14.06</v>
+        <v>14.65</v>
       </c>
       <c r="D62" t="n">
-        <v>14.06</v>
+        <v>14.65</v>
       </c>
       <c r="E62" t="n">
-        <v>14.06</v>
+        <v>14.65</v>
       </c>
       <c r="F62" t="n">
-        <v>11725.2688</v>
+        <v>10000</v>
       </c>
       <c r="G62" t="n">
-        <v>-310938.9747868444</v>
+        <v>-25709.3883964428</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>14.06</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2998,40 +3063,39 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14.3</v>
+        <v>14.65</v>
       </c>
       <c r="C63" t="n">
-        <v>14.3</v>
+        <v>14.65</v>
       </c>
       <c r="D63" t="n">
-        <v>14.3</v>
+        <v>14.65</v>
       </c>
       <c r="E63" t="n">
-        <v>14.3</v>
+        <v>14.65</v>
       </c>
       <c r="F63" t="n">
-        <v>2029</v>
+        <v>217.3528</v>
       </c>
       <c r="G63" t="n">
-        <v>-308909.9747868444</v>
+        <v>-25709.3883964428</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>14.06</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3041,40 +3105,39 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="C64" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="D64" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="E64" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="F64" t="n">
-        <v>34106.7771</v>
+        <v>1422.0028</v>
       </c>
       <c r="G64" t="n">
-        <v>-308909.9747868444</v>
+        <v>-27131.39119644279</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3084,40 +3147,39 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14.06</v>
+        <v>14.6</v>
       </c>
       <c r="C65" t="n">
-        <v>14.05</v>
+        <v>14.64</v>
       </c>
       <c r="D65" t="n">
-        <v>14.06</v>
+        <v>14.64</v>
       </c>
       <c r="E65" t="n">
-        <v>14.05</v>
+        <v>14.6</v>
       </c>
       <c r="F65" t="n">
-        <v>6259.2231</v>
+        <v>8106.5781</v>
       </c>
       <c r="G65" t="n">
-        <v>-315169.1978868444</v>
+        <v>-19024.81309644279</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3127,40 +3189,39 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14.34</v>
+        <v>14.64</v>
       </c>
       <c r="C66" t="n">
-        <v>14.34</v>
+        <v>14.65</v>
       </c>
       <c r="D66" t="n">
-        <v>14.34</v>
+        <v>14.65</v>
       </c>
       <c r="E66" t="n">
-        <v>14.34</v>
+        <v>14.64</v>
       </c>
       <c r="F66" t="n">
-        <v>77</v>
+        <v>47761.3557</v>
       </c>
       <c r="G66" t="n">
-        <v>-315092.1978868444</v>
+        <v>28736.54260355721</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>14.05</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3170,40 +3231,39 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14.05</v>
+        <v>14.65</v>
       </c>
       <c r="C67" t="n">
-        <v>14.05</v>
+        <v>14.65</v>
       </c>
       <c r="D67" t="n">
-        <v>14.05</v>
+        <v>14.65</v>
       </c>
       <c r="E67" t="n">
-        <v>14.05</v>
+        <v>14.65</v>
       </c>
       <c r="F67" t="n">
-        <v>559.9739</v>
+        <v>22105.1943</v>
       </c>
       <c r="G67" t="n">
-        <v>-315652.1717868444</v>
+        <v>28736.54260355721</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>14.34</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3213,40 +3273,39 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14.03</v>
+        <v>14.7</v>
       </c>
       <c r="C68" t="n">
-        <v>14.03</v>
+        <v>14.7</v>
       </c>
       <c r="D68" t="n">
-        <v>14.03</v>
+        <v>14.7</v>
       </c>
       <c r="E68" t="n">
-        <v>14.03</v>
+        <v>14.7</v>
       </c>
       <c r="F68" t="n">
-        <v>97</v>
+        <v>3074.971</v>
       </c>
       <c r="G68" t="n">
-        <v>-315749.1717868444</v>
+        <v>31811.51360355721</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>14.05</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3256,40 +3315,39 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14.05</v>
+        <v>14.69</v>
       </c>
       <c r="C69" t="n">
-        <v>14.2</v>
+        <v>14.65</v>
       </c>
       <c r="D69" t="n">
-        <v>14.2</v>
+        <v>14.99</v>
       </c>
       <c r="E69" t="n">
-        <v>14.05</v>
+        <v>14.65</v>
       </c>
       <c r="F69" t="n">
-        <v>5775</v>
+        <v>108767.4197</v>
       </c>
       <c r="G69" t="n">
-        <v>-309974.1717868444</v>
+        <v>-76955.90609644279</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>14.03</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3299,40 +3357,39 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14.05</v>
+        <v>14.65</v>
       </c>
       <c r="C70" t="n">
-        <v>14.05</v>
+        <v>14.99</v>
       </c>
       <c r="D70" t="n">
-        <v>14.05</v>
+        <v>14.99</v>
       </c>
       <c r="E70" t="n">
-        <v>14.05</v>
+        <v>14.65</v>
       </c>
       <c r="F70" t="n">
-        <v>77.56</v>
+        <v>24499.8872</v>
       </c>
       <c r="G70" t="n">
-        <v>-310051.7317868444</v>
+        <v>-52456.01889644279</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>14.2</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3342,40 +3399,39 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14.05</v>
+        <v>14.9</v>
       </c>
       <c r="C71" t="n">
-        <v>14.05</v>
+        <v>14.99</v>
       </c>
       <c r="D71" t="n">
-        <v>14.05</v>
+        <v>14.99</v>
       </c>
       <c r="E71" t="n">
-        <v>14.05</v>
+        <v>14.9</v>
       </c>
       <c r="F71" t="n">
-        <v>6630.9656</v>
+        <v>942.2618</v>
       </c>
       <c r="G71" t="n">
-        <v>-310051.7317868444</v>
+        <v>-52456.01889644279</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>14.05</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3385,40 +3441,39 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14.2</v>
+        <v>14.99</v>
       </c>
       <c r="C72" t="n">
-        <v>14.3</v>
+        <v>15</v>
       </c>
       <c r="D72" t="n">
-        <v>14.3</v>
+        <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>14.2</v>
+        <v>14.99</v>
       </c>
       <c r="F72" t="n">
-        <v>59278.3671</v>
+        <v>93813.97689999999</v>
       </c>
       <c r="G72" t="n">
-        <v>-250773.3646868444</v>
+        <v>41357.9580035572</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>14.05</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3428,40 +3483,39 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14.3</v>
+        <v>15</v>
       </c>
       <c r="C73" t="n">
-        <v>14.3</v>
+        <v>15.1</v>
       </c>
       <c r="D73" t="n">
-        <v>14.3</v>
+        <v>15.1</v>
       </c>
       <c r="E73" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="F73" t="n">
-        <v>35</v>
+        <v>10043.4937</v>
       </c>
       <c r="G73" t="n">
-        <v>-250773.3646868444</v>
+        <v>51401.4517035572</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3471,40 +3525,39 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14.2</v>
+        <v>15.1</v>
       </c>
       <c r="C74" t="n">
-        <v>14.2</v>
+        <v>15.01</v>
       </c>
       <c r="D74" t="n">
-        <v>14.2</v>
+        <v>15.1</v>
       </c>
       <c r="E74" t="n">
-        <v>14.2</v>
+        <v>15</v>
       </c>
       <c r="F74" t="n">
-        <v>577.1976</v>
+        <v>46562.2098</v>
       </c>
       <c r="G74" t="n">
-        <v>-251350.5622868444</v>
+        <v>4839.241903557202</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3514,40 +3567,39 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14.3</v>
+        <v>15.19</v>
       </c>
       <c r="C75" t="n">
-        <v>14.3</v>
+        <v>15.55</v>
       </c>
       <c r="D75" t="n">
-        <v>14.3</v>
+        <v>15.55</v>
       </c>
       <c r="E75" t="n">
-        <v>14.3</v>
+        <v>15.01</v>
       </c>
       <c r="F75" t="n">
-        <v>35</v>
+        <v>9934.4522</v>
       </c>
       <c r="G75" t="n">
-        <v>-251315.5622868444</v>
+        <v>14773.6941035572</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>14.2</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3557,40 +3609,39 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14.2</v>
+        <v>15.3</v>
       </c>
       <c r="C76" t="n">
-        <v>14.2</v>
+        <v>15.48</v>
       </c>
       <c r="D76" t="n">
-        <v>14.2</v>
+        <v>15.55</v>
       </c>
       <c r="E76" t="n">
-        <v>14.2</v>
+        <v>15.21</v>
       </c>
       <c r="F76" t="n">
-        <v>3426.3399</v>
+        <v>45356.2314</v>
       </c>
       <c r="G76" t="n">
-        <v>-254741.9021868444</v>
+        <v>-30582.5372964428</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3600,40 +3651,39 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14.06</v>
+        <v>15.31</v>
       </c>
       <c r="C77" t="n">
-        <v>14.06</v>
+        <v>15.48</v>
       </c>
       <c r="D77" t="n">
-        <v>14.06</v>
+        <v>15.48</v>
       </c>
       <c r="E77" t="n">
-        <v>14.06</v>
+        <v>15.22</v>
       </c>
       <c r="F77" t="n">
-        <v>1252.2745</v>
+        <v>16247.3346</v>
       </c>
       <c r="G77" t="n">
-        <v>-255994.1766868444</v>
+        <v>-30582.5372964428</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>14.2</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3643,40 +3693,39 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14.06</v>
+        <v>15.48</v>
       </c>
       <c r="C78" t="n">
-        <v>14.06</v>
+        <v>15.48</v>
       </c>
       <c r="D78" t="n">
-        <v>14.06</v>
+        <v>15.5</v>
       </c>
       <c r="E78" t="n">
-        <v>14.06</v>
+        <v>15.48</v>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>72631.4556</v>
       </c>
       <c r="G78" t="n">
-        <v>-255994.1766868444</v>
+        <v>-30582.5372964428</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>14.06</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3686,40 +3735,39 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14.29</v>
+        <v>15.5</v>
       </c>
       <c r="C79" t="n">
-        <v>14.29</v>
+        <v>15.99</v>
       </c>
       <c r="D79" t="n">
-        <v>14.29</v>
+        <v>15.99</v>
       </c>
       <c r="E79" t="n">
-        <v>14.29</v>
+        <v>15.48</v>
       </c>
       <c r="F79" t="n">
-        <v>37902.2396</v>
+        <v>99780.4106</v>
       </c>
       <c r="G79" t="n">
-        <v>-218091.9370868444</v>
+        <v>69197.87330355721</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>14.06</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3729,40 +3777,39 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14.3</v>
+        <v>15.99</v>
       </c>
       <c r="C80" t="n">
-        <v>14.4</v>
+        <v>15.99</v>
       </c>
       <c r="D80" t="n">
-        <v>14.65</v>
+        <v>15.99</v>
       </c>
       <c r="E80" t="n">
-        <v>14.3</v>
+        <v>15.99</v>
       </c>
       <c r="F80" t="n">
-        <v>81413.1547</v>
+        <v>87.77800000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>-136678.7823868444</v>
+        <v>69197.87330355721</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>14.29</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3772,40 +3819,39 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14.4</v>
+        <v>15.99</v>
       </c>
       <c r="C81" t="n">
-        <v>14.6</v>
+        <v>16.9</v>
       </c>
       <c r="D81" t="n">
-        <v>14.64</v>
+        <v>16.9</v>
       </c>
       <c r="E81" t="n">
-        <v>14.3</v>
+        <v>15.99</v>
       </c>
       <c r="F81" t="n">
-        <v>6903.6124</v>
+        <v>80829.4951</v>
       </c>
       <c r="G81" t="n">
-        <v>-129775.1699868444</v>
+        <v>150027.3684035572</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3815,40 +3861,39 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>14.4</v>
+        <v>16</v>
       </c>
       <c r="C82" t="n">
-        <v>14.4</v>
+        <v>16.8</v>
       </c>
       <c r="D82" t="n">
-        <v>14.4</v>
+        <v>16.81</v>
       </c>
       <c r="E82" t="n">
-        <v>14.4</v>
+        <v>15.99</v>
       </c>
       <c r="F82" t="n">
-        <v>6970.8762</v>
+        <v>236000.4531</v>
       </c>
       <c r="G82" t="n">
-        <v>-136746.0461868444</v>
+        <v>-85973.08469644279</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3858,40 +3903,39 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>14.5</v>
+        <v>16.8</v>
       </c>
       <c r="C83" t="n">
-        <v>14.63</v>
+        <v>16.82</v>
       </c>
       <c r="D83" t="n">
-        <v>14.65</v>
+        <v>16.82</v>
       </c>
       <c r="E83" t="n">
-        <v>14.5</v>
+        <v>16.8</v>
       </c>
       <c r="F83" t="n">
-        <v>95047.7518</v>
+        <v>216113.5291</v>
       </c>
       <c r="G83" t="n">
-        <v>-41698.29438684441</v>
+        <v>130140.4444035572</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3901,40 +3945,39 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14.62</v>
+        <v>16.82</v>
       </c>
       <c r="C84" t="n">
-        <v>14.63</v>
+        <v>16.83</v>
       </c>
       <c r="D84" t="n">
-        <v>14.63</v>
+        <v>16.83</v>
       </c>
       <c r="E84" t="n">
-        <v>14.4</v>
+        <v>16.82</v>
       </c>
       <c r="F84" t="n">
-        <v>2056</v>
+        <v>96370.7071</v>
       </c>
       <c r="G84" t="n">
-        <v>-41698.29438684441</v>
+        <v>226511.1515035572</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>14.63</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3944,40 +3987,39 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14.6</v>
+        <v>16.9</v>
       </c>
       <c r="C85" t="n">
-        <v>14.65</v>
+        <v>16.83</v>
       </c>
       <c r="D85" t="n">
-        <v>14.65</v>
+        <v>16.9</v>
       </c>
       <c r="E85" t="n">
-        <v>14.6</v>
+        <v>16.83</v>
       </c>
       <c r="F85" t="n">
-        <v>40604.0257</v>
+        <v>91137.8622</v>
       </c>
       <c r="G85" t="n">
-        <v>-1094.268686844414</v>
+        <v>226511.1515035572</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>14.63</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3987,40 +4029,39 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>14.69</v>
+        <v>16.83</v>
       </c>
       <c r="C86" t="n">
-        <v>14.6</v>
+        <v>16.83</v>
       </c>
       <c r="D86" t="n">
-        <v>14.7</v>
+        <v>16.92</v>
       </c>
       <c r="E86" t="n">
-        <v>14.6</v>
+        <v>16.83</v>
       </c>
       <c r="F86" t="n">
-        <v>49330.2767</v>
+        <v>63453.8758</v>
       </c>
       <c r="G86" t="n">
-        <v>-50424.54538684442</v>
+        <v>226511.1515035572</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>14.65</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4030,40 +4071,39 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>14.59</v>
+        <v>16.82</v>
       </c>
       <c r="C87" t="n">
-        <v>14.59</v>
+        <v>16.82</v>
       </c>
       <c r="D87" t="n">
-        <v>14.59</v>
+        <v>16.82</v>
       </c>
       <c r="E87" t="n">
-        <v>14.59</v>
+        <v>16.82</v>
       </c>
       <c r="F87" t="n">
-        <v>1291.3172</v>
+        <v>5932.3743</v>
       </c>
       <c r="G87" t="n">
-        <v>-51715.86258684441</v>
+        <v>220578.7772035572</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4073,40 +4113,39 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>14.6</v>
+        <v>16.82</v>
       </c>
       <c r="C88" t="n">
-        <v>14.59</v>
+        <v>16.92</v>
       </c>
       <c r="D88" t="n">
-        <v>14.6</v>
+        <v>16.92</v>
       </c>
       <c r="E88" t="n">
-        <v>14.59</v>
+        <v>16.82</v>
       </c>
       <c r="F88" t="n">
-        <v>33066.4492</v>
+        <v>60405.8412</v>
       </c>
       <c r="G88" t="n">
-        <v>-51715.86258684441</v>
+        <v>280984.6184035572</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>14.59</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4116,40 +4155,39 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>14.6</v>
+        <v>16.92</v>
       </c>
       <c r="C89" t="n">
-        <v>14.7</v>
+        <v>16.98</v>
       </c>
       <c r="D89" t="n">
-        <v>14.7</v>
+        <v>16.98</v>
       </c>
       <c r="E89" t="n">
-        <v>14.6</v>
+        <v>16.92</v>
       </c>
       <c r="F89" t="n">
-        <v>15113.4659</v>
+        <v>36145.4542</v>
       </c>
       <c r="G89" t="n">
-        <v>-36602.39668684441</v>
+        <v>317130.0726035572</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>14.59</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4159,40 +4197,39 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>14.6</v>
+        <v>16.95</v>
       </c>
       <c r="C90" t="n">
-        <v>14.6</v>
+        <v>16.95</v>
       </c>
       <c r="D90" t="n">
-        <v>14.6</v>
+        <v>16.95</v>
       </c>
       <c r="E90" t="n">
-        <v>14.6</v>
+        <v>16.95</v>
       </c>
       <c r="F90" t="n">
-        <v>52445.3513</v>
+        <v>18190.066</v>
       </c>
       <c r="G90" t="n">
-        <v>-89047.74798684442</v>
+        <v>298940.0066035572</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4202,40 +4239,39 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14.5</v>
+        <v>16.95</v>
       </c>
       <c r="C91" t="n">
-        <v>14.5</v>
+        <v>17.3</v>
       </c>
       <c r="D91" t="n">
-        <v>14.5</v>
+        <v>17.3</v>
       </c>
       <c r="E91" t="n">
-        <v>14.5</v>
+        <v>16.95</v>
       </c>
       <c r="F91" t="n">
-        <v>674.3525</v>
+        <v>240464.3477</v>
       </c>
       <c r="G91" t="n">
-        <v>-89722.10048684441</v>
+        <v>539404.3543035572</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4245,40 +4281,39 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14.6</v>
+        <v>17.3</v>
       </c>
       <c r="C92" t="n">
-        <v>14.69</v>
+        <v>18</v>
       </c>
       <c r="D92" t="n">
-        <v>14.69</v>
+        <v>18</v>
       </c>
       <c r="E92" t="n">
-        <v>14.6</v>
+        <v>17.3</v>
       </c>
       <c r="F92" t="n">
-        <v>14744.77139040163</v>
+        <v>603559.9708</v>
       </c>
       <c r="G92" t="n">
-        <v>-74977.32909644279</v>
+        <v>1142964.325103557</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4288,40 +4323,39 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14.51</v>
+        <v>17.9</v>
       </c>
       <c r="C93" t="n">
-        <v>14.3</v>
+        <v>18.26</v>
       </c>
       <c r="D93" t="n">
-        <v>14.51</v>
+        <v>18.26</v>
       </c>
       <c r="E93" t="n">
-        <v>14.3</v>
+        <v>17.9</v>
       </c>
       <c r="F93" t="n">
-        <v>15111.2271</v>
+        <v>388828.3674826944</v>
       </c>
       <c r="G93" t="n">
-        <v>-90088.55619644279</v>
+        <v>1531792.692586252</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>14.69</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4331,40 +4365,39 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14.59</v>
+        <v>18.26</v>
       </c>
       <c r="C94" t="n">
-        <v>14.59</v>
+        <v>18.6</v>
       </c>
       <c r="D94" t="n">
-        <v>14.59</v>
+        <v>18.8</v>
       </c>
       <c r="E94" t="n">
-        <v>14.59</v>
+        <v>18.05</v>
       </c>
       <c r="F94" t="n">
-        <v>694.6746000000001</v>
+        <v>833624.8976173056</v>
       </c>
       <c r="G94" t="n">
-        <v>-89393.88159644279</v>
+        <v>2365417.590203557</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4374,40 +4407,39 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14.3</v>
+        <v>18.6</v>
       </c>
       <c r="C95" t="n">
-        <v>14.59</v>
+        <v>18.4</v>
       </c>
       <c r="D95" t="n">
-        <v>14.59</v>
+        <v>18.7</v>
       </c>
       <c r="E95" t="n">
-        <v>14.3</v>
+        <v>18.39</v>
       </c>
       <c r="F95" t="n">
-        <v>10538.0203</v>
+        <v>264061.2491</v>
       </c>
       <c r="G95" t="n">
-        <v>-89393.88159644279</v>
+        <v>2101356.341103557</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>14.59</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4417,40 +4449,39 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>14.59</v>
+        <v>18.4</v>
       </c>
       <c r="C96" t="n">
-        <v>14.6</v>
+        <v>19.25</v>
       </c>
       <c r="D96" t="n">
-        <v>14.6</v>
+        <v>19.25</v>
       </c>
       <c r="E96" t="n">
-        <v>14.59</v>
+        <v>18.4</v>
       </c>
       <c r="F96" t="n">
-        <v>32974.0847</v>
+        <v>209737.3774</v>
       </c>
       <c r="G96" t="n">
-        <v>-56419.79689644279</v>
+        <v>2311093.718503557</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>14.59</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4460,40 +4491,39 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>14.4</v>
+        <v>19.25</v>
       </c>
       <c r="C97" t="n">
-        <v>14.4</v>
+        <v>19.4</v>
       </c>
       <c r="D97" t="n">
-        <v>14.4</v>
+        <v>19.55</v>
       </c>
       <c r="E97" t="n">
-        <v>14.4</v>
+        <v>18.8</v>
       </c>
       <c r="F97" t="n">
-        <v>308.0367</v>
+        <v>607101.0624000001</v>
       </c>
       <c r="G97" t="n">
-        <v>-56727.83359644279</v>
+        <v>2918194.780903557</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4503,40 +4533,39 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14.3</v>
+        <v>19.4</v>
       </c>
       <c r="C98" t="n">
-        <v>14.3</v>
+        <v>20.49</v>
       </c>
       <c r="D98" t="n">
-        <v>14.3</v>
+        <v>21</v>
       </c>
       <c r="E98" t="n">
-        <v>14.3</v>
+        <v>19.4</v>
       </c>
       <c r="F98" t="n">
-        <v>1384.1126</v>
+        <v>1407281.062688143</v>
       </c>
       <c r="G98" t="n">
-        <v>-58111.94619644279</v>
+        <v>4325475.8435917</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4546,48 +4575,50 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14.3</v>
+        <v>20.49</v>
       </c>
       <c r="C99" t="n">
-        <v>14.3</v>
+        <v>20.1</v>
       </c>
       <c r="D99" t="n">
-        <v>14.3</v>
+        <v>20.49</v>
       </c>
       <c r="E99" t="n">
-        <v>14.3</v>
+        <v>19.05</v>
       </c>
       <c r="F99" t="n">
-        <v>30000</v>
+        <v>233407.235</v>
       </c>
       <c r="G99" t="n">
-        <v>-58111.94619644279</v>
+        <v>4092068.6085917</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>14.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>13.3</v>
+        <v>14.28</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>1.402563025210084</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1.006338028169014</v>
       </c>
     </row>
     <row r="100">
@@ -4595,1011 +4626,850 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14.3</v>
+        <v>20.1</v>
       </c>
       <c r="C100" t="n">
-        <v>14.3</v>
+        <v>19.26</v>
       </c>
       <c r="D100" t="n">
-        <v>14.3</v>
+        <v>20.1</v>
       </c>
       <c r="E100" t="n">
-        <v>14.3</v>
+        <v>19.26</v>
       </c>
       <c r="F100" t="n">
-        <v>44.5196</v>
+        <v>180493.293638806</v>
       </c>
       <c r="G100" t="n">
-        <v>-58111.94619644279</v>
+        <v>3911575.314952895</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K100" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14.4</v>
+        <v>19.27</v>
       </c>
       <c r="C101" t="n">
-        <v>14.4</v>
+        <v>18.39</v>
       </c>
       <c r="D101" t="n">
-        <v>14.4</v>
+        <v>19.27</v>
       </c>
       <c r="E101" t="n">
-        <v>14.4</v>
+        <v>18.29</v>
       </c>
       <c r="F101" t="n">
-        <v>21862.5578</v>
+        <v>1450822.6371</v>
       </c>
       <c r="G101" t="n">
-        <v>-36249.3883964428</v>
+        <v>2460752.677852895</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K101" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>14.65</v>
+        <v>18.89</v>
       </c>
       <c r="C102" t="n">
-        <v>14.65</v>
+        <v>18.85</v>
       </c>
       <c r="D102" t="n">
-        <v>14.65</v>
+        <v>18.89</v>
       </c>
       <c r="E102" t="n">
-        <v>14.65</v>
+        <v>18.85</v>
       </c>
       <c r="F102" t="n">
-        <v>10540</v>
+        <v>37941.87847769169</v>
       </c>
       <c r="G102" t="n">
-        <v>-25709.3883964428</v>
+        <v>2498694.556330586</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K102" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>14.65</v>
+        <v>18.6</v>
       </c>
       <c r="C103" t="n">
-        <v>14.65</v>
+        <v>18.47</v>
       </c>
       <c r="D103" t="n">
-        <v>14.65</v>
+        <v>18.83</v>
       </c>
       <c r="E103" t="n">
-        <v>14.65</v>
+        <v>18</v>
       </c>
       <c r="F103" t="n">
-        <v>13953.8193</v>
+        <v>415352.2361</v>
       </c>
       <c r="G103" t="n">
-        <v>-25709.3883964428</v>
+        <v>2083342.320230586</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="K103" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>14.65</v>
+        <v>18.46</v>
       </c>
       <c r="C104" t="n">
-        <v>14.65</v>
+        <v>18.46</v>
       </c>
       <c r="D104" t="n">
-        <v>14.65</v>
+        <v>18.46</v>
       </c>
       <c r="E104" t="n">
-        <v>14.65</v>
+        <v>18.46</v>
       </c>
       <c r="F104" t="n">
-        <v>10000</v>
+        <v>10736.915</v>
       </c>
       <c r="G104" t="n">
-        <v>-25709.3883964428</v>
+        <v>2072605.405230586</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="K104" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>14.65</v>
+        <v>18.29</v>
       </c>
       <c r="C105" t="n">
-        <v>14.65</v>
+        <v>18</v>
       </c>
       <c r="D105" t="n">
-        <v>14.65</v>
+        <v>18.29</v>
       </c>
       <c r="E105" t="n">
-        <v>14.65</v>
+        <v>18</v>
       </c>
       <c r="F105" t="n">
-        <v>217.3528</v>
+        <v>84429.4666</v>
       </c>
       <c r="G105" t="n">
-        <v>-25709.3883964428</v>
+        <v>1988175.938630586</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="K105" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>14.4</v>
+        <v>18</v>
       </c>
       <c r="C106" t="n">
-        <v>14.4</v>
+        <v>17.42</v>
       </c>
       <c r="D106" t="n">
-        <v>14.4</v>
+        <v>18</v>
       </c>
       <c r="E106" t="n">
-        <v>14.4</v>
+        <v>17.41</v>
       </c>
       <c r="F106" t="n">
-        <v>1422.0028</v>
+        <v>140246.731</v>
       </c>
       <c r="G106" t="n">
-        <v>-27131.39119644279</v>
+        <v>1847929.207630587</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="K106" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>14.6</v>
+        <v>18</v>
       </c>
       <c r="C107" t="n">
-        <v>14.64</v>
+        <v>18.3</v>
       </c>
       <c r="D107" t="n">
-        <v>14.64</v>
+        <v>18.3</v>
       </c>
       <c r="E107" t="n">
-        <v>14.6</v>
+        <v>17.6</v>
       </c>
       <c r="F107" t="n">
-        <v>8106.5781</v>
+        <v>17763.7796</v>
       </c>
       <c r="G107" t="n">
-        <v>-19024.81309644279</v>
+        <v>1865692.987230587</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K107" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>14.64</v>
+        <v>17.64</v>
       </c>
       <c r="C108" t="n">
-        <v>14.65</v>
+        <v>17.35</v>
       </c>
       <c r="D108" t="n">
-        <v>14.65</v>
+        <v>17.64</v>
       </c>
       <c r="E108" t="n">
-        <v>14.64</v>
+        <v>17.35</v>
       </c>
       <c r="F108" t="n">
-        <v>47761.3557</v>
+        <v>89612.9063</v>
       </c>
       <c r="G108" t="n">
-        <v>28736.54260355721</v>
+        <v>1776080.080930587</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="K108" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>14.65</v>
+        <v>17.35</v>
       </c>
       <c r="C109" t="n">
-        <v>14.65</v>
+        <v>16.71</v>
       </c>
       <c r="D109" t="n">
-        <v>14.65</v>
+        <v>17.5</v>
       </c>
       <c r="E109" t="n">
-        <v>14.65</v>
+        <v>16.71</v>
       </c>
       <c r="F109" t="n">
-        <v>22105.1943</v>
+        <v>221242.4338</v>
       </c>
       <c r="G109" t="n">
-        <v>28736.54260355721</v>
+        <v>1554837.647130587</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="K109" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>14.7</v>
+        <v>17.2</v>
       </c>
       <c r="C110" t="n">
-        <v>14.7</v>
+        <v>17.3</v>
       </c>
       <c r="D110" t="n">
-        <v>14.7</v>
+        <v>17.3</v>
       </c>
       <c r="E110" t="n">
-        <v>14.7</v>
+        <v>17.2</v>
       </c>
       <c r="F110" t="n">
-        <v>3074.971</v>
+        <v>12044.5028</v>
       </c>
       <c r="G110" t="n">
-        <v>31811.51360355721</v>
+        <v>1566882.149930587</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="K110" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>14.69</v>
+        <v>17.6</v>
       </c>
       <c r="C111" t="n">
-        <v>14.65</v>
+        <v>17.4</v>
       </c>
       <c r="D111" t="n">
-        <v>14.99</v>
+        <v>17.8</v>
       </c>
       <c r="E111" t="n">
-        <v>14.65</v>
+        <v>17.4</v>
       </c>
       <c r="F111" t="n">
-        <v>108767.4197</v>
+        <v>77713.05190000001</v>
       </c>
       <c r="G111" t="n">
-        <v>-76955.90609644279</v>
+        <v>1644595.201830587</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K111" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>14.65</v>
+        <v>17.6</v>
       </c>
       <c r="C112" t="n">
-        <v>14.99</v>
+        <v>17.31</v>
       </c>
       <c r="D112" t="n">
-        <v>14.99</v>
+        <v>17.7</v>
       </c>
       <c r="E112" t="n">
-        <v>14.65</v>
+        <v>17.26</v>
       </c>
       <c r="F112" t="n">
-        <v>24499.8872</v>
+        <v>79705.9566</v>
       </c>
       <c r="G112" t="n">
-        <v>-52456.01889644279</v>
+        <v>1564889.245230587</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="K112" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>14.9</v>
+        <v>17.31</v>
       </c>
       <c r="C113" t="n">
-        <v>14.99</v>
+        <v>17.4</v>
       </c>
       <c r="D113" t="n">
-        <v>14.99</v>
+        <v>17.49</v>
       </c>
       <c r="E113" t="n">
-        <v>14.9</v>
+        <v>17.3</v>
       </c>
       <c r="F113" t="n">
-        <v>942.2618</v>
+        <v>195629.6346</v>
       </c>
       <c r="G113" t="n">
-        <v>-52456.01889644279</v>
+        <v>1760518.879830587</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="K113" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>14.99</v>
+        <v>17.4</v>
       </c>
       <c r="C114" t="n">
-        <v>15</v>
+        <v>17.4</v>
       </c>
       <c r="D114" t="n">
-        <v>15</v>
+        <v>17.4</v>
       </c>
       <c r="E114" t="n">
-        <v>14.99</v>
+        <v>17.3</v>
       </c>
       <c r="F114" t="n">
-        <v>93813.97689999999</v>
+        <v>129449.6134</v>
       </c>
       <c r="G114" t="n">
-        <v>41357.9580035572</v>
+        <v>1760518.879830587</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="K114" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15</v>
+        <v>17.23</v>
       </c>
       <c r="C115" t="n">
-        <v>15.1</v>
+        <v>17.4</v>
       </c>
       <c r="D115" t="n">
-        <v>15.1</v>
+        <v>17.4</v>
       </c>
       <c r="E115" t="n">
-        <v>14.8</v>
+        <v>17.23</v>
       </c>
       <c r="F115" t="n">
-        <v>10043.4937</v>
+        <v>14091.21111839081</v>
       </c>
       <c r="G115" t="n">
-        <v>51401.4517035572</v>
+        <v>1760518.879830587</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>15</v>
-      </c>
-      <c r="K115" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15.1</v>
+        <v>17.4</v>
       </c>
       <c r="C116" t="n">
-        <v>15.01</v>
+        <v>17.4</v>
       </c>
       <c r="D116" t="n">
-        <v>15.1</v>
+        <v>17.4</v>
       </c>
       <c r="E116" t="n">
-        <v>15</v>
+        <v>17.4</v>
       </c>
       <c r="F116" t="n">
-        <v>46562.2098</v>
+        <v>190.9772</v>
       </c>
       <c r="G116" t="n">
-        <v>4839.241903557202</v>
+        <v>1760518.879830587</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K116" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.19</v>
+        <v>17.22</v>
       </c>
       <c r="C117" t="n">
-        <v>15.55</v>
+        <v>17.25</v>
       </c>
       <c r="D117" t="n">
-        <v>15.55</v>
+        <v>17.25</v>
       </c>
       <c r="E117" t="n">
-        <v>15.01</v>
+        <v>17.22</v>
       </c>
       <c r="F117" t="n">
-        <v>9934.4522</v>
+        <v>70342.9997</v>
       </c>
       <c r="G117" t="n">
-        <v>14773.6941035572</v>
+        <v>1690175.880130587</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>15.01</v>
-      </c>
-      <c r="K117" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.3</v>
+        <v>17.22</v>
       </c>
       <c r="C118" t="n">
-        <v>15.48</v>
+        <v>16.54</v>
       </c>
       <c r="D118" t="n">
-        <v>15.55</v>
+        <v>17.25</v>
       </c>
       <c r="E118" t="n">
-        <v>15.21</v>
+        <v>16.54</v>
       </c>
       <c r="F118" t="n">
-        <v>45356.2314</v>
+        <v>141962.7001</v>
       </c>
       <c r="G118" t="n">
-        <v>-30582.5372964428</v>
+        <v>1548213.180030587</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="K118" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.31</v>
+        <v>16.6</v>
       </c>
       <c r="C119" t="n">
-        <v>15.48</v>
+        <v>16.6</v>
       </c>
       <c r="D119" t="n">
-        <v>15.48</v>
+        <v>16.6</v>
       </c>
       <c r="E119" t="n">
-        <v>15.22</v>
+        <v>16.6</v>
       </c>
       <c r="F119" t="n">
-        <v>16247.3346</v>
+        <v>23178.0983</v>
       </c>
       <c r="G119" t="n">
-        <v>-30582.5372964428</v>
+        <v>1571391.278330587</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="K119" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15.48</v>
+        <v>16.66</v>
       </c>
       <c r="C120" t="n">
-        <v>15.48</v>
+        <v>16.35</v>
       </c>
       <c r="D120" t="n">
-        <v>15.5</v>
+        <v>16.66</v>
       </c>
       <c r="E120" t="n">
-        <v>15.48</v>
+        <v>16.35</v>
       </c>
       <c r="F120" t="n">
-        <v>72631.4556</v>
+        <v>135443.011</v>
       </c>
       <c r="G120" t="n">
-        <v>-30582.5372964428</v>
+        <v>1435948.267330587</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="K120" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.5</v>
+        <v>16.35</v>
       </c>
       <c r="C121" t="n">
-        <v>15.99</v>
+        <v>15.97</v>
       </c>
       <c r="D121" t="n">
-        <v>15.99</v>
+        <v>16.35</v>
       </c>
       <c r="E121" t="n">
-        <v>15.48</v>
+        <v>15.97</v>
       </c>
       <c r="F121" t="n">
-        <v>99780.4106</v>
+        <v>176903.4046</v>
       </c>
       <c r="G121" t="n">
-        <v>69197.87330355721</v>
+        <v>1259044.862730587</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="K121" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>15.99</v>
+        <v>16.2</v>
       </c>
       <c r="C122" t="n">
-        <v>15.99</v>
+        <v>16.11</v>
       </c>
       <c r="D122" t="n">
-        <v>15.99</v>
+        <v>16.2</v>
       </c>
       <c r="E122" t="n">
-        <v>15.99</v>
+        <v>16.11</v>
       </c>
       <c r="F122" t="n">
-        <v>87.77800000000001</v>
+        <v>19341.0434</v>
       </c>
       <c r="G122" t="n">
-        <v>69197.87330355721</v>
+        <v>1278385.906130587</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="K122" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.99</v>
+        <v>15.77</v>
       </c>
       <c r="C123" t="n">
-        <v>16.9</v>
+        <v>16.18</v>
       </c>
       <c r="D123" t="n">
-        <v>16.9</v>
+        <v>16.18</v>
       </c>
       <c r="E123" t="n">
-        <v>15.99</v>
+        <v>15.77</v>
       </c>
       <c r="F123" t="n">
-        <v>80829.4951</v>
+        <v>55901.0256</v>
       </c>
       <c r="G123" t="n">
-        <v>150027.3684035572</v>
+        <v>1334286.931730587</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5608,39 +5478,34 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="C124" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="D124" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="E124" t="n">
         <v>16</v>
       </c>
-      <c r="C124" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="D124" t="n">
-        <v>16.81</v>
-      </c>
-      <c r="E124" t="n">
-        <v>15.99</v>
-      </c>
       <c r="F124" t="n">
-        <v>236000.4531</v>
+        <v>89652.99739999999</v>
       </c>
       <c r="G124" t="n">
-        <v>-85973.08469644279</v>
+        <v>1244633.934330587</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5649,39 +5514,34 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>16.8</v>
+        <v>15.9</v>
       </c>
       <c r="C125" t="n">
-        <v>16.82</v>
+        <v>16</v>
       </c>
       <c r="D125" t="n">
-        <v>16.82</v>
+        <v>16.68</v>
       </c>
       <c r="E125" t="n">
-        <v>16.8</v>
+        <v>15.9</v>
       </c>
       <c r="F125" t="n">
-        <v>216113.5291</v>
+        <v>38527.757</v>
       </c>
       <c r="G125" t="n">
-        <v>130140.4444035572</v>
+        <v>1206106.177330587</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5690,39 +5550,34 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>16.82</v>
+        <v>16.01</v>
       </c>
       <c r="C126" t="n">
-        <v>16.83</v>
+        <v>15.9</v>
       </c>
       <c r="D126" t="n">
-        <v>16.83</v>
+        <v>16.01</v>
       </c>
       <c r="E126" t="n">
-        <v>16.82</v>
+        <v>15.9</v>
       </c>
       <c r="F126" t="n">
-        <v>96370.7071</v>
+        <v>62688.7996</v>
       </c>
       <c r="G126" t="n">
-        <v>226511.1515035572</v>
+        <v>1143417.377730587</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5731,39 +5586,34 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>16.9</v>
+        <v>16.01</v>
       </c>
       <c r="C127" t="n">
-        <v>16.83</v>
+        <v>15.89</v>
       </c>
       <c r="D127" t="n">
-        <v>16.9</v>
+        <v>16.01</v>
       </c>
       <c r="E127" t="n">
-        <v>16.83</v>
+        <v>15.89</v>
       </c>
       <c r="F127" t="n">
-        <v>91137.8622</v>
+        <v>112389.6981</v>
       </c>
       <c r="G127" t="n">
-        <v>226511.1515035572</v>
+        <v>1031027.679630587</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5772,39 +5622,34 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>16.83</v>
+        <v>15.79</v>
       </c>
       <c r="C128" t="n">
-        <v>16.83</v>
+        <v>15.8</v>
       </c>
       <c r="D128" t="n">
-        <v>16.92</v>
+        <v>15.8</v>
       </c>
       <c r="E128" t="n">
-        <v>16.83</v>
+        <v>15.79</v>
       </c>
       <c r="F128" t="n">
-        <v>63453.8758</v>
+        <v>25278.0926</v>
       </c>
       <c r="G128" t="n">
-        <v>226511.1515035572</v>
+        <v>1005749.587030587</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5813,39 +5658,34 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>16.82</v>
+        <v>15.5</v>
       </c>
       <c r="C129" t="n">
-        <v>16.82</v>
+        <v>15.35</v>
       </c>
       <c r="D129" t="n">
-        <v>16.82</v>
+        <v>15.5</v>
       </c>
       <c r="E129" t="n">
-        <v>16.82</v>
+        <v>15.35</v>
       </c>
       <c r="F129" t="n">
-        <v>5932.3743</v>
+        <v>368924.4041</v>
       </c>
       <c r="G129" t="n">
-        <v>220578.7772035572</v>
+        <v>636825.1829305869</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5854,39 +5694,34 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>16.82</v>
+        <v>15.19</v>
       </c>
       <c r="C130" t="n">
-        <v>16.92</v>
+        <v>15.99</v>
       </c>
       <c r="D130" t="n">
-        <v>16.92</v>
+        <v>15.99</v>
       </c>
       <c r="E130" t="n">
-        <v>16.82</v>
+        <v>15.19</v>
       </c>
       <c r="F130" t="n">
-        <v>60405.8412</v>
+        <v>232761.7548</v>
       </c>
       <c r="G130" t="n">
-        <v>280984.6184035572</v>
+        <v>869586.9377305869</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5895,39 +5730,34 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>16.92</v>
+        <v>15.7</v>
       </c>
       <c r="C131" t="n">
-        <v>16.98</v>
+        <v>15.8</v>
       </c>
       <c r="D131" t="n">
-        <v>16.98</v>
+        <v>15.8</v>
       </c>
       <c r="E131" t="n">
-        <v>16.92</v>
+        <v>15.7</v>
       </c>
       <c r="F131" t="n">
-        <v>36145.4542</v>
+        <v>66618.2969</v>
       </c>
       <c r="G131" t="n">
-        <v>317130.0726035572</v>
+        <v>802968.6408305869</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5936,39 +5766,34 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>16.95</v>
+        <v>15.8</v>
       </c>
       <c r="C132" t="n">
-        <v>16.95</v>
+        <v>15.69</v>
       </c>
       <c r="D132" t="n">
-        <v>16.95</v>
+        <v>15.8</v>
       </c>
       <c r="E132" t="n">
-        <v>16.95</v>
+        <v>15.6</v>
       </c>
       <c r="F132" t="n">
-        <v>18190.066</v>
+        <v>9995.953862025317</v>
       </c>
       <c r="G132" t="n">
-        <v>298940.0066035572</v>
+        <v>792972.6869685616</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5977,39 +5802,34 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>16.95</v>
+        <v>15.52</v>
       </c>
       <c r="C133" t="n">
-        <v>17.3</v>
+        <v>15.6</v>
       </c>
       <c r="D133" t="n">
-        <v>17.3</v>
+        <v>15.6</v>
       </c>
       <c r="E133" t="n">
-        <v>16.95</v>
+        <v>15.51</v>
       </c>
       <c r="F133" t="n">
-        <v>240464.3477</v>
+        <v>109715.3552</v>
       </c>
       <c r="G133" t="n">
-        <v>539404.3543035572</v>
+        <v>683257.3317685616</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -6018,39 +5838,34 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>17.3</v>
+        <v>15.51</v>
       </c>
       <c r="C134" t="n">
-        <v>18</v>
+        <v>15.51</v>
       </c>
       <c r="D134" t="n">
-        <v>18</v>
+        <v>15.6</v>
       </c>
       <c r="E134" t="n">
-        <v>17.3</v>
+        <v>15.5</v>
       </c>
       <c r="F134" t="n">
-        <v>603559.9708</v>
+        <v>109462.9423</v>
       </c>
       <c r="G134" t="n">
-        <v>1142964.325103557</v>
+        <v>573794.3894685616</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -6059,39 +5874,34 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>17.9</v>
+        <v>15.51</v>
       </c>
       <c r="C135" t="n">
-        <v>18.26</v>
+        <v>14.93</v>
       </c>
       <c r="D135" t="n">
-        <v>18.26</v>
+        <v>15.51</v>
       </c>
       <c r="E135" t="n">
-        <v>17.9</v>
+        <v>14.93</v>
       </c>
       <c r="F135" t="n">
-        <v>388828.3674826944</v>
+        <v>51463.7229</v>
       </c>
       <c r="G135" t="n">
-        <v>1531792.692586252</v>
+        <v>522330.6665685616</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -6100,39 +5910,34 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>18.26</v>
+        <v>15.2</v>
       </c>
       <c r="C136" t="n">
-        <v>18.6</v>
+        <v>15.6</v>
       </c>
       <c r="D136" t="n">
-        <v>18.8</v>
+        <v>15.6</v>
       </c>
       <c r="E136" t="n">
-        <v>18.05</v>
+        <v>15.11</v>
       </c>
       <c r="F136" t="n">
-        <v>833624.8976173056</v>
+        <v>326482.1645</v>
       </c>
       <c r="G136" t="n">
-        <v>2365417.590203557</v>
+        <v>848812.8310685616</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -6141,39 +5946,34 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>18.6</v>
+        <v>15.56</v>
       </c>
       <c r="C137" t="n">
-        <v>18.4</v>
+        <v>15.31</v>
       </c>
       <c r="D137" t="n">
-        <v>18.7</v>
+        <v>15.56</v>
       </c>
       <c r="E137" t="n">
-        <v>18.39</v>
+        <v>15.31</v>
       </c>
       <c r="F137" t="n">
-        <v>264061.2491</v>
+        <v>71370.3976</v>
       </c>
       <c r="G137" t="n">
-        <v>2101356.341103557</v>
+        <v>777442.4334685616</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -6182,39 +5982,34 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>18.4</v>
+        <v>15.15</v>
       </c>
       <c r="C138" t="n">
-        <v>19.25</v>
+        <v>15.16</v>
       </c>
       <c r="D138" t="n">
-        <v>19.25</v>
+        <v>15.16</v>
       </c>
       <c r="E138" t="n">
-        <v>18.4</v>
+        <v>15.14</v>
       </c>
       <c r="F138" t="n">
-        <v>209737.3774</v>
+        <v>376532.8567</v>
       </c>
       <c r="G138" t="n">
-        <v>2311093.718503557</v>
+        <v>400909.5767685616</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -6223,39 +6018,34 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>19.25</v>
+        <v>15.39</v>
       </c>
       <c r="C139" t="n">
-        <v>19.4</v>
+        <v>15.39</v>
       </c>
       <c r="D139" t="n">
-        <v>19.55</v>
+        <v>15.39</v>
       </c>
       <c r="E139" t="n">
-        <v>18.8</v>
+        <v>15.39</v>
       </c>
       <c r="F139" t="n">
-        <v>607101.0624000001</v>
+        <v>168622.6201</v>
       </c>
       <c r="G139" t="n">
-        <v>2918194.780903557</v>
+        <v>569532.1968685617</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6264,39 +6054,34 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>19.4</v>
+        <v>15.51</v>
       </c>
       <c r="C140" t="n">
-        <v>20.49</v>
+        <v>15.69</v>
       </c>
       <c r="D140" t="n">
-        <v>21</v>
+        <v>15.69</v>
       </c>
       <c r="E140" t="n">
-        <v>19.4</v>
+        <v>15.5</v>
       </c>
       <c r="F140" t="n">
-        <v>1407281.062688143</v>
+        <v>28637.9371</v>
       </c>
       <c r="G140" t="n">
-        <v>4325475.8435917</v>
+        <v>598170.1339685617</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6305,86 +6090,76 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>20.49</v>
+        <v>15.5</v>
       </c>
       <c r="C141" t="n">
-        <v>20.1</v>
+        <v>15.4</v>
       </c>
       <c r="D141" t="n">
-        <v>20.49</v>
+        <v>15.5</v>
       </c>
       <c r="E141" t="n">
-        <v>19.05</v>
+        <v>15.4</v>
       </c>
       <c r="F141" t="n">
-        <v>233407.235</v>
+        <v>55421.3455</v>
       </c>
       <c r="G141" t="n">
-        <v>4092068.6085917</v>
+        <v>542748.7884685616</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>1.506278195488722</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>20.1</v>
+        <v>15.49</v>
       </c>
       <c r="C142" t="n">
-        <v>19.26</v>
+        <v>15.46</v>
       </c>
       <c r="D142" t="n">
-        <v>20.1</v>
+        <v>15.49</v>
       </c>
       <c r="E142" t="n">
-        <v>19.26</v>
+        <v>15.3</v>
       </c>
       <c r="F142" t="n">
-        <v>180493.293638806</v>
+        <v>84401.11500000001</v>
       </c>
       <c r="G142" t="n">
-        <v>3911575.314952895</v>
+        <v>627149.9034685616</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -6392,34 +6167,35 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>19.27</v>
+        <v>15.46</v>
       </c>
       <c r="C143" t="n">
-        <v>18.39</v>
+        <v>15.8</v>
       </c>
       <c r="D143" t="n">
-        <v>19.27</v>
+        <v>15.8</v>
       </c>
       <c r="E143" t="n">
-        <v>18.29</v>
+        <v>15.46</v>
       </c>
       <c r="F143" t="n">
-        <v>1450822.6371</v>
+        <v>138208.356</v>
       </c>
       <c r="G143" t="n">
-        <v>2460752.677852895</v>
+        <v>765358.2594685616</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -6427,34 +6203,35 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>18.89</v>
+        <v>15.6</v>
       </c>
       <c r="C144" t="n">
-        <v>18.85</v>
+        <v>15.46</v>
       </c>
       <c r="D144" t="n">
-        <v>18.89</v>
+        <v>15.6</v>
       </c>
       <c r="E144" t="n">
-        <v>18.85</v>
+        <v>15.46</v>
       </c>
       <c r="F144" t="n">
-        <v>37941.87847769169</v>
+        <v>22405.8672</v>
       </c>
       <c r="G144" t="n">
-        <v>2498694.556330586</v>
+        <v>742952.3922685616</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -6462,34 +6239,35 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>18.6</v>
+        <v>15.46</v>
       </c>
       <c r="C145" t="n">
-        <v>18.47</v>
+        <v>15.7</v>
       </c>
       <c r="D145" t="n">
-        <v>18.83</v>
+        <v>15.7</v>
       </c>
       <c r="E145" t="n">
-        <v>18</v>
+        <v>15.46</v>
       </c>
       <c r="F145" t="n">
-        <v>415352.2361</v>
+        <v>69138.6517</v>
       </c>
       <c r="G145" t="n">
-        <v>2083342.320230586</v>
+        <v>812091.0439685617</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -6497,28 +6275,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>18.46</v>
+        <v>15.77</v>
       </c>
       <c r="C146" t="n">
-        <v>18.46</v>
+        <v>15.77</v>
       </c>
       <c r="D146" t="n">
-        <v>18.46</v>
+        <v>15.77</v>
       </c>
       <c r="E146" t="n">
-        <v>18.46</v>
+        <v>15.77</v>
       </c>
       <c r="F146" t="n">
-        <v>10736.915</v>
+        <v>108</v>
       </c>
       <c r="G146" t="n">
-        <v>2072605.405230586</v>
+        <v>812199.0439685617</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6532,28 +6311,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>18.29</v>
+        <v>15.75</v>
       </c>
       <c r="C147" t="n">
-        <v>18</v>
+        <v>15.75</v>
       </c>
       <c r="D147" t="n">
-        <v>18.29</v>
+        <v>15.75</v>
       </c>
       <c r="E147" t="n">
-        <v>18</v>
+        <v>15.75</v>
       </c>
       <c r="F147" t="n">
-        <v>84429.4666</v>
+        <v>6060.3345</v>
       </c>
       <c r="G147" t="n">
-        <v>1988175.938630586</v>
+        <v>806138.7094685617</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6567,28 +6347,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>18</v>
+        <v>15.31</v>
       </c>
       <c r="C148" t="n">
-        <v>17.42</v>
+        <v>15.31</v>
       </c>
       <c r="D148" t="n">
-        <v>18</v>
+        <v>15.31</v>
       </c>
       <c r="E148" t="n">
-        <v>17.41</v>
+        <v>15.31</v>
       </c>
       <c r="F148" t="n">
-        <v>140246.731</v>
+        <v>5126.3128</v>
       </c>
       <c r="G148" t="n">
-        <v>1847929.207630587</v>
+        <v>801012.3966685617</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6602,28 +6383,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>18</v>
+        <v>15.4</v>
       </c>
       <c r="C149" t="n">
-        <v>18.3</v>
+        <v>15.4</v>
       </c>
       <c r="D149" t="n">
-        <v>18.3</v>
+        <v>15.4</v>
       </c>
       <c r="E149" t="n">
-        <v>17.6</v>
+        <v>15.4</v>
       </c>
       <c r="F149" t="n">
-        <v>17763.7796</v>
+        <v>2998.3245</v>
       </c>
       <c r="G149" t="n">
-        <v>1865692.987230587</v>
+        <v>804010.7211685617</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6637,28 +6419,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>17.64</v>
+        <v>15.31</v>
       </c>
       <c r="C150" t="n">
-        <v>17.35</v>
+        <v>15.3</v>
       </c>
       <c r="D150" t="n">
-        <v>17.64</v>
+        <v>15.4</v>
       </c>
       <c r="E150" t="n">
-        <v>17.35</v>
+        <v>15.3</v>
       </c>
       <c r="F150" t="n">
-        <v>89612.9063</v>
+        <v>33993.0619</v>
       </c>
       <c r="G150" t="n">
-        <v>1776080.080930587</v>
+        <v>770017.6592685618</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6672,28 +6455,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>17.35</v>
+        <v>15.3</v>
       </c>
       <c r="C151" t="n">
-        <v>16.71</v>
+        <v>15.3</v>
       </c>
       <c r="D151" t="n">
-        <v>17.5</v>
+        <v>15.3</v>
       </c>
       <c r="E151" t="n">
-        <v>16.71</v>
+        <v>15.3</v>
       </c>
       <c r="F151" t="n">
-        <v>221242.4338</v>
+        <v>20114.9577</v>
       </c>
       <c r="G151" t="n">
-        <v>1554837.647130587</v>
+        <v>770017.6592685618</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6707,28 +6491,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>17.2</v>
+        <v>15.3</v>
       </c>
       <c r="C152" t="n">
-        <v>17.3</v>
+        <v>15.23</v>
       </c>
       <c r="D152" t="n">
-        <v>17.3</v>
+        <v>15.4</v>
       </c>
       <c r="E152" t="n">
-        <v>17.2</v>
+        <v>15.23</v>
       </c>
       <c r="F152" t="n">
-        <v>12044.5028</v>
+        <v>177364.7921</v>
       </c>
       <c r="G152" t="n">
-        <v>1566882.149930587</v>
+        <v>592652.8671685618</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6742,28 +6527,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>17.6</v>
+        <v>15.24</v>
       </c>
       <c r="C153" t="n">
-        <v>17.4</v>
+        <v>15.24</v>
       </c>
       <c r="D153" t="n">
-        <v>17.8</v>
+        <v>15.24</v>
       </c>
       <c r="E153" t="n">
-        <v>17.4</v>
+        <v>15.24</v>
       </c>
       <c r="F153" t="n">
-        <v>77713.05190000001</v>
+        <v>4439.9536</v>
       </c>
       <c r="G153" t="n">
-        <v>1644595.201830587</v>
+        <v>597092.8207685618</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6777,28 +6563,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>17.6</v>
+        <v>15.24</v>
       </c>
       <c r="C154" t="n">
-        <v>17.31</v>
+        <v>15.23</v>
       </c>
       <c r="D154" t="n">
-        <v>17.7</v>
+        <v>15.24</v>
       </c>
       <c r="E154" t="n">
-        <v>17.26</v>
+        <v>15.23</v>
       </c>
       <c r="F154" t="n">
-        <v>79705.9566</v>
+        <v>32019.3859</v>
       </c>
       <c r="G154" t="n">
-        <v>1564889.245230587</v>
+        <v>565073.4348685618</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6812,28 +6599,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>17.31</v>
+        <v>15.08</v>
       </c>
       <c r="C155" t="n">
-        <v>17.4</v>
+        <v>15.01</v>
       </c>
       <c r="D155" t="n">
-        <v>17.49</v>
+        <v>15.08</v>
       </c>
       <c r="E155" t="n">
-        <v>17.3</v>
+        <v>15.01</v>
       </c>
       <c r="F155" t="n">
-        <v>195629.6346</v>
+        <v>243017.2588</v>
       </c>
       <c r="G155" t="n">
-        <v>1760518.879830587</v>
+        <v>322056.1760685618</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6847,28 +6635,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>17.4</v>
+        <v>15.03</v>
       </c>
       <c r="C156" t="n">
-        <v>17.4</v>
+        <v>15.1</v>
       </c>
       <c r="D156" t="n">
-        <v>17.4</v>
+        <v>15.1</v>
       </c>
       <c r="E156" t="n">
-        <v>17.3</v>
+        <v>15.02</v>
       </c>
       <c r="F156" t="n">
-        <v>129449.6134</v>
+        <v>69105.1367</v>
       </c>
       <c r="G156" t="n">
-        <v>1760518.879830587</v>
+        <v>391161.3127685618</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6882,28 +6671,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>17.23</v>
+        <v>15.03</v>
       </c>
       <c r="C157" t="n">
-        <v>17.4</v>
+        <v>15.03</v>
       </c>
       <c r="D157" t="n">
-        <v>17.4</v>
+        <v>15.03</v>
       </c>
       <c r="E157" t="n">
-        <v>17.23</v>
+        <v>15.03</v>
       </c>
       <c r="F157" t="n">
-        <v>14091.21111839081</v>
+        <v>6005.7272</v>
       </c>
       <c r="G157" t="n">
-        <v>1760518.879830587</v>
+        <v>385155.5855685617</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6917,28 +6707,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>17.4</v>
+        <v>15.1</v>
       </c>
       <c r="C158" t="n">
-        <v>17.4</v>
+        <v>15.19</v>
       </c>
       <c r="D158" t="n">
-        <v>17.4</v>
+        <v>15.19</v>
       </c>
       <c r="E158" t="n">
-        <v>17.4</v>
+        <v>15.1</v>
       </c>
       <c r="F158" t="n">
-        <v>190.9772</v>
+        <v>117605.129</v>
       </c>
       <c r="G158" t="n">
-        <v>1760518.879830587</v>
+        <v>502760.7145685618</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6952,28 +6743,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>17.22</v>
+        <v>15.33</v>
       </c>
       <c r="C159" t="n">
-        <v>17.25</v>
+        <v>15.33</v>
       </c>
       <c r="D159" t="n">
-        <v>17.25</v>
+        <v>15.33</v>
       </c>
       <c r="E159" t="n">
-        <v>17.22</v>
+        <v>15.33</v>
       </c>
       <c r="F159" t="n">
-        <v>70342.9997</v>
+        <v>33</v>
       </c>
       <c r="G159" t="n">
-        <v>1690175.880130587</v>
+        <v>502793.7145685618</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6987,28 +6779,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>17.22</v>
+        <v>15.33</v>
       </c>
       <c r="C160" t="n">
-        <v>16.54</v>
+        <v>15.33</v>
       </c>
       <c r="D160" t="n">
-        <v>17.25</v>
+        <v>15.4</v>
       </c>
       <c r="E160" t="n">
-        <v>16.54</v>
+        <v>15.33</v>
       </c>
       <c r="F160" t="n">
-        <v>141962.7001</v>
+        <v>51463.9726</v>
       </c>
       <c r="G160" t="n">
-        <v>1548213.180030587</v>
+        <v>502793.7145685618</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -7022,28 +6815,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>16.6</v>
+        <v>15.49</v>
       </c>
       <c r="C161" t="n">
-        <v>16.6</v>
+        <v>15.29</v>
       </c>
       <c r="D161" t="n">
-        <v>16.6</v>
+        <v>15.49</v>
       </c>
       <c r="E161" t="n">
-        <v>16.6</v>
+        <v>15.14</v>
       </c>
       <c r="F161" t="n">
-        <v>23178.0983</v>
+        <v>38460.8249</v>
       </c>
       <c r="G161" t="n">
-        <v>1571391.278330587</v>
+        <v>464332.8896685618</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -7057,1586 +6851,7 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="C162" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="D162" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="E162" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="F162" t="n">
-        <v>135443.011</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1435948.267330587</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="C163" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="D163" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="E163" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="F163" t="n">
-        <v>176903.4046</v>
-      </c>
-      <c r="G163" t="n">
-        <v>1259044.862730587</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C164" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="D164" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E164" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="F164" t="n">
-        <v>19341.0434</v>
-      </c>
-      <c r="G164" t="n">
-        <v>1278385.906130587</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="C165" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="D165" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="E165" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="F165" t="n">
-        <v>55901.0256</v>
-      </c>
-      <c r="G165" t="n">
-        <v>1334286.931730587</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="C166" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="D166" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="E166" t="n">
-        <v>16</v>
-      </c>
-      <c r="F166" t="n">
-        <v>89652.99739999999</v>
-      </c>
-      <c r="G166" t="n">
-        <v>1244633.934330587</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="C167" t="n">
-        <v>16</v>
-      </c>
-      <c r="D167" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="E167" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="F167" t="n">
-        <v>38527.757</v>
-      </c>
-      <c r="G167" t="n">
-        <v>1206106.177330587</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="C168" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="D168" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="E168" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="F168" t="n">
-        <v>62688.7996</v>
-      </c>
-      <c r="G168" t="n">
-        <v>1143417.377730587</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="C169" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="D169" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="E169" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="F169" t="n">
-        <v>112389.6981</v>
-      </c>
-      <c r="G169" t="n">
-        <v>1031027.679630587</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="C170" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D170" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E170" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="F170" t="n">
-        <v>25278.0926</v>
-      </c>
-      <c r="G170" t="n">
-        <v>1005749.587030587</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C171" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="D171" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E171" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="F171" t="n">
-        <v>368924.4041</v>
-      </c>
-      <c r="G171" t="n">
-        <v>636825.1829305869</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="C172" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="D172" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="E172" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="F172" t="n">
-        <v>232761.7548</v>
-      </c>
-      <c r="G172" t="n">
-        <v>869586.9377305869</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C173" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D173" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E173" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F173" t="n">
-        <v>66618.2969</v>
-      </c>
-      <c r="G173" t="n">
-        <v>802968.6408305869</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C174" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="D174" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E174" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F174" t="n">
-        <v>9995.953862025317</v>
-      </c>
-      <c r="G174" t="n">
-        <v>792972.6869685616</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>15.52</v>
-      </c>
-      <c r="C175" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D175" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E175" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="F175" t="n">
-        <v>109715.3552</v>
-      </c>
-      <c r="G175" t="n">
-        <v>683257.3317685616</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="C176" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="D176" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E176" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F176" t="n">
-        <v>109462.9423</v>
-      </c>
-      <c r="G176" t="n">
-        <v>573794.3894685616</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="C177" t="n">
-        <v>14.93</v>
-      </c>
-      <c r="D177" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="E177" t="n">
-        <v>14.93</v>
-      </c>
-      <c r="F177" t="n">
-        <v>51463.7229</v>
-      </c>
-      <c r="G177" t="n">
-        <v>522330.6665685616</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C178" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D178" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E178" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="F178" t="n">
-        <v>326482.1645</v>
-      </c>
-      <c r="G178" t="n">
-        <v>848812.8310685616</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="C179" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="D179" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="E179" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="F179" t="n">
-        <v>71370.3976</v>
-      </c>
-      <c r="G179" t="n">
-        <v>777442.4334685616</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="C180" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="D180" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="E180" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="F180" t="n">
-        <v>376532.8567</v>
-      </c>
-      <c r="G180" t="n">
-        <v>400909.5767685616</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="C181" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="D181" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="E181" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="F181" t="n">
-        <v>168622.6201</v>
-      </c>
-      <c r="G181" t="n">
-        <v>569532.1968685617</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="C182" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="D182" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="E182" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F182" t="n">
-        <v>28637.9371</v>
-      </c>
-      <c r="G182" t="n">
-        <v>598170.1339685617</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C183" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D183" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E183" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F183" t="n">
-        <v>55421.3455</v>
-      </c>
-      <c r="G183" t="n">
-        <v>542748.7884685616</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="C184" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="D184" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="E184" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F184" t="n">
-        <v>84401.11500000001</v>
-      </c>
-      <c r="G184" t="n">
-        <v>627149.9034685616</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="C185" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D185" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E185" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="F185" t="n">
-        <v>138208.356</v>
-      </c>
-      <c r="G185" t="n">
-        <v>765358.2594685616</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C186" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="D186" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E186" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="F186" t="n">
-        <v>22405.8672</v>
-      </c>
-      <c r="G186" t="n">
-        <v>742952.3922685616</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="C187" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D187" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E187" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="F187" t="n">
-        <v>69138.6517</v>
-      </c>
-      <c r="G187" t="n">
-        <v>812091.0439685617</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="C188" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="D188" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="E188" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="F188" t="n">
-        <v>108</v>
-      </c>
-      <c r="G188" t="n">
-        <v>812199.0439685617</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="C189" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="D189" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="E189" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="F189" t="n">
-        <v>6060.3345</v>
-      </c>
-      <c r="G189" t="n">
-        <v>806138.7094685617</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="C190" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="D190" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="E190" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="F190" t="n">
-        <v>5126.3128</v>
-      </c>
-      <c r="G190" t="n">
-        <v>801012.3966685617</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C191" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D191" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E191" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2998.3245</v>
-      </c>
-      <c r="G191" t="n">
-        <v>804010.7211685617</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="C192" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D192" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E192" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F192" t="n">
-        <v>33993.0619</v>
-      </c>
-      <c r="G192" t="n">
-        <v>770017.6592685618</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C193" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D193" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E193" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F193" t="n">
-        <v>20114.9577</v>
-      </c>
-      <c r="G193" t="n">
-        <v>770017.6592685618</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C194" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="D194" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E194" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="F194" t="n">
-        <v>177364.7921</v>
-      </c>
-      <c r="G194" t="n">
-        <v>592652.8671685618</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="C195" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="D195" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="E195" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="F195" t="n">
-        <v>4439.9536</v>
-      </c>
-      <c r="G195" t="n">
-        <v>597092.8207685618</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="C196" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="D196" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="E196" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="F196" t="n">
-        <v>32019.3859</v>
-      </c>
-      <c r="G196" t="n">
-        <v>565073.4348685618</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>15.08</v>
-      </c>
-      <c r="C197" t="n">
-        <v>15.01</v>
-      </c>
-      <c r="D197" t="n">
-        <v>15.08</v>
-      </c>
-      <c r="E197" t="n">
-        <v>15.01</v>
-      </c>
-      <c r="F197" t="n">
-        <v>243017.2588</v>
-      </c>
-      <c r="G197" t="n">
-        <v>322056.1760685618</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="C198" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D198" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E198" t="n">
-        <v>15.02</v>
-      </c>
-      <c r="F198" t="n">
-        <v>69105.1367</v>
-      </c>
-      <c r="G198" t="n">
-        <v>391161.3127685618</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>15.01</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="C199" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="D199" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="E199" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="F199" t="n">
-        <v>6005.7272</v>
-      </c>
-      <c r="G199" t="n">
-        <v>385155.5855685617</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C200" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="D200" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="E200" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F200" t="n">
-        <v>117605.129</v>
-      </c>
-      <c r="G200" t="n">
-        <v>502760.7145685618</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="C201" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="D201" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="E201" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="F201" t="n">
-        <v>33</v>
-      </c>
-      <c r="G201" t="n">
-        <v>502793.7145685618</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="C202" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="D202" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E202" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="F202" t="n">
-        <v>51463.9726</v>
-      </c>
-      <c r="G202" t="n">
-        <v>502793.7145685618</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="C203" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="D203" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="E203" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="F203" t="n">
-        <v>38460.8249</v>
-      </c>
-      <c r="G203" t="n">
-        <v>464332.8896685618</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
+      <c r="N161" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest FAB.xlsx
+++ b/BackTest/2020-01-16 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N161"/>
+  <dimension ref="A1:N232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14.28</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>14.28</v>
+        <v>12.45</v>
       </c>
       <c r="D2" t="n">
-        <v>14.28</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>14.28</v>
+        <v>12.45</v>
       </c>
       <c r="F2" t="n">
-        <v>309.225</v>
+        <v>91916.9774</v>
       </c>
       <c r="G2" t="n">
-        <v>-287366.0446868444</v>
+        <v>-464975.5025190786</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.2</v>
+        <v>12.94</v>
       </c>
       <c r="C3" t="n">
-        <v>14.2</v>
+        <v>12.11</v>
       </c>
       <c r="D3" t="n">
-        <v>14.2</v>
+        <v>12.94</v>
       </c>
       <c r="E3" t="n">
-        <v>14.2</v>
+        <v>12.11</v>
       </c>
       <c r="F3" t="n">
-        <v>28417.9496</v>
+        <v>138800.0055</v>
       </c>
       <c r="G3" t="n">
-        <v>-315783.9942868444</v>
+        <v>-603775.5080190785</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,12 +498,14 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="K3" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>12.45</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -514,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.29</v>
+        <v>12.3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.29</v>
+        <v>12.11</v>
       </c>
       <c r="D4" t="n">
-        <v>14.29</v>
+        <v>12.3</v>
       </c>
       <c r="E4" t="n">
-        <v>14.29</v>
+        <v>12.11</v>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>25327.4274</v>
       </c>
       <c r="G4" t="n">
-        <v>-305783.9942868444</v>
+        <v>-603775.5080190785</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -538,14 +540,12 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14.28</v>
-      </c>
+        <v>12.11</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.29</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>14.29</v>
+        <v>11.23</v>
       </c>
       <c r="D5" t="n">
-        <v>14.29</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>14.29</v>
+        <v>11.23</v>
       </c>
       <c r="F5" t="n">
-        <v>44311.3873</v>
+        <v>261092.6871</v>
       </c>
       <c r="G5" t="n">
-        <v>-305783.9942868444</v>
+        <v>-864868.1951190785</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -582,14 +582,12 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="K5" t="n">
-        <v>14.28</v>
-      </c>
+        <v>12.11</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -602,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.29</v>
+        <v>12.19</v>
       </c>
       <c r="C6" t="n">
-        <v>14.35</v>
+        <v>12.19</v>
       </c>
       <c r="D6" t="n">
-        <v>14.35</v>
+        <v>12.19</v>
       </c>
       <c r="E6" t="n">
-        <v>14.29</v>
+        <v>12.19</v>
       </c>
       <c r="F6" t="n">
-        <v>89340.4163</v>
+        <v>896.3619</v>
       </c>
       <c r="G6" t="n">
-        <v>-216443.5779868444</v>
+        <v>-863971.8332190785</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -626,14 +624,12 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="K6" t="n">
-        <v>14.28</v>
-      </c>
+        <v>11.23</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -646,22 +642,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.39</v>
+        <v>12.2</v>
       </c>
       <c r="C7" t="n">
-        <v>14.5</v>
+        <v>12.2</v>
       </c>
       <c r="D7" t="n">
-        <v>14.5</v>
+        <v>12.2</v>
       </c>
       <c r="E7" t="n">
-        <v>14.39</v>
+        <v>12.2</v>
       </c>
       <c r="F7" t="n">
-        <v>1242</v>
+        <v>5312.2817</v>
       </c>
       <c r="G7" t="n">
-        <v>-215201.5779868444</v>
+        <v>-858659.5515190784</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -670,11 +666,9 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="K7" t="n">
-        <v>14.28</v>
-      </c>
+        <v>12.19</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -690,22 +684,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.5</v>
+        <v>12.29</v>
       </c>
       <c r="C8" t="n">
-        <v>14.5</v>
+        <v>12.29</v>
       </c>
       <c r="D8" t="n">
-        <v>14.5</v>
+        <v>12.29</v>
       </c>
       <c r="E8" t="n">
-        <v>14.5</v>
+        <v>12.29</v>
       </c>
       <c r="F8" t="n">
-        <v>46883.2484</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>-215201.5779868444</v>
+        <v>-858559.5515190784</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -714,11 +708,9 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>14.28</v>
-      </c>
+        <v>12.2</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -734,22 +726,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.45</v>
+        <v>12.21</v>
       </c>
       <c r="C9" t="n">
-        <v>14.45</v>
+        <v>12.29</v>
       </c>
       <c r="D9" t="n">
-        <v>14.45</v>
+        <v>12.29</v>
       </c>
       <c r="E9" t="n">
-        <v>14.45</v>
+        <v>12.21</v>
       </c>
       <c r="F9" t="n">
-        <v>18934.4203</v>
+        <v>6457.4337</v>
       </c>
       <c r="G9" t="n">
-        <v>-234135.9982868444</v>
+        <v>-858559.5515190784</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -758,11 +750,9 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>14.28</v>
-      </c>
+        <v>12.29</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -778,22 +768,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.5</v>
+        <v>12.29</v>
       </c>
       <c r="C10" t="n">
-        <v>14.5</v>
+        <v>12.3</v>
       </c>
       <c r="D10" t="n">
-        <v>14.5</v>
+        <v>12.3</v>
       </c>
       <c r="E10" t="n">
-        <v>14.5</v>
+        <v>12.29</v>
       </c>
       <c r="F10" t="n">
-        <v>800.2320999999999</v>
+        <v>59013.5808</v>
       </c>
       <c r="G10" t="n">
-        <v>-233335.7661868444</v>
+        <v>-799545.9707190784</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -802,11 +792,9 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="K10" t="n">
-        <v>14.28</v>
-      </c>
+        <v>12.29</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -822,22 +810,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.5</v>
+        <v>12.46</v>
       </c>
       <c r="C11" t="n">
-        <v>14.5</v>
+        <v>13.59</v>
       </c>
       <c r="D11" t="n">
-        <v>14.5</v>
+        <v>13.59</v>
       </c>
       <c r="E11" t="n">
-        <v>14.5</v>
+        <v>12.46</v>
       </c>
       <c r="F11" t="n">
-        <v>11725.2688</v>
+        <v>76289.37077821928</v>
       </c>
       <c r="G11" t="n">
-        <v>-233335.7661868444</v>
+        <v>-723256.5999408591</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -846,11 +834,9 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>14.28</v>
-      </c>
+        <v>12.3</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -866,22 +852,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.64</v>
+        <v>13.58</v>
       </c>
       <c r="C12" t="n">
-        <v>14.64</v>
+        <v>13.58</v>
       </c>
       <c r="D12" t="n">
-        <v>14.64</v>
+        <v>13.58</v>
       </c>
       <c r="E12" t="n">
-        <v>14.64</v>
+        <v>13.58</v>
       </c>
       <c r="F12" t="n">
-        <v>3542.9193</v>
+        <v>1472.754</v>
       </c>
       <c r="G12" t="n">
-        <v>-229792.8468868444</v>
+        <v>-724729.3539408591</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -890,11 +876,9 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>14.28</v>
-      </c>
+        <v>13.59</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -910,22 +894,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14.64</v>
+        <v>13.38</v>
       </c>
       <c r="C13" t="n">
-        <v>14.64</v>
+        <v>13.38</v>
       </c>
       <c r="D13" t="n">
-        <v>14.64</v>
+        <v>13.38</v>
       </c>
       <c r="E13" t="n">
-        <v>14.64</v>
+        <v>13.38</v>
       </c>
       <c r="F13" t="n">
-        <v>8201.142599999999</v>
+        <v>69027.91069999999</v>
       </c>
       <c r="G13" t="n">
-        <v>-229792.8468868444</v>
+        <v>-793757.2646408591</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -934,11 +918,9 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="K13" t="n">
-        <v>14.28</v>
-      </c>
+        <v>13.58</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -954,22 +936,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14.64</v>
+        <v>13.38</v>
       </c>
       <c r="C14" t="n">
-        <v>14.64</v>
+        <v>13.39</v>
       </c>
       <c r="D14" t="n">
-        <v>14.64</v>
+        <v>13.39</v>
       </c>
       <c r="E14" t="n">
-        <v>14.64</v>
+        <v>13.3</v>
       </c>
       <c r="F14" t="n">
-        <v>58881.5822</v>
+        <v>102601.0353</v>
       </c>
       <c r="G14" t="n">
-        <v>-229792.8468868444</v>
+        <v>-691156.2293408591</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -978,11 +960,9 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="K14" t="n">
-        <v>14.28</v>
-      </c>
+        <v>13.38</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -998,33 +978,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.3</v>
+        <v>13.64</v>
       </c>
       <c r="C15" t="n">
-        <v>14.03</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>14.03</v>
+        <v>13.64</v>
       </c>
       <c r="F15" t="n">
-        <v>58881.5822</v>
+        <v>187432.9787</v>
       </c>
       <c r="G15" t="n">
-        <v>-288674.4290868444</v>
+        <v>-503723.2506408591</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J15" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1040,35 +1020,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14.34</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>14.34</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>1122.5969</v>
+        <v>17892.449</v>
       </c>
       <c r="G16" t="n">
-        <v>-287551.8321868444</v>
+        <v>-503723.2506408591</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>14.03</v>
-      </c>
-      <c r="K16" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1084,35 +1060,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14.34</v>
+        <v>13.9</v>
       </c>
       <c r="C17" t="n">
-        <v>14.34</v>
+        <v>13.7</v>
       </c>
       <c r="D17" t="n">
-        <v>14.34</v>
+        <v>13.9</v>
       </c>
       <c r="E17" t="n">
-        <v>14.34</v>
+        <v>13.7</v>
       </c>
       <c r="F17" t="n">
-        <v>292.693</v>
+        <v>15547.6123</v>
       </c>
       <c r="G17" t="n">
-        <v>-287844.5251868444</v>
+        <v>-519270.8629408591</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1128,35 +1100,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="C18" t="n">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="D18" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="E18" t="n">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="F18" t="n">
-        <v>7908.4496</v>
+        <v>187943.3951</v>
       </c>
       <c r="G18" t="n">
-        <v>-295752.9747868444</v>
+        <v>-519270.8629408591</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="K18" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1172,35 +1140,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14.06</v>
+        <v>13.7</v>
       </c>
       <c r="C19" t="n">
-        <v>14.06</v>
+        <v>13.7</v>
       </c>
       <c r="D19" t="n">
-        <v>14.06</v>
+        <v>13.7</v>
       </c>
       <c r="E19" t="n">
-        <v>14.06</v>
+        <v>13.7</v>
       </c>
       <c r="F19" t="n">
-        <v>15186</v>
+        <v>26957.7083729927</v>
       </c>
       <c r="G19" t="n">
-        <v>-310938.9747868444</v>
+        <v>-519270.8629408591</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1216,35 +1180,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14.06</v>
+        <v>13.7</v>
       </c>
       <c r="C20" t="n">
-        <v>14.06</v>
+        <v>13.8</v>
       </c>
       <c r="D20" t="n">
-        <v>14.06</v>
+        <v>13.8</v>
       </c>
       <c r="E20" t="n">
-        <v>14.06</v>
+        <v>13.7</v>
       </c>
       <c r="F20" t="n">
-        <v>11725.2688</v>
+        <v>1582.9916</v>
       </c>
       <c r="G20" t="n">
-        <v>-310938.9747868444</v>
+        <v>-517687.8713408591</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="K20" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1260,35 +1220,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14.3</v>
+        <v>13.79</v>
       </c>
       <c r="C21" t="n">
-        <v>14.3</v>
+        <v>13.79</v>
       </c>
       <c r="D21" t="n">
-        <v>14.3</v>
+        <v>13.79</v>
       </c>
       <c r="E21" t="n">
-        <v>14.3</v>
+        <v>13.79</v>
       </c>
       <c r="F21" t="n">
-        <v>2029</v>
+        <v>1040.344</v>
       </c>
       <c r="G21" t="n">
-        <v>-308909.9747868444</v>
+        <v>-518728.2153408591</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="K21" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1304,35 +1260,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14.3</v>
+        <v>13.79</v>
       </c>
       <c r="C22" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="D22" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="E22" t="n">
-        <v>14.3</v>
+        <v>13.79</v>
       </c>
       <c r="F22" t="n">
-        <v>34106.7771</v>
+        <v>6144.021</v>
       </c>
       <c r="G22" t="n">
-        <v>-308909.9747868444</v>
+        <v>-512584.1943408591</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1348,35 +1300,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14.06</v>
+        <v>13.51</v>
       </c>
       <c r="C23" t="n">
-        <v>14.05</v>
+        <v>13.5</v>
       </c>
       <c r="D23" t="n">
-        <v>14.06</v>
+        <v>13.51</v>
       </c>
       <c r="E23" t="n">
-        <v>14.05</v>
+        <v>13.5</v>
       </c>
       <c r="F23" t="n">
-        <v>6259.2231</v>
+        <v>100000</v>
       </c>
       <c r="G23" t="n">
-        <v>-315169.1978868444</v>
+        <v>-612584.1943408591</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1392,35 +1340,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14.34</v>
+        <v>13.78</v>
       </c>
       <c r="C24" t="n">
-        <v>14.34</v>
+        <v>13.78</v>
       </c>
       <c r="D24" t="n">
-        <v>14.34</v>
+        <v>13.78</v>
       </c>
       <c r="E24" t="n">
-        <v>14.34</v>
+        <v>13.78</v>
       </c>
       <c r="F24" t="n">
-        <v>77</v>
+        <v>3628.4471</v>
       </c>
       <c r="G24" t="n">
-        <v>-315092.1978868444</v>
+        <v>-608955.7472408591</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="K24" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1436,35 +1380,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14.05</v>
+        <v>13.5</v>
       </c>
       <c r="C25" t="n">
-        <v>14.05</v>
+        <v>13.78</v>
       </c>
       <c r="D25" t="n">
-        <v>14.05</v>
+        <v>13.78</v>
       </c>
       <c r="E25" t="n">
-        <v>14.05</v>
+        <v>13.5</v>
       </c>
       <c r="F25" t="n">
-        <v>559.9739</v>
+        <v>52283.088</v>
       </c>
       <c r="G25" t="n">
-        <v>-315652.1717868444</v>
+        <v>-608955.7472408591</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="K25" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1480,35 +1420,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>14.03</v>
+        <v>13.78</v>
       </c>
       <c r="C26" t="n">
-        <v>14.03</v>
+        <v>13.79</v>
       </c>
       <c r="D26" t="n">
-        <v>14.03</v>
+        <v>13.79</v>
       </c>
       <c r="E26" t="n">
-        <v>14.03</v>
+        <v>13.78</v>
       </c>
       <c r="F26" t="n">
-        <v>97</v>
+        <v>135658.677</v>
       </c>
       <c r="G26" t="n">
-        <v>-315749.1717868444</v>
+        <v>-473297.0702408591</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="K26" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1524,35 +1460,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14.05</v>
+        <v>13.79</v>
       </c>
       <c r="C27" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="D27" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="E27" t="n">
-        <v>14.05</v>
+        <v>13.79</v>
       </c>
       <c r="F27" t="n">
-        <v>5775</v>
+        <v>29669.7980270073</v>
       </c>
       <c r="G27" t="n">
-        <v>-309974.1717868444</v>
+        <v>-443627.2722138517</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>14.03</v>
-      </c>
-      <c r="K27" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1568,35 +1500,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14.05</v>
+        <v>14</v>
       </c>
       <c r="C28" t="n">
-        <v>14.05</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>14.05</v>
+        <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>14.05</v>
+        <v>14</v>
       </c>
       <c r="F28" t="n">
-        <v>77.56</v>
+        <v>13211.9336</v>
       </c>
       <c r="G28" t="n">
-        <v>-310051.7317868444</v>
+        <v>-430415.3386138518</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1612,35 +1540,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>14.05</v>
+        <v>14.08</v>
       </c>
       <c r="C29" t="n">
-        <v>14.05</v>
+        <v>14.08</v>
       </c>
       <c r="D29" t="n">
-        <v>14.05</v>
+        <v>14.08</v>
       </c>
       <c r="E29" t="n">
-        <v>14.05</v>
+        <v>14.08</v>
       </c>
       <c r="F29" t="n">
-        <v>6630.9656</v>
+        <v>480.1391</v>
       </c>
       <c r="G29" t="n">
-        <v>-310051.7317868444</v>
+        <v>-429935.1995138518</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="K29" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1656,35 +1580,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>14.2</v>
+        <v>13.83</v>
       </c>
       <c r="C30" t="n">
-        <v>14.3</v>
+        <v>13.83</v>
       </c>
       <c r="D30" t="n">
-        <v>14.3</v>
+        <v>13.83</v>
       </c>
       <c r="E30" t="n">
-        <v>14.2</v>
+        <v>13.83</v>
       </c>
       <c r="F30" t="n">
-        <v>59278.3671</v>
+        <v>47500</v>
       </c>
       <c r="G30" t="n">
-        <v>-250773.3646868444</v>
+        <v>-477435.1995138518</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="K30" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1700,35 +1620,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14.3</v>
+        <v>13.82</v>
       </c>
       <c r="C31" t="n">
-        <v>14.3</v>
+        <v>13.79</v>
       </c>
       <c r="D31" t="n">
-        <v>14.3</v>
+        <v>13.82</v>
       </c>
       <c r="E31" t="n">
-        <v>14.3</v>
+        <v>13.79</v>
       </c>
       <c r="F31" t="n">
-        <v>35</v>
+        <v>71558.7328729927</v>
       </c>
       <c r="G31" t="n">
-        <v>-250773.3646868444</v>
+        <v>-548993.9323868444</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K31" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1744,35 +1660,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14.2</v>
+        <v>13.5</v>
       </c>
       <c r="C32" t="n">
-        <v>14.2</v>
+        <v>13.5</v>
       </c>
       <c r="D32" t="n">
-        <v>14.2</v>
+        <v>13.5</v>
       </c>
       <c r="E32" t="n">
-        <v>14.2</v>
+        <v>13.5</v>
       </c>
       <c r="F32" t="n">
-        <v>577.1976</v>
+        <v>496.9241</v>
       </c>
       <c r="G32" t="n">
-        <v>-251350.5622868444</v>
+        <v>-549490.8564868444</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1788,35 +1700,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14.3</v>
+        <v>13.5</v>
       </c>
       <c r="C33" t="n">
-        <v>14.3</v>
+        <v>13.5</v>
       </c>
       <c r="D33" t="n">
-        <v>14.3</v>
+        <v>13.5</v>
       </c>
       <c r="E33" t="n">
-        <v>14.3</v>
+        <v>13.5</v>
       </c>
       <c r="F33" t="n">
-        <v>35</v>
+        <v>1103.0343</v>
       </c>
       <c r="G33" t="n">
-        <v>-251315.5622868444</v>
+        <v>-549490.8564868444</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1832,35 +1740,31 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14.2</v>
+        <v>13.39</v>
       </c>
       <c r="C34" t="n">
-        <v>14.2</v>
+        <v>13.39</v>
       </c>
       <c r="D34" t="n">
-        <v>14.2</v>
+        <v>13.39</v>
       </c>
       <c r="E34" t="n">
-        <v>14.2</v>
+        <v>13.39</v>
       </c>
       <c r="F34" t="n">
-        <v>3426.3399</v>
+        <v>1570.447</v>
       </c>
       <c r="G34" t="n">
-        <v>-254741.9021868444</v>
+        <v>-551061.3034868444</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K34" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1876,35 +1780,31 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14.06</v>
+        <v>13.3</v>
       </c>
       <c r="C35" t="n">
-        <v>14.06</v>
+        <v>13.3</v>
       </c>
       <c r="D35" t="n">
-        <v>14.06</v>
+        <v>13.3</v>
       </c>
       <c r="E35" t="n">
-        <v>14.06</v>
+        <v>13.3</v>
       </c>
       <c r="F35" t="n">
-        <v>1252.2745</v>
+        <v>4209.2474</v>
       </c>
       <c r="G35" t="n">
-        <v>-255994.1766868444</v>
+        <v>-555270.5508868444</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K35" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1920,35 +1820,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>14.06</v>
+        <v>13.3</v>
       </c>
       <c r="C36" t="n">
-        <v>14.06</v>
+        <v>13.3</v>
       </c>
       <c r="D36" t="n">
-        <v>14.06</v>
+        <v>13.3</v>
       </c>
       <c r="E36" t="n">
-        <v>14.06</v>
+        <v>13.3</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>87.0453</v>
       </c>
       <c r="G36" t="n">
-        <v>-255994.1766868444</v>
+        <v>-555270.5508868444</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="K36" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1964,22 +1860,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14.29</v>
+        <v>13.3</v>
       </c>
       <c r="C37" t="n">
-        <v>14.29</v>
+        <v>13.1</v>
       </c>
       <c r="D37" t="n">
-        <v>14.29</v>
+        <v>13.3</v>
       </c>
       <c r="E37" t="n">
-        <v>14.29</v>
+        <v>13.1</v>
       </c>
       <c r="F37" t="n">
-        <v>37902.2396</v>
+        <v>7076.7049</v>
       </c>
       <c r="G37" t="n">
-        <v>-218091.9370868444</v>
+        <v>-562347.2557868444</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1988,11 +1884,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="K37" t="n">
-        <v>14.28</v>
-      </c>
+        <v>13.3</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2008,22 +1902,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14.3</v>
+        <v>13.01</v>
       </c>
       <c r="C38" t="n">
-        <v>14.4</v>
+        <v>13.01</v>
       </c>
       <c r="D38" t="n">
-        <v>14.65</v>
+        <v>13.01</v>
       </c>
       <c r="E38" t="n">
-        <v>14.3</v>
+        <v>13.01</v>
       </c>
       <c r="F38" t="n">
-        <v>81413.1547</v>
+        <v>3103.6283</v>
       </c>
       <c r="G38" t="n">
-        <v>-136678.7823868444</v>
+        <v>-565450.8840868444</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -2032,11 +1926,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="K38" t="n">
-        <v>14.28</v>
-      </c>
+        <v>13.1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2052,22 +1944,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14.4</v>
+        <v>13.28</v>
       </c>
       <c r="C39" t="n">
-        <v>14.6</v>
+        <v>13.28</v>
       </c>
       <c r="D39" t="n">
-        <v>14.64</v>
+        <v>13.28</v>
       </c>
       <c r="E39" t="n">
-        <v>14.3</v>
+        <v>13.28</v>
       </c>
       <c r="F39" t="n">
-        <v>6903.6124</v>
+        <v>1912.2608</v>
       </c>
       <c r="G39" t="n">
-        <v>-129775.1699868444</v>
+        <v>-563538.6232868443</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -2076,11 +1968,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K39" t="n">
-        <v>14.28</v>
-      </c>
+        <v>13.01</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2096,22 +1986,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14.4</v>
+        <v>13.4</v>
       </c>
       <c r="C40" t="n">
-        <v>14.4</v>
+        <v>13.1</v>
       </c>
       <c r="D40" t="n">
-        <v>14.4</v>
+        <v>13.4</v>
       </c>
       <c r="E40" t="n">
-        <v>14.4</v>
+        <v>13.01</v>
       </c>
       <c r="F40" t="n">
-        <v>6970.8762</v>
+        <v>203829.378</v>
       </c>
       <c r="G40" t="n">
-        <v>-136746.0461868444</v>
+        <v>-767368.0012868444</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -2120,11 +2010,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K40" t="n">
-        <v>14.28</v>
-      </c>
+        <v>13.28</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2140,22 +2028,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>14.5</v>
+        <v>13.67</v>
       </c>
       <c r="C41" t="n">
-        <v>14.63</v>
+        <v>13.67</v>
       </c>
       <c r="D41" t="n">
-        <v>14.65</v>
+        <v>13.67</v>
       </c>
       <c r="E41" t="n">
-        <v>14.5</v>
+        <v>13.67</v>
       </c>
       <c r="F41" t="n">
-        <v>95047.7518</v>
+        <v>1597.8287</v>
       </c>
       <c r="G41" t="n">
-        <v>-41698.29438684441</v>
+        <v>-765770.1725868444</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -2164,11 +2052,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K41" t="n">
-        <v>14.28</v>
-      </c>
+        <v>13.1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2184,22 +2070,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14.62</v>
+        <v>13.68</v>
       </c>
       <c r="C42" t="n">
-        <v>14.63</v>
+        <v>13.68</v>
       </c>
       <c r="D42" t="n">
-        <v>14.63</v>
+        <v>13.68</v>
       </c>
       <c r="E42" t="n">
-        <v>14.4</v>
+        <v>13.68</v>
       </c>
       <c r="F42" t="n">
-        <v>2056</v>
+        <v>65066.0587</v>
       </c>
       <c r="G42" t="n">
-        <v>-41698.29438684441</v>
+        <v>-700704.1138868444</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2208,9 +2094,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2226,33 +2110,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14.6</v>
+        <v>13.68</v>
       </c>
       <c r="C43" t="n">
-        <v>14.65</v>
+        <v>13.82</v>
       </c>
       <c r="D43" t="n">
-        <v>14.65</v>
+        <v>13.82</v>
       </c>
       <c r="E43" t="n">
-        <v>14.6</v>
+        <v>13.68</v>
       </c>
       <c r="F43" t="n">
-        <v>40604.0257</v>
+        <v>204016.4608</v>
       </c>
       <c r="G43" t="n">
-        <v>-1094.268686844414</v>
+        <v>-496687.6530868444</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J43" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2268,22 +2152,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14.69</v>
+        <v>13.82</v>
       </c>
       <c r="C44" t="n">
-        <v>14.6</v>
+        <v>13.82</v>
       </c>
       <c r="D44" t="n">
-        <v>14.7</v>
+        <v>13.82</v>
       </c>
       <c r="E44" t="n">
-        <v>14.6</v>
+        <v>13.82</v>
       </c>
       <c r="F44" t="n">
-        <v>49330.2767</v>
+        <v>1500</v>
       </c>
       <c r="G44" t="n">
-        <v>-50424.54538684442</v>
+        <v>-496687.6530868444</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2292,9 +2176,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2310,22 +2192,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14.59</v>
+        <v>14</v>
       </c>
       <c r="C45" t="n">
-        <v>14.59</v>
+        <v>13.81</v>
       </c>
       <c r="D45" t="n">
-        <v>14.59</v>
+        <v>14.08</v>
       </c>
       <c r="E45" t="n">
-        <v>14.59</v>
+        <v>13.81</v>
       </c>
       <c r="F45" t="n">
-        <v>1291.3172</v>
+        <v>156194.5976</v>
       </c>
       <c r="G45" t="n">
-        <v>-51715.86258684441</v>
+        <v>-652882.2506868443</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2334,9 +2216,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2352,22 +2232,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14.6</v>
+        <v>13.81</v>
       </c>
       <c r="C46" t="n">
-        <v>14.59</v>
+        <v>13.81</v>
       </c>
       <c r="D46" t="n">
-        <v>14.6</v>
+        <v>13.81</v>
       </c>
       <c r="E46" t="n">
-        <v>14.59</v>
+        <v>13.81</v>
       </c>
       <c r="F46" t="n">
-        <v>33066.4492</v>
+        <v>32318.1774</v>
       </c>
       <c r="G46" t="n">
-        <v>-51715.86258684441</v>
+        <v>-652882.2506868443</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2376,9 +2256,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2394,22 +2272,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14.6</v>
+        <v>13.95</v>
       </c>
       <c r="C47" t="n">
-        <v>14.7</v>
+        <v>13.95</v>
       </c>
       <c r="D47" t="n">
-        <v>14.7</v>
+        <v>13.95</v>
       </c>
       <c r="E47" t="n">
-        <v>14.6</v>
+        <v>13.95</v>
       </c>
       <c r="F47" t="n">
-        <v>15113.4659</v>
+        <v>169731.8647</v>
       </c>
       <c r="G47" t="n">
-        <v>-36602.39668684441</v>
+        <v>-483150.3859868443</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2418,9 +2296,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2436,22 +2312,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14.6</v>
+        <v>13.95</v>
       </c>
       <c r="C48" t="n">
-        <v>14.6</v>
+        <v>13.95</v>
       </c>
       <c r="D48" t="n">
-        <v>14.6</v>
+        <v>13.95</v>
       </c>
       <c r="E48" t="n">
-        <v>14.6</v>
+        <v>13.95</v>
       </c>
       <c r="F48" t="n">
-        <v>52445.3513</v>
+        <v>35252.0027</v>
       </c>
       <c r="G48" t="n">
-        <v>-89047.74798684442</v>
+        <v>-483150.3859868443</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2460,9 +2336,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2478,22 +2352,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="C49" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="D49" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="E49" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="F49" t="n">
-        <v>674.3525</v>
+        <v>2855.0415</v>
       </c>
       <c r="G49" t="n">
-        <v>-89722.10048684441</v>
+        <v>-480295.3444868443</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2502,9 +2376,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2520,22 +2392,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14.6</v>
+        <v>14.24</v>
       </c>
       <c r="C50" t="n">
-        <v>14.69</v>
+        <v>14.25</v>
       </c>
       <c r="D50" t="n">
-        <v>14.69</v>
+        <v>14.25</v>
       </c>
       <c r="E50" t="n">
-        <v>14.6</v>
+        <v>14.24</v>
       </c>
       <c r="F50" t="n">
-        <v>14744.77139040163</v>
+        <v>22096.2275</v>
       </c>
       <c r="G50" t="n">
-        <v>-74977.32909644279</v>
+        <v>-458199.1169868443</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2544,9 +2416,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2562,22 +2432,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14.51</v>
+        <v>14.25</v>
       </c>
       <c r="C51" t="n">
-        <v>14.3</v>
+        <v>14.26</v>
       </c>
       <c r="D51" t="n">
-        <v>14.51</v>
+        <v>14.26</v>
       </c>
       <c r="E51" t="n">
-        <v>14.3</v>
+        <v>14.25</v>
       </c>
       <c r="F51" t="n">
-        <v>15111.2271</v>
+        <v>99792.32980000001</v>
       </c>
       <c r="G51" t="n">
-        <v>-90088.55619644279</v>
+        <v>-358406.7871868443</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2586,9 +2456,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2604,22 +2472,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14.59</v>
+        <v>14.26</v>
       </c>
       <c r="C52" t="n">
-        <v>14.59</v>
+        <v>14.26</v>
       </c>
       <c r="D52" t="n">
-        <v>14.59</v>
+        <v>14.26</v>
       </c>
       <c r="E52" t="n">
-        <v>14.59</v>
+        <v>14.26</v>
       </c>
       <c r="F52" t="n">
-        <v>694.6746000000001</v>
+        <v>40697.5722</v>
       </c>
       <c r="G52" t="n">
-        <v>-89393.88159644279</v>
+        <v>-358406.7871868443</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2628,9 +2496,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2646,22 +2512,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14.3</v>
+        <v>14.26</v>
       </c>
       <c r="C53" t="n">
-        <v>14.59</v>
+        <v>14.26</v>
       </c>
       <c r="D53" t="n">
-        <v>14.59</v>
+        <v>14.26</v>
       </c>
       <c r="E53" t="n">
-        <v>14.3</v>
+        <v>14.26</v>
       </c>
       <c r="F53" t="n">
-        <v>10538.0203</v>
+        <v>65489.4362</v>
       </c>
       <c r="G53" t="n">
-        <v>-89393.88159644279</v>
+        <v>-358406.7871868443</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2670,9 +2536,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2688,22 +2552,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14.59</v>
+        <v>14.26</v>
       </c>
       <c r="C54" t="n">
-        <v>14.6</v>
+        <v>14.26</v>
       </c>
       <c r="D54" t="n">
-        <v>14.6</v>
+        <v>14.26</v>
       </c>
       <c r="E54" t="n">
-        <v>14.59</v>
+        <v>14.26</v>
       </c>
       <c r="F54" t="n">
-        <v>32974.0847</v>
+        <v>1336.6793</v>
       </c>
       <c r="G54" t="n">
-        <v>-56419.79689644279</v>
+        <v>-358406.7871868443</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2712,9 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2730,22 +2592,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="C55" t="n">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="D55" t="n">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="E55" t="n">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="F55" t="n">
-        <v>308.0367</v>
+        <v>8742.607900000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-56727.83359644279</v>
+        <v>-367149.3950868443</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2754,9 +2616,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2772,22 +2632,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="C56" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="D56" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="E56" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="F56" t="n">
-        <v>1384.1126</v>
+        <v>118975.5092</v>
       </c>
       <c r="G56" t="n">
-        <v>-58111.94619644279</v>
+        <v>-367149.3950868443</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2796,9 +2656,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2814,35 +2672,31 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="C57" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="D57" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="E57" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="F57" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="G57" t="n">
-        <v>-58111.94619644279</v>
+        <v>-367149.3950868443</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K57" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2858,22 +2712,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="C58" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="D58" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="E58" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="F58" t="n">
-        <v>44.5196</v>
+        <v>187547.1845</v>
       </c>
       <c r="G58" t="n">
-        <v>-58111.94619644279</v>
+        <v>-367149.3950868443</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2882,9 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2900,35 +2752,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14.4</v>
+        <v>14.09</v>
       </c>
       <c r="C59" t="n">
-        <v>14.4</v>
+        <v>14.09</v>
       </c>
       <c r="D59" t="n">
-        <v>14.4</v>
+        <v>14.09</v>
       </c>
       <c r="E59" t="n">
-        <v>14.4</v>
+        <v>14.09</v>
       </c>
       <c r="F59" t="n">
-        <v>21862.5578</v>
+        <v>23925.2656</v>
       </c>
       <c r="G59" t="n">
-        <v>-36249.3883964428</v>
+        <v>-391074.6606868443</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K59" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2944,22 +2792,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14.65</v>
+        <v>14.1</v>
       </c>
       <c r="C60" t="n">
-        <v>14.65</v>
+        <v>14.1</v>
       </c>
       <c r="D60" t="n">
-        <v>14.65</v>
+        <v>14.1</v>
       </c>
       <c r="E60" t="n">
-        <v>14.65</v>
+        <v>14.1</v>
       </c>
       <c r="F60" t="n">
-        <v>10540</v>
+        <v>1399.8298</v>
       </c>
       <c r="G60" t="n">
-        <v>-25709.3883964428</v>
+        <v>-389674.8308868443</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2968,9 +2816,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2986,22 +2832,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14.65</v>
+        <v>14.09</v>
       </c>
       <c r="C61" t="n">
-        <v>14.65</v>
+        <v>14.09</v>
       </c>
       <c r="D61" t="n">
-        <v>14.65</v>
+        <v>14.09</v>
       </c>
       <c r="E61" t="n">
-        <v>14.65</v>
+        <v>14.09</v>
       </c>
       <c r="F61" t="n">
-        <v>13953.8193</v>
+        <v>44818.2503</v>
       </c>
       <c r="G61" t="n">
-        <v>-25709.3883964428</v>
+        <v>-434493.0811868443</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3010,9 +2856,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3028,22 +2872,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14.65</v>
+        <v>14.1</v>
       </c>
       <c r="C62" t="n">
-        <v>14.65</v>
+        <v>14.1</v>
       </c>
       <c r="D62" t="n">
-        <v>14.65</v>
+        <v>14.1</v>
       </c>
       <c r="E62" t="n">
-        <v>14.65</v>
+        <v>14.1</v>
       </c>
       <c r="F62" t="n">
-        <v>10000</v>
+        <v>12405.7805</v>
       </c>
       <c r="G62" t="n">
-        <v>-25709.3883964428</v>
+        <v>-422087.3006868443</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3052,9 +2896,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3070,22 +2912,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14.65</v>
+        <v>14.09</v>
       </c>
       <c r="C63" t="n">
-        <v>14.65</v>
+        <v>14.1</v>
       </c>
       <c r="D63" t="n">
-        <v>14.65</v>
+        <v>14.1</v>
       </c>
       <c r="E63" t="n">
-        <v>14.65</v>
+        <v>14.09</v>
       </c>
       <c r="F63" t="n">
-        <v>217.3528</v>
+        <v>30489.0795</v>
       </c>
       <c r="G63" t="n">
-        <v>-25709.3883964428</v>
+        <v>-422087.3006868443</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3094,9 +2936,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3112,22 +2952,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14.4</v>
+        <v>14.25</v>
       </c>
       <c r="C64" t="n">
-        <v>14.4</v>
+        <v>14.25</v>
       </c>
       <c r="D64" t="n">
-        <v>14.4</v>
+        <v>14.25</v>
       </c>
       <c r="E64" t="n">
-        <v>14.4</v>
+        <v>14.25</v>
       </c>
       <c r="F64" t="n">
-        <v>1422.0028</v>
+        <v>1823.9193</v>
       </c>
       <c r="G64" t="n">
-        <v>-27131.39119644279</v>
+        <v>-420263.3813868443</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3136,9 +2976,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3154,22 +2992,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14.6</v>
+        <v>14.1</v>
       </c>
       <c r="C65" t="n">
-        <v>14.64</v>
+        <v>14.1</v>
       </c>
       <c r="D65" t="n">
-        <v>14.64</v>
+        <v>14.1</v>
       </c>
       <c r="E65" t="n">
-        <v>14.6</v>
+        <v>14.1</v>
       </c>
       <c r="F65" t="n">
-        <v>8106.5781</v>
+        <v>34781.2022</v>
       </c>
       <c r="G65" t="n">
-        <v>-19024.81309644279</v>
+        <v>-455044.5835868443</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3178,9 +3016,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3196,22 +3032,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14.64</v>
+        <v>14.1</v>
       </c>
       <c r="C66" t="n">
-        <v>14.65</v>
+        <v>14.1</v>
       </c>
       <c r="D66" t="n">
-        <v>14.65</v>
+        <v>14.1</v>
       </c>
       <c r="E66" t="n">
-        <v>14.64</v>
+        <v>14.1</v>
       </c>
       <c r="F66" t="n">
-        <v>47761.3557</v>
+        <v>11451.8214</v>
       </c>
       <c r="G66" t="n">
-        <v>28736.54260355721</v>
+        <v>-455044.5835868443</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3220,9 +3056,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,22 +3072,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14.65</v>
+        <v>14.1</v>
       </c>
       <c r="C67" t="n">
-        <v>14.65</v>
+        <v>14.1</v>
       </c>
       <c r="D67" t="n">
-        <v>14.65</v>
+        <v>14.1</v>
       </c>
       <c r="E67" t="n">
-        <v>14.65</v>
+        <v>14.1</v>
       </c>
       <c r="F67" t="n">
-        <v>22105.1943</v>
+        <v>5776.4566</v>
       </c>
       <c r="G67" t="n">
-        <v>28736.54260355721</v>
+        <v>-455044.5835868443</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3262,9 +3096,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3280,22 +3112,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14.7</v>
+        <v>14.19</v>
       </c>
       <c r="C68" t="n">
-        <v>14.7</v>
+        <v>14.28</v>
       </c>
       <c r="D68" t="n">
-        <v>14.7</v>
+        <v>14.28</v>
       </c>
       <c r="E68" t="n">
-        <v>14.7</v>
+        <v>14.19</v>
       </c>
       <c r="F68" t="n">
-        <v>3074.971</v>
+        <v>177926.9333</v>
       </c>
       <c r="G68" t="n">
-        <v>31811.51360355721</v>
+        <v>-277117.6502868443</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3304,9 +3136,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3322,22 +3152,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14.69</v>
+        <v>14.28</v>
       </c>
       <c r="C69" t="n">
-        <v>14.65</v>
+        <v>14.28</v>
       </c>
       <c r="D69" t="n">
-        <v>14.99</v>
+        <v>14.28</v>
       </c>
       <c r="E69" t="n">
-        <v>14.65</v>
+        <v>14.28</v>
       </c>
       <c r="F69" t="n">
-        <v>108767.4197</v>
+        <v>2623.9932</v>
       </c>
       <c r="G69" t="n">
-        <v>-76955.90609644279</v>
+        <v>-277117.6502868443</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3346,9 +3176,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3364,22 +3192,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14.65</v>
+        <v>14.2</v>
       </c>
       <c r="C70" t="n">
-        <v>14.99</v>
+        <v>14.2</v>
       </c>
       <c r="D70" t="n">
-        <v>14.99</v>
+        <v>14.2</v>
       </c>
       <c r="E70" t="n">
-        <v>14.65</v>
+        <v>14.2</v>
       </c>
       <c r="F70" t="n">
-        <v>24499.8872</v>
+        <v>1399.8298</v>
       </c>
       <c r="G70" t="n">
-        <v>-52456.01889644279</v>
+        <v>-278517.4800868444</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3388,9 +3216,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3406,22 +3232,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14.9</v>
+        <v>14.22</v>
       </c>
       <c r="C71" t="n">
-        <v>14.99</v>
+        <v>14.22</v>
       </c>
       <c r="D71" t="n">
-        <v>14.99</v>
+        <v>14.22</v>
       </c>
       <c r="E71" t="n">
-        <v>14.9</v>
+        <v>14.22</v>
       </c>
       <c r="F71" t="n">
-        <v>942.2618</v>
+        <v>11241.7119</v>
       </c>
       <c r="G71" t="n">
-        <v>-52456.01889644279</v>
+        <v>-267275.7681868444</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3430,9 +3256,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3448,22 +3272,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14.99</v>
+        <v>14.21</v>
       </c>
       <c r="C72" t="n">
-        <v>15</v>
+        <v>14.2</v>
       </c>
       <c r="D72" t="n">
-        <v>15</v>
+        <v>14.21</v>
       </c>
       <c r="E72" t="n">
-        <v>14.99</v>
+        <v>14.1</v>
       </c>
       <c r="F72" t="n">
-        <v>93813.97689999999</v>
+        <v>20399.5015</v>
       </c>
       <c r="G72" t="n">
-        <v>41357.9580035572</v>
+        <v>-287675.2696868444</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3472,9 +3296,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3490,22 +3312,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15</v>
+        <v>14.28</v>
       </c>
       <c r="C73" t="n">
-        <v>15.1</v>
+        <v>14.28</v>
       </c>
       <c r="D73" t="n">
-        <v>15.1</v>
+        <v>14.28</v>
       </c>
       <c r="E73" t="n">
-        <v>14.8</v>
+        <v>14.28</v>
       </c>
       <c r="F73" t="n">
-        <v>10043.4937</v>
+        <v>309.225</v>
       </c>
       <c r="G73" t="n">
-        <v>51401.4517035572</v>
+        <v>-287366.0446868444</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3514,9 +3336,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3532,22 +3352,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.1</v>
+        <v>14.2</v>
       </c>
       <c r="C74" t="n">
-        <v>15.01</v>
+        <v>14.2</v>
       </c>
       <c r="D74" t="n">
-        <v>15.1</v>
+        <v>14.2</v>
       </c>
       <c r="E74" t="n">
-        <v>15</v>
+        <v>14.2</v>
       </c>
       <c r="F74" t="n">
-        <v>46562.2098</v>
+        <v>28417.9496</v>
       </c>
       <c r="G74" t="n">
-        <v>4839.241903557202</v>
+        <v>-315783.9942868444</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3556,9 +3376,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3574,22 +3392,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15.19</v>
+        <v>14.29</v>
       </c>
       <c r="C75" t="n">
-        <v>15.55</v>
+        <v>14.29</v>
       </c>
       <c r="D75" t="n">
-        <v>15.55</v>
+        <v>14.29</v>
       </c>
       <c r="E75" t="n">
-        <v>15.01</v>
+        <v>14.29</v>
       </c>
       <c r="F75" t="n">
-        <v>9934.4522</v>
+        <v>10000</v>
       </c>
       <c r="G75" t="n">
-        <v>14773.6941035572</v>
+        <v>-305783.9942868444</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3598,9 +3416,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3616,22 +3432,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15.3</v>
+        <v>14.29</v>
       </c>
       <c r="C76" t="n">
-        <v>15.48</v>
+        <v>14.29</v>
       </c>
       <c r="D76" t="n">
-        <v>15.55</v>
+        <v>14.29</v>
       </c>
       <c r="E76" t="n">
-        <v>15.21</v>
+        <v>14.29</v>
       </c>
       <c r="F76" t="n">
-        <v>45356.2314</v>
+        <v>44311.3873</v>
       </c>
       <c r="G76" t="n">
-        <v>-30582.5372964428</v>
+        <v>-305783.9942868444</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3640,9 +3456,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3658,22 +3472,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15.31</v>
+        <v>14.29</v>
       </c>
       <c r="C77" t="n">
-        <v>15.48</v>
+        <v>14.35</v>
       </c>
       <c r="D77" t="n">
-        <v>15.48</v>
+        <v>14.35</v>
       </c>
       <c r="E77" t="n">
-        <v>15.22</v>
+        <v>14.29</v>
       </c>
       <c r="F77" t="n">
-        <v>16247.3346</v>
+        <v>89340.4163</v>
       </c>
       <c r="G77" t="n">
-        <v>-30582.5372964428</v>
+        <v>-216443.5779868444</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3682,9 +3496,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3700,22 +3512,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15.48</v>
+        <v>14.39</v>
       </c>
       <c r="C78" t="n">
-        <v>15.48</v>
+        <v>14.5</v>
       </c>
       <c r="D78" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="E78" t="n">
-        <v>15.48</v>
+        <v>14.39</v>
       </c>
       <c r="F78" t="n">
-        <v>72631.4556</v>
+        <v>1242</v>
       </c>
       <c r="G78" t="n">
-        <v>-30582.5372964428</v>
+        <v>-215201.5779868444</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3724,9 +3536,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3742,22 +3552,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="C79" t="n">
-        <v>15.99</v>
+        <v>14.5</v>
       </c>
       <c r="D79" t="n">
-        <v>15.99</v>
+        <v>14.5</v>
       </c>
       <c r="E79" t="n">
-        <v>15.48</v>
+        <v>14.5</v>
       </c>
       <c r="F79" t="n">
-        <v>99780.4106</v>
+        <v>46883.2484</v>
       </c>
       <c r="G79" t="n">
-        <v>69197.87330355721</v>
+        <v>-215201.5779868444</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3766,9 +3576,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3784,22 +3592,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15.99</v>
+        <v>14.45</v>
       </c>
       <c r="C80" t="n">
-        <v>15.99</v>
+        <v>14.45</v>
       </c>
       <c r="D80" t="n">
-        <v>15.99</v>
+        <v>14.45</v>
       </c>
       <c r="E80" t="n">
-        <v>15.99</v>
+        <v>14.45</v>
       </c>
       <c r="F80" t="n">
-        <v>87.77800000000001</v>
+        <v>18934.4203</v>
       </c>
       <c r="G80" t="n">
-        <v>69197.87330355721</v>
+        <v>-234135.9982868444</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3808,9 +3616,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3826,22 +3632,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15.99</v>
+        <v>14.5</v>
       </c>
       <c r="C81" t="n">
-        <v>16.9</v>
+        <v>14.5</v>
       </c>
       <c r="D81" t="n">
-        <v>16.9</v>
+        <v>14.5</v>
       </c>
       <c r="E81" t="n">
-        <v>15.99</v>
+        <v>14.5</v>
       </c>
       <c r="F81" t="n">
-        <v>80829.4951</v>
+        <v>800.2320999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>150027.3684035572</v>
+        <v>-233335.7661868444</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3850,9 +3656,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3868,22 +3672,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="C82" t="n">
-        <v>16.8</v>
+        <v>14.5</v>
       </c>
       <c r="D82" t="n">
-        <v>16.81</v>
+        <v>14.5</v>
       </c>
       <c r="E82" t="n">
-        <v>15.99</v>
+        <v>14.5</v>
       </c>
       <c r="F82" t="n">
-        <v>236000.4531</v>
+        <v>11725.2688</v>
       </c>
       <c r="G82" t="n">
-        <v>-85973.08469644279</v>
+        <v>-233335.7661868444</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3892,9 +3696,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3910,22 +3712,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16.8</v>
+        <v>14.64</v>
       </c>
       <c r="C83" t="n">
-        <v>16.82</v>
+        <v>14.64</v>
       </c>
       <c r="D83" t="n">
-        <v>16.82</v>
+        <v>14.64</v>
       </c>
       <c r="E83" t="n">
-        <v>16.8</v>
+        <v>14.64</v>
       </c>
       <c r="F83" t="n">
-        <v>216113.5291</v>
+        <v>3542.9193</v>
       </c>
       <c r="G83" t="n">
-        <v>130140.4444035572</v>
+        <v>-229792.8468868444</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3934,9 +3736,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3952,22 +3752,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16.82</v>
+        <v>14.64</v>
       </c>
       <c r="C84" t="n">
-        <v>16.83</v>
+        <v>14.64</v>
       </c>
       <c r="D84" t="n">
-        <v>16.83</v>
+        <v>14.64</v>
       </c>
       <c r="E84" t="n">
-        <v>16.82</v>
+        <v>14.64</v>
       </c>
       <c r="F84" t="n">
-        <v>96370.7071</v>
+        <v>8201.142599999999</v>
       </c>
       <c r="G84" t="n">
-        <v>226511.1515035572</v>
+        <v>-229792.8468868444</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3976,9 +3776,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3994,22 +3792,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>16.9</v>
+        <v>14.64</v>
       </c>
       <c r="C85" t="n">
-        <v>16.83</v>
+        <v>14.64</v>
       </c>
       <c r="D85" t="n">
-        <v>16.9</v>
+        <v>14.64</v>
       </c>
       <c r="E85" t="n">
-        <v>16.83</v>
+        <v>14.64</v>
       </c>
       <c r="F85" t="n">
-        <v>91137.8622</v>
+        <v>58881.5822</v>
       </c>
       <c r="G85" t="n">
-        <v>226511.1515035572</v>
+        <v>-229792.8468868444</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4018,9 +3816,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4036,22 +3832,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>16.83</v>
+        <v>14.3</v>
       </c>
       <c r="C86" t="n">
-        <v>16.83</v>
+        <v>14.03</v>
       </c>
       <c r="D86" t="n">
-        <v>16.92</v>
+        <v>14.3</v>
       </c>
       <c r="E86" t="n">
-        <v>16.83</v>
+        <v>14.03</v>
       </c>
       <c r="F86" t="n">
-        <v>63453.8758</v>
+        <v>58881.5822</v>
       </c>
       <c r="G86" t="n">
-        <v>226511.1515035572</v>
+        <v>-288674.4290868444</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4060,9 +3856,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4078,22 +3872,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>16.82</v>
+        <v>14.34</v>
       </c>
       <c r="C87" t="n">
-        <v>16.82</v>
+        <v>14.4</v>
       </c>
       <c r="D87" t="n">
-        <v>16.82</v>
+        <v>14.4</v>
       </c>
       <c r="E87" t="n">
-        <v>16.82</v>
+        <v>14.34</v>
       </c>
       <c r="F87" t="n">
-        <v>5932.3743</v>
+        <v>1122.5969</v>
       </c>
       <c r="G87" t="n">
-        <v>220578.7772035572</v>
+        <v>-287551.8321868444</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4102,9 +3896,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4120,22 +3912,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16.82</v>
+        <v>14.34</v>
       </c>
       <c r="C88" t="n">
-        <v>16.92</v>
+        <v>14.34</v>
       </c>
       <c r="D88" t="n">
-        <v>16.92</v>
+        <v>14.34</v>
       </c>
       <c r="E88" t="n">
-        <v>16.82</v>
+        <v>14.34</v>
       </c>
       <c r="F88" t="n">
-        <v>60405.8412</v>
+        <v>292.693</v>
       </c>
       <c r="G88" t="n">
-        <v>280984.6184035572</v>
+        <v>-287844.5251868444</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4144,9 +3936,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4162,22 +3952,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>16.92</v>
+        <v>14.1</v>
       </c>
       <c r="C89" t="n">
-        <v>16.98</v>
+        <v>14.1</v>
       </c>
       <c r="D89" t="n">
-        <v>16.98</v>
+        <v>14.1</v>
       </c>
       <c r="E89" t="n">
-        <v>16.92</v>
+        <v>14.1</v>
       </c>
       <c r="F89" t="n">
-        <v>36145.4542</v>
+        <v>7908.4496</v>
       </c>
       <c r="G89" t="n">
-        <v>317130.0726035572</v>
+        <v>-295752.9747868444</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4186,9 +3976,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4204,22 +3992,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>16.95</v>
+        <v>14.06</v>
       </c>
       <c r="C90" t="n">
-        <v>16.95</v>
+        <v>14.06</v>
       </c>
       <c r="D90" t="n">
-        <v>16.95</v>
+        <v>14.06</v>
       </c>
       <c r="E90" t="n">
-        <v>16.95</v>
+        <v>14.06</v>
       </c>
       <c r="F90" t="n">
-        <v>18190.066</v>
+        <v>15186</v>
       </c>
       <c r="G90" t="n">
-        <v>298940.0066035572</v>
+        <v>-310938.9747868444</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4228,9 +4016,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4246,22 +4032,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16.95</v>
+        <v>14.06</v>
       </c>
       <c r="C91" t="n">
-        <v>17.3</v>
+        <v>14.06</v>
       </c>
       <c r="D91" t="n">
-        <v>17.3</v>
+        <v>14.06</v>
       </c>
       <c r="E91" t="n">
-        <v>16.95</v>
+        <v>14.06</v>
       </c>
       <c r="F91" t="n">
-        <v>240464.3477</v>
+        <v>11725.2688</v>
       </c>
       <c r="G91" t="n">
-        <v>539404.3543035572</v>
+        <v>-310938.9747868444</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4270,9 +4056,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4288,22 +4072,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>17.3</v>
+        <v>14.3</v>
       </c>
       <c r="C92" t="n">
-        <v>18</v>
+        <v>14.3</v>
       </c>
       <c r="D92" t="n">
-        <v>18</v>
+        <v>14.3</v>
       </c>
       <c r="E92" t="n">
-        <v>17.3</v>
+        <v>14.3</v>
       </c>
       <c r="F92" t="n">
-        <v>603559.9708</v>
+        <v>2029</v>
       </c>
       <c r="G92" t="n">
-        <v>1142964.325103557</v>
+        <v>-308909.9747868444</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4312,9 +4096,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4330,22 +4112,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>17.9</v>
+        <v>14.3</v>
       </c>
       <c r="C93" t="n">
-        <v>18.26</v>
+        <v>14.3</v>
       </c>
       <c r="D93" t="n">
-        <v>18.26</v>
+        <v>14.3</v>
       </c>
       <c r="E93" t="n">
-        <v>17.9</v>
+        <v>14.3</v>
       </c>
       <c r="F93" t="n">
-        <v>388828.3674826944</v>
+        <v>34106.7771</v>
       </c>
       <c r="G93" t="n">
-        <v>1531792.692586252</v>
+        <v>-308909.9747868444</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4354,9 +4136,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4372,22 +4152,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>18.26</v>
+        <v>14.06</v>
       </c>
       <c r="C94" t="n">
-        <v>18.6</v>
+        <v>14.05</v>
       </c>
       <c r="D94" t="n">
-        <v>18.8</v>
+        <v>14.06</v>
       </c>
       <c r="E94" t="n">
-        <v>18.05</v>
+        <v>14.05</v>
       </c>
       <c r="F94" t="n">
-        <v>833624.8976173056</v>
+        <v>6259.2231</v>
       </c>
       <c r="G94" t="n">
-        <v>2365417.590203557</v>
+        <v>-315169.1978868444</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4396,9 +4176,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4414,22 +4192,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>18.6</v>
+        <v>14.34</v>
       </c>
       <c r="C95" t="n">
-        <v>18.4</v>
+        <v>14.34</v>
       </c>
       <c r="D95" t="n">
-        <v>18.7</v>
+        <v>14.34</v>
       </c>
       <c r="E95" t="n">
-        <v>18.39</v>
+        <v>14.34</v>
       </c>
       <c r="F95" t="n">
-        <v>264061.2491</v>
+        <v>77</v>
       </c>
       <c r="G95" t="n">
-        <v>2101356.341103557</v>
+        <v>-315092.1978868444</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4438,9 +4216,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4456,22 +4232,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>18.4</v>
+        <v>14.05</v>
       </c>
       <c r="C96" t="n">
-        <v>19.25</v>
+        <v>14.05</v>
       </c>
       <c r="D96" t="n">
-        <v>19.25</v>
+        <v>14.05</v>
       </c>
       <c r="E96" t="n">
-        <v>18.4</v>
+        <v>14.05</v>
       </c>
       <c r="F96" t="n">
-        <v>209737.3774</v>
+        <v>559.9739</v>
       </c>
       <c r="G96" t="n">
-        <v>2311093.718503557</v>
+        <v>-315652.1717868444</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4480,9 +4256,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4498,22 +4272,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>19.25</v>
+        <v>14.03</v>
       </c>
       <c r="C97" t="n">
-        <v>19.4</v>
+        <v>14.03</v>
       </c>
       <c r="D97" t="n">
-        <v>19.55</v>
+        <v>14.03</v>
       </c>
       <c r="E97" t="n">
-        <v>18.8</v>
+        <v>14.03</v>
       </c>
       <c r="F97" t="n">
-        <v>607101.0624000001</v>
+        <v>97</v>
       </c>
       <c r="G97" t="n">
-        <v>2918194.780903557</v>
+        <v>-315749.1717868444</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4522,9 +4296,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4540,22 +4312,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>19.4</v>
+        <v>14.05</v>
       </c>
       <c r="C98" t="n">
-        <v>20.49</v>
+        <v>14.2</v>
       </c>
       <c r="D98" t="n">
-        <v>21</v>
+        <v>14.2</v>
       </c>
       <c r="E98" t="n">
-        <v>19.4</v>
+        <v>14.05</v>
       </c>
       <c r="F98" t="n">
-        <v>1407281.062688143</v>
+        <v>5775</v>
       </c>
       <c r="G98" t="n">
-        <v>4325475.8435917</v>
+        <v>-309974.1717868444</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4564,9 +4336,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4582,76 +4352,76 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>20.49</v>
+        <v>14.05</v>
       </c>
       <c r="C99" t="n">
-        <v>20.1</v>
+        <v>14.05</v>
       </c>
       <c r="D99" t="n">
-        <v>20.49</v>
+        <v>14.05</v>
       </c>
       <c r="E99" t="n">
-        <v>19.05</v>
+        <v>14.05</v>
       </c>
       <c r="F99" t="n">
-        <v>233407.235</v>
+        <v>77.56</v>
       </c>
       <c r="G99" t="n">
-        <v>4092068.6085917</v>
+        <v>-310051.7317868444</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1.402563025210084</v>
-      </c>
-      <c r="N99" t="n">
-        <v>1.006338028169014</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>20.1</v>
+        <v>14.05</v>
       </c>
       <c r="C100" t="n">
-        <v>19.26</v>
+        <v>14.05</v>
       </c>
       <c r="D100" t="n">
-        <v>20.1</v>
+        <v>14.05</v>
       </c>
       <c r="E100" t="n">
-        <v>19.26</v>
+        <v>14.05</v>
       </c>
       <c r="F100" t="n">
-        <v>180493.293638806</v>
+        <v>6630.9656</v>
       </c>
       <c r="G100" t="n">
-        <v>3911575.314952895</v>
+        <v>-310051.7317868444</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4662,32 +4432,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>19.27</v>
+        <v>14.2</v>
       </c>
       <c r="C101" t="n">
-        <v>18.39</v>
+        <v>14.3</v>
       </c>
       <c r="D101" t="n">
-        <v>19.27</v>
+        <v>14.3</v>
       </c>
       <c r="E101" t="n">
-        <v>18.29</v>
+        <v>14.2</v>
       </c>
       <c r="F101" t="n">
-        <v>1450822.6371</v>
+        <v>59278.3671</v>
       </c>
       <c r="G101" t="n">
-        <v>2460752.677852895</v>
+        <v>-250773.3646868444</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4698,32 +4472,36 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>18.89</v>
+        <v>14.3</v>
       </c>
       <c r="C102" t="n">
-        <v>18.85</v>
+        <v>14.3</v>
       </c>
       <c r="D102" t="n">
-        <v>18.89</v>
+        <v>14.3</v>
       </c>
       <c r="E102" t="n">
-        <v>18.85</v>
+        <v>14.3</v>
       </c>
       <c r="F102" t="n">
-        <v>37941.87847769169</v>
+        <v>35</v>
       </c>
       <c r="G102" t="n">
-        <v>2498694.556330586</v>
+        <v>-250773.3646868444</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4734,32 +4512,36 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>18.6</v>
+        <v>14.2</v>
       </c>
       <c r="C103" t="n">
-        <v>18.47</v>
+        <v>14.2</v>
       </c>
       <c r="D103" t="n">
-        <v>18.83</v>
+        <v>14.2</v>
       </c>
       <c r="E103" t="n">
-        <v>18</v>
+        <v>14.2</v>
       </c>
       <c r="F103" t="n">
-        <v>415352.2361</v>
+        <v>577.1976</v>
       </c>
       <c r="G103" t="n">
-        <v>2083342.320230586</v>
+        <v>-251350.5622868444</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4770,32 +4552,36 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>18.46</v>
+        <v>14.3</v>
       </c>
       <c r="C104" t="n">
-        <v>18.46</v>
+        <v>14.3</v>
       </c>
       <c r="D104" t="n">
-        <v>18.46</v>
+        <v>14.3</v>
       </c>
       <c r="E104" t="n">
-        <v>18.46</v>
+        <v>14.3</v>
       </c>
       <c r="F104" t="n">
-        <v>10736.915</v>
+        <v>35</v>
       </c>
       <c r="G104" t="n">
-        <v>2072605.405230586</v>
+        <v>-251315.5622868444</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4806,32 +4592,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>18.29</v>
+        <v>14.2</v>
       </c>
       <c r="C105" t="n">
-        <v>18</v>
+        <v>14.2</v>
       </c>
       <c r="D105" t="n">
-        <v>18.29</v>
+        <v>14.2</v>
       </c>
       <c r="E105" t="n">
-        <v>18</v>
+        <v>14.2</v>
       </c>
       <c r="F105" t="n">
-        <v>84429.4666</v>
+        <v>3426.3399</v>
       </c>
       <c r="G105" t="n">
-        <v>1988175.938630586</v>
+        <v>-254741.9021868444</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4842,32 +4632,36 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>18</v>
+        <v>14.06</v>
       </c>
       <c r="C106" t="n">
-        <v>17.42</v>
+        <v>14.06</v>
       </c>
       <c r="D106" t="n">
-        <v>18</v>
+        <v>14.06</v>
       </c>
       <c r="E106" t="n">
-        <v>17.41</v>
+        <v>14.06</v>
       </c>
       <c r="F106" t="n">
-        <v>140246.731</v>
+        <v>1252.2745</v>
       </c>
       <c r="G106" t="n">
-        <v>1847929.207630587</v>
+        <v>-255994.1766868444</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4878,32 +4672,36 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>18</v>
+        <v>14.06</v>
       </c>
       <c r="C107" t="n">
-        <v>18.3</v>
+        <v>14.06</v>
       </c>
       <c r="D107" t="n">
-        <v>18.3</v>
+        <v>14.06</v>
       </c>
       <c r="E107" t="n">
-        <v>17.6</v>
+        <v>14.06</v>
       </c>
       <c r="F107" t="n">
-        <v>17763.7796</v>
+        <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>1865692.987230587</v>
+        <v>-255994.1766868444</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4914,32 +4712,36 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>17.64</v>
+        <v>14.29</v>
       </c>
       <c r="C108" t="n">
-        <v>17.35</v>
+        <v>14.29</v>
       </c>
       <c r="D108" t="n">
-        <v>17.64</v>
+        <v>14.29</v>
       </c>
       <c r="E108" t="n">
-        <v>17.35</v>
+        <v>14.29</v>
       </c>
       <c r="F108" t="n">
-        <v>89612.9063</v>
+        <v>37902.2396</v>
       </c>
       <c r="G108" t="n">
-        <v>1776080.080930587</v>
+        <v>-218091.9370868444</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4950,32 +4752,36 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>17.35</v>
+        <v>14.3</v>
       </c>
       <c r="C109" t="n">
-        <v>16.71</v>
+        <v>14.4</v>
       </c>
       <c r="D109" t="n">
-        <v>17.5</v>
+        <v>14.65</v>
       </c>
       <c r="E109" t="n">
-        <v>16.71</v>
+        <v>14.3</v>
       </c>
       <c r="F109" t="n">
-        <v>221242.4338</v>
+        <v>81413.1547</v>
       </c>
       <c r="G109" t="n">
-        <v>1554837.647130587</v>
+        <v>-136678.7823868444</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4986,32 +4792,36 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>17.2</v>
+        <v>14.4</v>
       </c>
       <c r="C110" t="n">
-        <v>17.3</v>
+        <v>14.6</v>
       </c>
       <c r="D110" t="n">
-        <v>17.3</v>
+        <v>14.64</v>
       </c>
       <c r="E110" t="n">
-        <v>17.2</v>
+        <v>14.3</v>
       </c>
       <c r="F110" t="n">
-        <v>12044.5028</v>
+        <v>6903.6124</v>
       </c>
       <c r="G110" t="n">
-        <v>1566882.149930587</v>
+        <v>-129775.1699868444</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -5022,22 +4832,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>17.6</v>
+        <v>14.4</v>
       </c>
       <c r="C111" t="n">
-        <v>17.4</v>
+        <v>14.4</v>
       </c>
       <c r="D111" t="n">
-        <v>17.8</v>
+        <v>14.4</v>
       </c>
       <c r="E111" t="n">
-        <v>17.4</v>
+        <v>14.4</v>
       </c>
       <c r="F111" t="n">
-        <v>77713.05190000001</v>
+        <v>6970.8762</v>
       </c>
       <c r="G111" t="n">
-        <v>1644595.201830587</v>
+        <v>-136746.0461868444</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5047,7 +4857,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5058,32 +4872,36 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>17.6</v>
+        <v>14.5</v>
       </c>
       <c r="C112" t="n">
-        <v>17.31</v>
+        <v>14.63</v>
       </c>
       <c r="D112" t="n">
-        <v>17.7</v>
+        <v>14.65</v>
       </c>
       <c r="E112" t="n">
-        <v>17.26</v>
+        <v>14.5</v>
       </c>
       <c r="F112" t="n">
-        <v>79705.9566</v>
+        <v>95047.7518</v>
       </c>
       <c r="G112" t="n">
-        <v>1564889.245230587</v>
+        <v>-41698.29438684441</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5094,22 +4912,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>17.31</v>
+        <v>14.62</v>
       </c>
       <c r="C113" t="n">
-        <v>17.4</v>
+        <v>14.63</v>
       </c>
       <c r="D113" t="n">
-        <v>17.49</v>
+        <v>14.63</v>
       </c>
       <c r="E113" t="n">
-        <v>17.3</v>
+        <v>14.4</v>
       </c>
       <c r="F113" t="n">
-        <v>195629.6346</v>
+        <v>2056</v>
       </c>
       <c r="G113" t="n">
-        <v>1760518.879830587</v>
+        <v>-41698.29438684441</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5119,7 +4937,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5130,22 +4952,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>17.4</v>
+        <v>14.6</v>
       </c>
       <c r="C114" t="n">
-        <v>17.4</v>
+        <v>14.65</v>
       </c>
       <c r="D114" t="n">
-        <v>17.4</v>
+        <v>14.65</v>
       </c>
       <c r="E114" t="n">
-        <v>17.3</v>
+        <v>14.6</v>
       </c>
       <c r="F114" t="n">
-        <v>129449.6134</v>
+        <v>40604.0257</v>
       </c>
       <c r="G114" t="n">
-        <v>1760518.879830587</v>
+        <v>-1094.268686844414</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5155,7 +4977,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5166,22 +4992,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>17.23</v>
+        <v>14.69</v>
       </c>
       <c r="C115" t="n">
-        <v>17.4</v>
+        <v>14.6</v>
       </c>
       <c r="D115" t="n">
-        <v>17.4</v>
+        <v>14.7</v>
       </c>
       <c r="E115" t="n">
-        <v>17.23</v>
+        <v>14.6</v>
       </c>
       <c r="F115" t="n">
-        <v>14091.21111839081</v>
+        <v>49330.2767</v>
       </c>
       <c r="G115" t="n">
-        <v>1760518.879830587</v>
+        <v>-50424.54538684442</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5191,7 +5017,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5202,22 +5032,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>17.4</v>
+        <v>14.59</v>
       </c>
       <c r="C116" t="n">
-        <v>17.4</v>
+        <v>14.59</v>
       </c>
       <c r="D116" t="n">
-        <v>17.4</v>
+        <v>14.59</v>
       </c>
       <c r="E116" t="n">
-        <v>17.4</v>
+        <v>14.59</v>
       </c>
       <c r="F116" t="n">
-        <v>190.9772</v>
+        <v>1291.3172</v>
       </c>
       <c r="G116" t="n">
-        <v>1760518.879830587</v>
+        <v>-51715.86258684441</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5227,7 +5057,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5238,22 +5072,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>17.22</v>
+        <v>14.6</v>
       </c>
       <c r="C117" t="n">
-        <v>17.25</v>
+        <v>14.59</v>
       </c>
       <c r="D117" t="n">
-        <v>17.25</v>
+        <v>14.6</v>
       </c>
       <c r="E117" t="n">
-        <v>17.22</v>
+        <v>14.59</v>
       </c>
       <c r="F117" t="n">
-        <v>70342.9997</v>
+        <v>33066.4492</v>
       </c>
       <c r="G117" t="n">
-        <v>1690175.880130587</v>
+        <v>-51715.86258684441</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5263,7 +5097,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5274,22 +5112,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>17.22</v>
+        <v>14.6</v>
       </c>
       <c r="C118" t="n">
-        <v>16.54</v>
+        <v>14.7</v>
       </c>
       <c r="D118" t="n">
-        <v>17.25</v>
+        <v>14.7</v>
       </c>
       <c r="E118" t="n">
-        <v>16.54</v>
+        <v>14.6</v>
       </c>
       <c r="F118" t="n">
-        <v>141962.7001</v>
+        <v>15113.4659</v>
       </c>
       <c r="G118" t="n">
-        <v>1548213.180030587</v>
+        <v>-36602.39668684441</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5299,7 +5137,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5310,22 +5152,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>16.6</v>
+        <v>14.6</v>
       </c>
       <c r="C119" t="n">
-        <v>16.6</v>
+        <v>14.6</v>
       </c>
       <c r="D119" t="n">
-        <v>16.6</v>
+        <v>14.6</v>
       </c>
       <c r="E119" t="n">
-        <v>16.6</v>
+        <v>14.6</v>
       </c>
       <c r="F119" t="n">
-        <v>23178.0983</v>
+        <v>52445.3513</v>
       </c>
       <c r="G119" t="n">
-        <v>1571391.278330587</v>
+        <v>-89047.74798684442</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5335,7 +5177,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5346,22 +5192,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>16.66</v>
+        <v>14.5</v>
       </c>
       <c r="C120" t="n">
-        <v>16.35</v>
+        <v>14.5</v>
       </c>
       <c r="D120" t="n">
-        <v>16.66</v>
+        <v>14.5</v>
       </c>
       <c r="E120" t="n">
-        <v>16.35</v>
+        <v>14.5</v>
       </c>
       <c r="F120" t="n">
-        <v>135443.011</v>
+        <v>674.3525</v>
       </c>
       <c r="G120" t="n">
-        <v>1435948.267330587</v>
+        <v>-89722.10048684441</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5371,7 +5217,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5382,22 +5232,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>16.35</v>
+        <v>14.6</v>
       </c>
       <c r="C121" t="n">
-        <v>15.97</v>
+        <v>14.69</v>
       </c>
       <c r="D121" t="n">
-        <v>16.35</v>
+        <v>14.69</v>
       </c>
       <c r="E121" t="n">
-        <v>15.97</v>
+        <v>14.6</v>
       </c>
       <c r="F121" t="n">
-        <v>176903.4046</v>
+        <v>14744.77139040163</v>
       </c>
       <c r="G121" t="n">
-        <v>1259044.862730587</v>
+        <v>-74977.32909644279</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5407,7 +5257,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5418,22 +5272,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>16.2</v>
+        <v>14.51</v>
       </c>
       <c r="C122" t="n">
-        <v>16.11</v>
+        <v>14.3</v>
       </c>
       <c r="D122" t="n">
-        <v>16.2</v>
+        <v>14.51</v>
       </c>
       <c r="E122" t="n">
-        <v>16.11</v>
+        <v>14.3</v>
       </c>
       <c r="F122" t="n">
-        <v>19341.0434</v>
+        <v>15111.2271</v>
       </c>
       <c r="G122" t="n">
-        <v>1278385.906130587</v>
+        <v>-90088.55619644279</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5443,7 +5297,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5454,22 +5312,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.77</v>
+        <v>14.59</v>
       </c>
       <c r="C123" t="n">
-        <v>16.18</v>
+        <v>14.59</v>
       </c>
       <c r="D123" t="n">
-        <v>16.18</v>
+        <v>14.59</v>
       </c>
       <c r="E123" t="n">
-        <v>15.77</v>
+        <v>14.59</v>
       </c>
       <c r="F123" t="n">
-        <v>55901.0256</v>
+        <v>694.6746000000001</v>
       </c>
       <c r="G123" t="n">
-        <v>1334286.931730587</v>
+        <v>-89393.88159644279</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5479,7 +5337,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5490,22 +5352,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>16.04</v>
+        <v>14.3</v>
       </c>
       <c r="C124" t="n">
-        <v>16.04</v>
+        <v>14.59</v>
       </c>
       <c r="D124" t="n">
-        <v>16.04</v>
+        <v>14.59</v>
       </c>
       <c r="E124" t="n">
-        <v>16</v>
+        <v>14.3</v>
       </c>
       <c r="F124" t="n">
-        <v>89652.99739999999</v>
+        <v>10538.0203</v>
       </c>
       <c r="G124" t="n">
-        <v>1244633.934330587</v>
+        <v>-89393.88159644279</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5515,7 +5377,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5526,22 +5392,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>15.9</v>
+        <v>14.59</v>
       </c>
       <c r="C125" t="n">
-        <v>16</v>
+        <v>14.6</v>
       </c>
       <c r="D125" t="n">
-        <v>16.68</v>
+        <v>14.6</v>
       </c>
       <c r="E125" t="n">
-        <v>15.9</v>
+        <v>14.59</v>
       </c>
       <c r="F125" t="n">
-        <v>38527.757</v>
+        <v>32974.0847</v>
       </c>
       <c r="G125" t="n">
-        <v>1206106.177330587</v>
+        <v>-56419.79689644279</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5551,7 +5417,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5562,22 +5432,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>16.01</v>
+        <v>14.4</v>
       </c>
       <c r="C126" t="n">
-        <v>15.9</v>
+        <v>14.4</v>
       </c>
       <c r="D126" t="n">
-        <v>16.01</v>
+        <v>14.4</v>
       </c>
       <c r="E126" t="n">
-        <v>15.9</v>
+        <v>14.4</v>
       </c>
       <c r="F126" t="n">
-        <v>62688.7996</v>
+        <v>308.0367</v>
       </c>
       <c r="G126" t="n">
-        <v>1143417.377730587</v>
+        <v>-56727.83359644279</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5587,7 +5457,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5598,22 +5472,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>16.01</v>
+        <v>14.3</v>
       </c>
       <c r="C127" t="n">
-        <v>15.89</v>
+        <v>14.3</v>
       </c>
       <c r="D127" t="n">
-        <v>16.01</v>
+        <v>14.3</v>
       </c>
       <c r="E127" t="n">
-        <v>15.89</v>
+        <v>14.3</v>
       </c>
       <c r="F127" t="n">
-        <v>112389.6981</v>
+        <v>1384.1126</v>
       </c>
       <c r="G127" t="n">
-        <v>1031027.679630587</v>
+        <v>-58111.94619644279</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5623,7 +5497,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5634,22 +5512,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>15.79</v>
+        <v>14.3</v>
       </c>
       <c r="C128" t="n">
-        <v>15.8</v>
+        <v>14.3</v>
       </c>
       <c r="D128" t="n">
-        <v>15.8</v>
+        <v>14.3</v>
       </c>
       <c r="E128" t="n">
-        <v>15.79</v>
+        <v>14.3</v>
       </c>
       <c r="F128" t="n">
-        <v>25278.0926</v>
+        <v>30000</v>
       </c>
       <c r="G128" t="n">
-        <v>1005749.587030587</v>
+        <v>-58111.94619644279</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5659,7 +5537,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5670,22 +5552,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>15.5</v>
+        <v>14.3</v>
       </c>
       <c r="C129" t="n">
-        <v>15.35</v>
+        <v>14.3</v>
       </c>
       <c r="D129" t="n">
-        <v>15.5</v>
+        <v>14.3</v>
       </c>
       <c r="E129" t="n">
-        <v>15.35</v>
+        <v>14.3</v>
       </c>
       <c r="F129" t="n">
-        <v>368924.4041</v>
+        <v>44.5196</v>
       </c>
       <c r="G129" t="n">
-        <v>636825.1829305869</v>
+        <v>-58111.94619644279</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5695,7 +5577,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5706,22 +5592,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>15.19</v>
+        <v>14.4</v>
       </c>
       <c r="C130" t="n">
-        <v>15.99</v>
+        <v>14.4</v>
       </c>
       <c r="D130" t="n">
-        <v>15.99</v>
+        <v>14.4</v>
       </c>
       <c r="E130" t="n">
-        <v>15.19</v>
+        <v>14.4</v>
       </c>
       <c r="F130" t="n">
-        <v>232761.7548</v>
+        <v>21862.5578</v>
       </c>
       <c r="G130" t="n">
-        <v>869586.9377305869</v>
+        <v>-36249.3883964428</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5731,7 +5617,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5742,22 +5632,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>15.7</v>
+        <v>14.65</v>
       </c>
       <c r="C131" t="n">
-        <v>15.8</v>
+        <v>14.65</v>
       </c>
       <c r="D131" t="n">
-        <v>15.8</v>
+        <v>14.65</v>
       </c>
       <c r="E131" t="n">
-        <v>15.7</v>
+        <v>14.65</v>
       </c>
       <c r="F131" t="n">
-        <v>66618.2969</v>
+        <v>10540</v>
       </c>
       <c r="G131" t="n">
-        <v>802968.6408305869</v>
+        <v>-25709.3883964428</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5767,7 +5657,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5778,22 +5672,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>15.8</v>
+        <v>14.65</v>
       </c>
       <c r="C132" t="n">
-        <v>15.69</v>
+        <v>14.65</v>
       </c>
       <c r="D132" t="n">
-        <v>15.8</v>
+        <v>14.65</v>
       </c>
       <c r="E132" t="n">
-        <v>15.6</v>
+        <v>14.65</v>
       </c>
       <c r="F132" t="n">
-        <v>9995.953862025317</v>
+        <v>13953.8193</v>
       </c>
       <c r="G132" t="n">
-        <v>792972.6869685616</v>
+        <v>-25709.3883964428</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5803,7 +5697,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5814,22 +5712,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>15.52</v>
+        <v>14.65</v>
       </c>
       <c r="C133" t="n">
-        <v>15.6</v>
+        <v>14.65</v>
       </c>
       <c r="D133" t="n">
-        <v>15.6</v>
+        <v>14.65</v>
       </c>
       <c r="E133" t="n">
-        <v>15.51</v>
+        <v>14.65</v>
       </c>
       <c r="F133" t="n">
-        <v>109715.3552</v>
+        <v>10000</v>
       </c>
       <c r="G133" t="n">
-        <v>683257.3317685616</v>
+        <v>-25709.3883964428</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5839,7 +5737,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5850,22 +5752,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>15.51</v>
+        <v>14.65</v>
       </c>
       <c r="C134" t="n">
-        <v>15.51</v>
+        <v>14.65</v>
       </c>
       <c r="D134" t="n">
-        <v>15.6</v>
+        <v>14.65</v>
       </c>
       <c r="E134" t="n">
-        <v>15.5</v>
+        <v>14.65</v>
       </c>
       <c r="F134" t="n">
-        <v>109462.9423</v>
+        <v>217.3528</v>
       </c>
       <c r="G134" t="n">
-        <v>573794.3894685616</v>
+        <v>-25709.3883964428</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5875,7 +5777,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5886,22 +5792,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>15.51</v>
+        <v>14.4</v>
       </c>
       <c r="C135" t="n">
-        <v>14.93</v>
+        <v>14.4</v>
       </c>
       <c r="D135" t="n">
-        <v>15.51</v>
+        <v>14.4</v>
       </c>
       <c r="E135" t="n">
-        <v>14.93</v>
+        <v>14.4</v>
       </c>
       <c r="F135" t="n">
-        <v>51463.7229</v>
+        <v>1422.0028</v>
       </c>
       <c r="G135" t="n">
-        <v>522330.6665685616</v>
+        <v>-27131.39119644279</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5911,7 +5817,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5922,22 +5832,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="C136" t="n">
-        <v>15.6</v>
+        <v>14.64</v>
       </c>
       <c r="D136" t="n">
-        <v>15.6</v>
+        <v>14.64</v>
       </c>
       <c r="E136" t="n">
-        <v>15.11</v>
+        <v>14.6</v>
       </c>
       <c r="F136" t="n">
-        <v>326482.1645</v>
+        <v>8106.5781</v>
       </c>
       <c r="G136" t="n">
-        <v>848812.8310685616</v>
+        <v>-19024.81309644279</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5947,7 +5857,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5958,22 +5872,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>15.56</v>
+        <v>14.64</v>
       </c>
       <c r="C137" t="n">
-        <v>15.31</v>
+        <v>14.65</v>
       </c>
       <c r="D137" t="n">
-        <v>15.56</v>
+        <v>14.65</v>
       </c>
       <c r="E137" t="n">
-        <v>15.31</v>
+        <v>14.64</v>
       </c>
       <c r="F137" t="n">
-        <v>71370.3976</v>
+        <v>47761.3557</v>
       </c>
       <c r="G137" t="n">
-        <v>777442.4334685616</v>
+        <v>28736.54260355721</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5983,7 +5897,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5994,22 +5912,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>15.15</v>
+        <v>14.65</v>
       </c>
       <c r="C138" t="n">
-        <v>15.16</v>
+        <v>14.65</v>
       </c>
       <c r="D138" t="n">
-        <v>15.16</v>
+        <v>14.65</v>
       </c>
       <c r="E138" t="n">
-        <v>15.14</v>
+        <v>14.65</v>
       </c>
       <c r="F138" t="n">
-        <v>376532.8567</v>
+        <v>22105.1943</v>
       </c>
       <c r="G138" t="n">
-        <v>400909.5767685616</v>
+        <v>28736.54260355721</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -6019,7 +5937,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6030,22 +5952,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>15.39</v>
+        <v>14.7</v>
       </c>
       <c r="C139" t="n">
-        <v>15.39</v>
+        <v>14.7</v>
       </c>
       <c r="D139" t="n">
-        <v>15.39</v>
+        <v>14.7</v>
       </c>
       <c r="E139" t="n">
-        <v>15.39</v>
+        <v>14.7</v>
       </c>
       <c r="F139" t="n">
-        <v>168622.6201</v>
+        <v>3074.971</v>
       </c>
       <c r="G139" t="n">
-        <v>569532.1968685617</v>
+        <v>31811.51360355721</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6055,7 +5977,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6066,22 +5992,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>15.51</v>
+        <v>14.69</v>
       </c>
       <c r="C140" t="n">
-        <v>15.69</v>
+        <v>14.65</v>
       </c>
       <c r="D140" t="n">
-        <v>15.69</v>
+        <v>14.99</v>
       </c>
       <c r="E140" t="n">
-        <v>15.5</v>
+        <v>14.65</v>
       </c>
       <c r="F140" t="n">
-        <v>28637.9371</v>
+        <v>108767.4197</v>
       </c>
       <c r="G140" t="n">
-        <v>598170.1339685617</v>
+        <v>-76955.90609644279</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6091,7 +6017,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6102,22 +6032,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>15.5</v>
+        <v>14.65</v>
       </c>
       <c r="C141" t="n">
-        <v>15.4</v>
+        <v>14.99</v>
       </c>
       <c r="D141" t="n">
-        <v>15.5</v>
+        <v>14.99</v>
       </c>
       <c r="E141" t="n">
-        <v>15.4</v>
+        <v>14.65</v>
       </c>
       <c r="F141" t="n">
-        <v>55421.3455</v>
+        <v>24499.8872</v>
       </c>
       <c r="G141" t="n">
-        <v>542748.7884685616</v>
+        <v>-52456.01889644279</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6127,7 +6057,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6138,22 +6072,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>15.49</v>
+        <v>14.9</v>
       </c>
       <c r="C142" t="n">
-        <v>15.46</v>
+        <v>14.99</v>
       </c>
       <c r="D142" t="n">
-        <v>15.49</v>
+        <v>14.99</v>
       </c>
       <c r="E142" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="F142" t="n">
-        <v>84401.11500000001</v>
+        <v>942.2618</v>
       </c>
       <c r="G142" t="n">
-        <v>627149.9034685616</v>
+        <v>-52456.01889644279</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6163,7 +6097,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6174,22 +6112,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>15.46</v>
+        <v>14.99</v>
       </c>
       <c r="C143" t="n">
-        <v>15.8</v>
+        <v>15</v>
       </c>
       <c r="D143" t="n">
-        <v>15.8</v>
+        <v>15</v>
       </c>
       <c r="E143" t="n">
-        <v>15.46</v>
+        <v>14.99</v>
       </c>
       <c r="F143" t="n">
-        <v>138208.356</v>
+        <v>93813.97689999999</v>
       </c>
       <c r="G143" t="n">
-        <v>765358.2594685616</v>
+        <v>41357.9580035572</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6199,7 +6137,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6210,22 +6152,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="C144" t="n">
-        <v>15.46</v>
+        <v>15.1</v>
       </c>
       <c r="D144" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="E144" t="n">
-        <v>15.46</v>
+        <v>14.8</v>
       </c>
       <c r="F144" t="n">
-        <v>22405.8672</v>
+        <v>10043.4937</v>
       </c>
       <c r="G144" t="n">
-        <v>742952.3922685616</v>
+        <v>51401.4517035572</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6235,7 +6177,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6246,22 +6192,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>15.46</v>
+        <v>15.1</v>
       </c>
       <c r="C145" t="n">
-        <v>15.7</v>
+        <v>15.01</v>
       </c>
       <c r="D145" t="n">
-        <v>15.7</v>
+        <v>15.1</v>
       </c>
       <c r="E145" t="n">
-        <v>15.46</v>
+        <v>15</v>
       </c>
       <c r="F145" t="n">
-        <v>69138.6517</v>
+        <v>46562.2098</v>
       </c>
       <c r="G145" t="n">
-        <v>812091.0439685617</v>
+        <v>4839.241903557202</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6271,7 +6217,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6282,22 +6232,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>15.77</v>
+        <v>15.19</v>
       </c>
       <c r="C146" t="n">
-        <v>15.77</v>
+        <v>15.55</v>
       </c>
       <c r="D146" t="n">
-        <v>15.77</v>
+        <v>15.55</v>
       </c>
       <c r="E146" t="n">
-        <v>15.77</v>
+        <v>15.01</v>
       </c>
       <c r="F146" t="n">
-        <v>108</v>
+        <v>9934.4522</v>
       </c>
       <c r="G146" t="n">
-        <v>812199.0439685617</v>
+        <v>14773.6941035572</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6307,7 +6257,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6318,22 +6272,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>15.75</v>
+        <v>15.3</v>
       </c>
       <c r="C147" t="n">
-        <v>15.75</v>
+        <v>15.48</v>
       </c>
       <c r="D147" t="n">
-        <v>15.75</v>
+        <v>15.55</v>
       </c>
       <c r="E147" t="n">
-        <v>15.75</v>
+        <v>15.21</v>
       </c>
       <c r="F147" t="n">
-        <v>6060.3345</v>
+        <v>45356.2314</v>
       </c>
       <c r="G147" t="n">
-        <v>806138.7094685617</v>
+        <v>-30582.5372964428</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6343,7 +6297,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6357,19 +6315,19 @@
         <v>15.31</v>
       </c>
       <c r="C148" t="n">
-        <v>15.31</v>
+        <v>15.48</v>
       </c>
       <c r="D148" t="n">
-        <v>15.31</v>
+        <v>15.48</v>
       </c>
       <c r="E148" t="n">
-        <v>15.31</v>
+        <v>15.22</v>
       </c>
       <c r="F148" t="n">
-        <v>5126.3128</v>
+        <v>16247.3346</v>
       </c>
       <c r="G148" t="n">
-        <v>801012.3966685617</v>
+        <v>-30582.5372964428</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6379,7 +6337,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6390,22 +6352,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>15.4</v>
+        <v>15.48</v>
       </c>
       <c r="C149" t="n">
-        <v>15.4</v>
+        <v>15.48</v>
       </c>
       <c r="D149" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E149" t="n">
-        <v>15.4</v>
+        <v>15.48</v>
       </c>
       <c r="F149" t="n">
-        <v>2998.3245</v>
+        <v>72631.4556</v>
       </c>
       <c r="G149" t="n">
-        <v>804010.7211685617</v>
+        <v>-30582.5372964428</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6415,7 +6377,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6426,22 +6392,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>15.31</v>
+        <v>15.5</v>
       </c>
       <c r="C150" t="n">
-        <v>15.3</v>
+        <v>15.99</v>
       </c>
       <c r="D150" t="n">
-        <v>15.4</v>
+        <v>15.99</v>
       </c>
       <c r="E150" t="n">
-        <v>15.3</v>
+        <v>15.48</v>
       </c>
       <c r="F150" t="n">
-        <v>33993.0619</v>
+        <v>99780.4106</v>
       </c>
       <c r="G150" t="n">
-        <v>770017.6592685618</v>
+        <v>69197.87330355721</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6451,7 +6417,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6462,22 +6432,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>15.3</v>
+        <v>15.99</v>
       </c>
       <c r="C151" t="n">
-        <v>15.3</v>
+        <v>15.99</v>
       </c>
       <c r="D151" t="n">
-        <v>15.3</v>
+        <v>15.99</v>
       </c>
       <c r="E151" t="n">
-        <v>15.3</v>
+        <v>15.99</v>
       </c>
       <c r="F151" t="n">
-        <v>20114.9577</v>
+        <v>87.77800000000001</v>
       </c>
       <c r="G151" t="n">
-        <v>770017.6592685618</v>
+        <v>69197.87330355721</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6487,7 +6457,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6498,22 +6472,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>15.3</v>
+        <v>15.99</v>
       </c>
       <c r="C152" t="n">
-        <v>15.23</v>
+        <v>16.9</v>
       </c>
       <c r="D152" t="n">
-        <v>15.4</v>
+        <v>16.9</v>
       </c>
       <c r="E152" t="n">
-        <v>15.23</v>
+        <v>15.99</v>
       </c>
       <c r="F152" t="n">
-        <v>177364.7921</v>
+        <v>80829.4951</v>
       </c>
       <c r="G152" t="n">
-        <v>592652.8671685618</v>
+        <v>150027.3684035572</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6523,7 +6497,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6534,22 +6512,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>15.24</v>
+        <v>16</v>
       </c>
       <c r="C153" t="n">
-        <v>15.24</v>
+        <v>16.8</v>
       </c>
       <c r="D153" t="n">
-        <v>15.24</v>
+        <v>16.81</v>
       </c>
       <c r="E153" t="n">
-        <v>15.24</v>
+        <v>15.99</v>
       </c>
       <c r="F153" t="n">
-        <v>4439.9536</v>
+        <v>236000.4531</v>
       </c>
       <c r="G153" t="n">
-        <v>597092.8207685618</v>
+        <v>-85973.08469644279</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6559,7 +6537,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6570,22 +6552,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>15.24</v>
+        <v>16.8</v>
       </c>
       <c r="C154" t="n">
-        <v>15.23</v>
+        <v>16.82</v>
       </c>
       <c r="D154" t="n">
-        <v>15.24</v>
+        <v>16.82</v>
       </c>
       <c r="E154" t="n">
-        <v>15.23</v>
+        <v>16.8</v>
       </c>
       <c r="F154" t="n">
-        <v>32019.3859</v>
+        <v>216113.5291</v>
       </c>
       <c r="G154" t="n">
-        <v>565073.4348685618</v>
+        <v>130140.4444035572</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6595,7 +6577,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6606,22 +6592,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>15.08</v>
+        <v>16.82</v>
       </c>
       <c r="C155" t="n">
-        <v>15.01</v>
+        <v>16.83</v>
       </c>
       <c r="D155" t="n">
-        <v>15.08</v>
+        <v>16.83</v>
       </c>
       <c r="E155" t="n">
-        <v>15.01</v>
+        <v>16.82</v>
       </c>
       <c r="F155" t="n">
-        <v>243017.2588</v>
+        <v>96370.7071</v>
       </c>
       <c r="G155" t="n">
-        <v>322056.1760685618</v>
+        <v>226511.1515035572</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6631,7 +6617,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6642,22 +6632,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>15.03</v>
+        <v>16.9</v>
       </c>
       <c r="C156" t="n">
-        <v>15.1</v>
+        <v>16.83</v>
       </c>
       <c r="D156" t="n">
-        <v>15.1</v>
+        <v>16.9</v>
       </c>
       <c r="E156" t="n">
-        <v>15.02</v>
+        <v>16.83</v>
       </c>
       <c r="F156" t="n">
-        <v>69105.1367</v>
+        <v>91137.8622</v>
       </c>
       <c r="G156" t="n">
-        <v>391161.3127685618</v>
+        <v>226511.1515035572</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6667,7 +6657,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6678,22 +6672,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>15.03</v>
+        <v>16.83</v>
       </c>
       <c r="C157" t="n">
-        <v>15.03</v>
+        <v>16.83</v>
       </c>
       <c r="D157" t="n">
-        <v>15.03</v>
+        <v>16.92</v>
       </c>
       <c r="E157" t="n">
-        <v>15.03</v>
+        <v>16.83</v>
       </c>
       <c r="F157" t="n">
-        <v>6005.7272</v>
+        <v>63453.8758</v>
       </c>
       <c r="G157" t="n">
-        <v>385155.5855685617</v>
+        <v>226511.1515035572</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6703,7 +6697,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6714,22 +6712,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>15.1</v>
+        <v>16.82</v>
       </c>
       <c r="C158" t="n">
-        <v>15.19</v>
+        <v>16.82</v>
       </c>
       <c r="D158" t="n">
-        <v>15.19</v>
+        <v>16.82</v>
       </c>
       <c r="E158" t="n">
-        <v>15.1</v>
+        <v>16.82</v>
       </c>
       <c r="F158" t="n">
-        <v>117605.129</v>
+        <v>5932.3743</v>
       </c>
       <c r="G158" t="n">
-        <v>502760.7145685618</v>
+        <v>220578.7772035572</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6739,7 +6737,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6750,22 +6752,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>15.33</v>
+        <v>16.82</v>
       </c>
       <c r="C159" t="n">
-        <v>15.33</v>
+        <v>16.92</v>
       </c>
       <c r="D159" t="n">
-        <v>15.33</v>
+        <v>16.92</v>
       </c>
       <c r="E159" t="n">
-        <v>15.33</v>
+        <v>16.82</v>
       </c>
       <c r="F159" t="n">
-        <v>33</v>
+        <v>60405.8412</v>
       </c>
       <c r="G159" t="n">
-        <v>502793.7145685618</v>
+        <v>280984.6184035572</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6775,7 +6777,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6786,22 +6792,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>15.33</v>
+        <v>16.92</v>
       </c>
       <c r="C160" t="n">
-        <v>15.33</v>
+        <v>16.98</v>
       </c>
       <c r="D160" t="n">
-        <v>15.4</v>
+        <v>16.98</v>
       </c>
       <c r="E160" t="n">
-        <v>15.33</v>
+        <v>16.92</v>
       </c>
       <c r="F160" t="n">
-        <v>51463.9726</v>
+        <v>36145.4542</v>
       </c>
       <c r="G160" t="n">
-        <v>502793.7145685618</v>
+        <v>317130.0726035572</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6811,7 +6817,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6822,22 +6832,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>15.49</v>
+        <v>16.95</v>
       </c>
       <c r="C161" t="n">
-        <v>15.29</v>
+        <v>16.95</v>
       </c>
       <c r="D161" t="n">
-        <v>15.49</v>
+        <v>16.95</v>
       </c>
       <c r="E161" t="n">
-        <v>15.14</v>
+        <v>16.95</v>
       </c>
       <c r="F161" t="n">
-        <v>38460.8249</v>
+        <v>18190.066</v>
       </c>
       <c r="G161" t="n">
-        <v>464332.8896685618</v>
+        <v>298940.0066035572</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6847,11 +6857,2605 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
       <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="C162" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="F162" t="n">
+        <v>240464.3477</v>
+      </c>
+      <c r="G162" t="n">
+        <v>539404.3543035572</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C163" t="n">
+        <v>18</v>
+      </c>
+      <c r="D163" t="n">
+        <v>18</v>
+      </c>
+      <c r="E163" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F163" t="n">
+        <v>603559.9708</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1142964.325103557</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C164" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="D164" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="E164" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>388828.3674826944</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1531792.692586252</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="C165" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E165" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="F165" t="n">
+        <v>833624.8976173056</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2365417.590203557</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C166" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="D166" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="F166" t="n">
+        <v>264061.2491</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2101356.341103557</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="C167" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="D167" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="E167" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="F167" t="n">
+        <v>209737.3774</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2311093.718503557</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="C168" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D168" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="E168" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F168" t="n">
+        <v>607101.0624000001</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2918194.780903557</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C169" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="D169" t="n">
+        <v>21</v>
+      </c>
+      <c r="E169" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1407281.062688143</v>
+      </c>
+      <c r="G169" t="n">
+        <v>4325475.8435917</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="C170" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="E170" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="F170" t="n">
+        <v>233407.235</v>
+      </c>
+      <c r="G170" t="n">
+        <v>4092068.6085917</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="D171" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="E171" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="F171" t="n">
+        <v>180493.293638806</v>
+      </c>
+      <c r="G171" t="n">
+        <v>3911575.314952895</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="C172" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="D172" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="E172" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1450822.6371</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2460752.677852895</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="C173" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="D173" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="E173" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="F173" t="n">
+        <v>37941.87847769169</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2498694.556330586</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C174" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="D174" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="E174" t="n">
+        <v>18</v>
+      </c>
+      <c r="F174" t="n">
+        <v>415352.2361</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2083342.320230586</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="C175" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="D175" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="E175" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10736.915</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2072605.405230586</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="C176" t="n">
+        <v>18</v>
+      </c>
+      <c r="D176" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="E176" t="n">
+        <v>18</v>
+      </c>
+      <c r="F176" t="n">
+        <v>84429.4666</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1988175.938630586</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>18</v>
+      </c>
+      <c r="C177" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="D177" t="n">
+        <v>18</v>
+      </c>
+      <c r="E177" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="F177" t="n">
+        <v>140246.731</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1847929.207630587</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>18</v>
+      </c>
+      <c r="C178" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E178" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>17763.7796</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1865692.987230587</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="C179" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="D179" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="E179" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="F179" t="n">
+        <v>89612.9063</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1776080.080930587</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="C180" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="D180" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="F180" t="n">
+        <v>221242.4338</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1554837.647130587</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D181" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E181" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F181" t="n">
+        <v>12044.5028</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1566882.149930587</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C182" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D182" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F182" t="n">
+        <v>77713.05190000001</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1644595.201830587</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C183" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="D183" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="F183" t="n">
+        <v>79705.9566</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1564889.245230587</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="C184" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D184" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="E184" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F184" t="n">
+        <v>195629.6346</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1760518.879830587</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C185" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D185" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E185" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F185" t="n">
+        <v>129449.6134</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1760518.879830587</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="C186" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D186" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E186" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="F186" t="n">
+        <v>14091.21111839081</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1760518.879830587</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C187" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D187" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E187" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F187" t="n">
+        <v>190.9772</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1760518.879830587</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="C188" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="D188" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="E188" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="F188" t="n">
+        <v>70342.9997</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1690175.880130587</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="C189" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="D189" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="E189" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="F189" t="n">
+        <v>141962.7001</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1548213.180030587</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C190" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D190" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E190" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F190" t="n">
+        <v>23178.0983</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1571391.278330587</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="C191" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="D191" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="E191" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="F191" t="n">
+        <v>135443.011</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1435948.267330587</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="C192" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="D192" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="E192" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="F192" t="n">
+        <v>176903.4046</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1259044.862730587</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="D193" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E193" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="F193" t="n">
+        <v>19341.0434</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1278385.906130587</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="C194" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="D194" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="E194" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="F194" t="n">
+        <v>55901.0256</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1334286.931730587</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="C195" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="D195" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="E195" t="n">
+        <v>16</v>
+      </c>
+      <c r="F195" t="n">
+        <v>89652.99739999999</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1244633.934330587</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C196" t="n">
+        <v>16</v>
+      </c>
+      <c r="D196" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="E196" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F196" t="n">
+        <v>38527.757</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1206106.177330587</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="C197" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D197" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="E197" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F197" t="n">
+        <v>62688.7996</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1143417.377730587</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="C198" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="D198" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="E198" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="F198" t="n">
+        <v>112389.6981</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1031027.679630587</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="C199" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D199" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E199" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="F199" t="n">
+        <v>25278.0926</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1005749.587030587</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C200" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="D200" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E200" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="F200" t="n">
+        <v>368924.4041</v>
+      </c>
+      <c r="G200" t="n">
+        <v>636825.1829305869</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="C201" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="D201" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="E201" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="F201" t="n">
+        <v>232761.7548</v>
+      </c>
+      <c r="G201" t="n">
+        <v>869586.9377305869</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C202" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D202" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E202" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F202" t="n">
+        <v>66618.2969</v>
+      </c>
+      <c r="G202" t="n">
+        <v>802968.6408305869</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C203" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="D203" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E203" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F203" t="n">
+        <v>9995.953862025317</v>
+      </c>
+      <c r="G203" t="n">
+        <v>792972.6869685616</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="C204" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D204" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E204" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="F204" t="n">
+        <v>109715.3552</v>
+      </c>
+      <c r="G204" t="n">
+        <v>683257.3317685616</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="C205" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="D205" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E205" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F205" t="n">
+        <v>109462.9423</v>
+      </c>
+      <c r="G205" t="n">
+        <v>573794.3894685616</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="C206" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="D206" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="E206" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="F206" t="n">
+        <v>51463.7229</v>
+      </c>
+      <c r="G206" t="n">
+        <v>522330.6665685616</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C207" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D207" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E207" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="F207" t="n">
+        <v>326482.1645</v>
+      </c>
+      <c r="G207" t="n">
+        <v>848812.8310685616</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="C208" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="D208" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="E208" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="F208" t="n">
+        <v>71370.3976</v>
+      </c>
+      <c r="G208" t="n">
+        <v>777442.4334685616</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="C209" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="D209" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="E209" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="F209" t="n">
+        <v>376532.8567</v>
+      </c>
+      <c r="G209" t="n">
+        <v>400909.5767685616</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="C210" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="D210" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="E210" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="F210" t="n">
+        <v>168622.6201</v>
+      </c>
+      <c r="G210" t="n">
+        <v>569532.1968685617</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="C211" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="D211" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="E211" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F211" t="n">
+        <v>28637.9371</v>
+      </c>
+      <c r="G211" t="n">
+        <v>598170.1339685617</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C212" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D212" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E212" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F212" t="n">
+        <v>55421.3455</v>
+      </c>
+      <c r="G212" t="n">
+        <v>542748.7884685616</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="C213" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="D213" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="E213" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F213" t="n">
+        <v>84401.11500000001</v>
+      </c>
+      <c r="G213" t="n">
+        <v>627149.9034685616</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="C214" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D214" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E214" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="F214" t="n">
+        <v>138208.356</v>
+      </c>
+      <c r="G214" t="n">
+        <v>765358.2594685616</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C215" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="D215" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E215" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="F215" t="n">
+        <v>22405.8672</v>
+      </c>
+      <c r="G215" t="n">
+        <v>742952.3922685616</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="C216" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D216" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E216" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="F216" t="n">
+        <v>69138.6517</v>
+      </c>
+      <c r="G216" t="n">
+        <v>812091.0439685617</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="C217" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="D217" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="E217" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="F217" t="n">
+        <v>108</v>
+      </c>
+      <c r="G217" t="n">
+        <v>812199.0439685617</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="C218" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="D218" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="E218" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="F218" t="n">
+        <v>6060.3345</v>
+      </c>
+      <c r="G218" t="n">
+        <v>806138.7094685617</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="C219" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="D219" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="E219" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="F219" t="n">
+        <v>5126.3128</v>
+      </c>
+      <c r="G219" t="n">
+        <v>801012.3966685617</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C220" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D220" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E220" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2998.3245</v>
+      </c>
+      <c r="G220" t="n">
+        <v>804010.7211685617</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="C221" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D221" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E221" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F221" t="n">
+        <v>33993.0619</v>
+      </c>
+      <c r="G221" t="n">
+        <v>770017.6592685618</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C222" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D222" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E222" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F222" t="n">
+        <v>20114.9577</v>
+      </c>
+      <c r="G222" t="n">
+        <v>770017.6592685618</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C223" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="D223" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E223" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="F223" t="n">
+        <v>177364.7921</v>
+      </c>
+      <c r="G223" t="n">
+        <v>592652.8671685618</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="C224" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="D224" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="E224" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="F224" t="n">
+        <v>4439.9536</v>
+      </c>
+      <c r="G224" t="n">
+        <v>597092.8207685618</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="C225" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="D225" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="E225" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="F225" t="n">
+        <v>32019.3859</v>
+      </c>
+      <c r="G225" t="n">
+        <v>565073.4348685618</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="C226" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="D226" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="E226" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="F226" t="n">
+        <v>243017.2588</v>
+      </c>
+      <c r="G226" t="n">
+        <v>322056.1760685618</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="C227" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D227" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E227" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="F227" t="n">
+        <v>69105.1367</v>
+      </c>
+      <c r="G227" t="n">
+        <v>391161.3127685618</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="C228" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="D228" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="E228" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="F228" t="n">
+        <v>6005.7272</v>
+      </c>
+      <c r="G228" t="n">
+        <v>385155.5855685617</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="D229" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="E229" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>117605.129</v>
+      </c>
+      <c r="G229" t="n">
+        <v>502760.7145685618</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="C230" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="D230" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="E230" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="F230" t="n">
+        <v>33</v>
+      </c>
+      <c r="G230" t="n">
+        <v>502793.7145685618</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="C231" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="D231" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E231" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="F231" t="n">
+        <v>51463.9726</v>
+      </c>
+      <c r="G231" t="n">
+        <v>502793.7145685618</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="C232" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="D232" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="E232" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="F232" t="n">
+        <v>38460.8249</v>
+      </c>
+      <c r="G232" t="n">
+        <v>464332.8896685618</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest FAB.xlsx
+++ b/BackTest/2020-01-16 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N232"/>
+  <dimension ref="A1:M232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-464975.5025190786</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>-603775.5080190785</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>12.45</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>-603775.5080190785</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>12.11</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>-864868.1951190785</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>12.11</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +601,21 @@
         <v>-863971.8332190785</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>11.23</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +640,21 @@
         <v>-858659.5515190784</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>12.19</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +679,21 @@
         <v>-858559.5515190784</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>12.2</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +718,21 @@
         <v>-858559.5515190784</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
         <v>12.29</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +757,21 @@
         <v>-799545.9707190784</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>12.29</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +796,21 @@
         <v>-723256.5999408591</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
         <v>12.3</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +835,21 @@
         <v>-724729.3539408591</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>13.59</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,24 +874,19 @@
         <v>-793757.2646408591</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,24 +911,19 @@
         <v>-691156.2293408591</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -996,24 +948,21 @@
         <v>-503723.2506408591</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>13.39</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,22 +987,21 @@
         <v>-503723.2506408591</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1080,20 +1028,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1120,20 +1065,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1160,20 +1102,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1200,20 +1139,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1240,20 +1176,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1278,22 +1211,21 @@
         <v>-512584.1943408591</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1320,20 +1252,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1360,20 +1289,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1400,20 +1326,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1440,20 +1363,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1480,20 +1400,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1520,20 +1437,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1560,20 +1474,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1600,20 +1511,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1640,20 +1548,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1680,20 +1585,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1720,20 +1622,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1760,20 +1659,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1800,20 +1696,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1840,20 +1733,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1878,24 +1768,19 @@
         <v>-562347.2557868444</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1920,24 +1805,19 @@
         <v>-565450.8840868444</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1962,24 +1842,19 @@
         <v>-563538.6232868443</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2004,24 +1879,19 @@
         <v>-767368.0012868444</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2046,24 +1916,19 @@
         <v>-765770.1725868444</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2090,20 +1955,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2128,24 +1990,19 @@
         <v>-496687.6530868444</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2172,20 +2029,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2212,20 +2066,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2252,20 +2103,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2292,20 +2140,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2332,20 +2177,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2372,20 +2214,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2412,20 +2251,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2452,20 +2288,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2492,20 +2325,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2532,20 +2362,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2572,20 +2399,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2612,20 +2436,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2652,20 +2473,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2692,20 +2510,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2732,20 +2547,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2772,20 +2584,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2812,20 +2621,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2852,20 +2658,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2892,20 +2695,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2932,20 +2732,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2972,20 +2769,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3012,20 +2806,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3052,20 +2843,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3092,20 +2880,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3132,20 +2917,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3172,20 +2954,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3212,20 +2991,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3252,20 +3028,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3292,20 +3065,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3332,20 +3102,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3372,20 +3139,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3412,20 +3176,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3452,20 +3213,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3492,20 +3250,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3532,20 +3287,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3572,20 +3324,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3612,20 +3361,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3652,20 +3398,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3692,20 +3435,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3732,20 +3472,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3772,20 +3509,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3812,20 +3546,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3852,20 +3583,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3892,20 +3620,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3932,20 +3657,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3972,20 +3694,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4012,20 +3731,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4052,20 +3768,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4092,20 +3805,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4132,20 +3842,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4172,20 +3879,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4212,20 +3916,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4252,20 +3953,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4292,20 +3990,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4332,20 +4027,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4372,20 +4064,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4412,20 +4101,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4452,20 +4138,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4492,20 +4175,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4532,20 +4212,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4572,20 +4249,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4612,20 +4286,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4652,20 +4323,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4692,20 +4360,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4732,20 +4397,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4772,20 +4434,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4812,20 +4471,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4852,20 +4508,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4892,20 +4545,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4932,20 +4582,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4972,20 +4619,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5012,20 +4656,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5052,20 +4693,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5092,20 +4730,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5132,20 +4767,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5172,20 +4804,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5212,20 +4841,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5252,20 +4878,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5292,20 +4915,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5332,20 +4952,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5372,20 +4989,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5412,20 +5026,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5452,20 +5063,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5492,20 +5100,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5532,20 +5137,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5572,20 +5174,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5612,20 +5211,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5652,20 +5248,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5692,20 +5285,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5732,20 +5322,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5772,20 +5359,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5812,20 +5396,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5852,20 +5433,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5892,20 +5470,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5932,20 +5507,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5972,20 +5544,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6012,20 +5581,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6052,20 +5618,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6092,20 +5655,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6132,20 +5692,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6172,20 +5729,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6212,20 +5766,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6252,20 +5803,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6292,20 +5840,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6332,20 +5877,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6372,20 +5914,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6410,22 +5949,17 @@
         <v>69197.87330355721</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6450,22 +5984,15 @@
         <v>69197.87330355721</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6490,22 +6017,15 @@
         <v>150027.3684035572</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6530,22 +6050,15 @@
         <v>-85973.08469644279</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6570,22 +6083,15 @@
         <v>130140.4444035572</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6610,22 +6116,15 @@
         <v>226511.1515035572</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6650,22 +6149,15 @@
         <v>226511.1515035572</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6690,22 +6182,15 @@
         <v>226511.1515035572</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6730,22 +6215,15 @@
         <v>220578.7772035572</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6770,22 +6248,15 @@
         <v>280984.6184035572</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6810,22 +6281,15 @@
         <v>317130.0726035572</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6850,22 +6314,15 @@
         <v>298940.0066035572</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6890,22 +6347,15 @@
         <v>539404.3543035572</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6930,22 +6380,15 @@
         <v>1142964.325103557</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6970,22 +6413,15 @@
         <v>1531792.692586252</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7010,22 +6446,15 @@
         <v>2365417.590203557</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7050,22 +6479,15 @@
         <v>2101356.341103557</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7090,22 +6512,15 @@
         <v>2311093.718503557</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7130,22 +6545,15 @@
         <v>2918194.780903557</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7170,22 +6578,15 @@
         <v>4325475.8435917</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7210,20 +6611,15 @@
         <v>4092068.6085917</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L170" t="n">
+        <v>1</v>
       </c>
       <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7248,18 +6644,15 @@
         <v>3911575.314952895</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7284,18 +6677,15 @@
         <v>2460752.677852895</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7320,18 +6710,15 @@
         <v>2498694.556330586</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7356,18 +6743,15 @@
         <v>2083342.320230586</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7392,18 +6776,15 @@
         <v>2072605.405230586</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7428,18 +6809,15 @@
         <v>1988175.938630586</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7466,16 +6844,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7500,18 +6875,15 @@
         <v>1865692.987230587</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7538,16 +6910,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7574,16 +6943,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7610,16 +6976,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7646,16 +7009,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7682,16 +7042,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7718,16 +7075,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7754,16 +7108,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7790,16 +7141,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7826,16 +7174,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7862,16 +7207,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7898,16 +7240,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7934,16 +7273,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7970,16 +7306,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8006,16 +7339,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8042,16 +7372,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8078,16 +7405,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8112,18 +7436,15 @@
         <v>1244633.934330587</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8150,16 +7471,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8186,16 +7504,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8222,16 +7537,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8256,18 +7568,15 @@
         <v>1005749.587030587</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8294,16 +7603,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8330,16 +7636,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8366,16 +7669,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8402,16 +7702,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8438,16 +7735,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8474,16 +7768,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8510,16 +7801,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8546,16 +7834,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8580,18 +7865,15 @@
         <v>777442.4334685616</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8618,16 +7900,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8654,16 +7933,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8688,18 +7964,15 @@
         <v>598170.1339685617</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8726,16 +7999,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8762,16 +8032,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8798,16 +8065,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8834,16 +8098,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8870,16 +8131,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8906,16 +8164,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8942,16 +8197,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8978,16 +8230,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9014,16 +8263,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9050,16 +8296,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9086,16 +8329,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9122,16 +8362,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9158,16 +8395,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9194,16 +8428,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9230,16 +8461,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9266,16 +8494,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9302,16 +8527,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9338,16 +8560,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9374,16 +8593,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9410,16 +8626,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9446,18 +8659,15 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest FAB.xlsx
+++ b/BackTest/2020-01-16 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-464975.5025190786</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-603775.5080190785</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>12.45</v>
@@ -523,7 +523,7 @@
         <v>-603775.5080190785</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>12.11</v>
@@ -562,7 +562,7 @@
         <v>-864868.1951190785</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>12.11</v>
@@ -601,7 +601,7 @@
         <v>-863971.8332190785</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>11.23</v>
@@ -640,7 +640,7 @@
         <v>-858659.5515190784</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>12.19</v>
@@ -679,7 +679,7 @@
         <v>-858559.5515190784</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>12.2</v>
@@ -718,7 +718,7 @@
         <v>-858559.5515190784</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>12.29</v>
@@ -757,7 +757,7 @@
         <v>-799545.9707190784</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>12.29</v>
@@ -796,7 +796,7 @@
         <v>-723256.5999408591</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>12.3</v>
@@ -835,7 +835,7 @@
         <v>-724729.3539408591</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>13.59</v>
@@ -874,9 +874,11 @@
         <v>-793757.2646408591</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13.58</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -911,9 +913,11 @@
         <v>-691156.2293408591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13.38</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -948,11 +952,9 @@
         <v>-503723.2506408591</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -987,11 +989,9 @@
         <v>-503723.2506408591</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1211,11 +1211,9 @@
         <v>-512584.1943408591</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>13.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -5949,16 +5947,18 @@
         <v>69197.87330355721</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
       <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
@@ -5984,11 +5984,15 @@
         <v>69197.87330355721</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6017,11 +6021,15 @@
         <v>150027.3684035572</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6050,11 +6058,15 @@
         <v>-85973.08469644279</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6083,11 +6095,15 @@
         <v>130140.4444035572</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6116,11 +6132,15 @@
         <v>226511.1515035572</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6149,11 +6169,15 @@
         <v>226511.1515035572</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6182,11 +6206,15 @@
         <v>226511.1515035572</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6215,11 +6243,15 @@
         <v>220578.7772035572</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6248,11 +6280,15 @@
         <v>280984.6184035572</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6281,11 +6317,15 @@
         <v>317130.0726035572</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6314,11 +6354,15 @@
         <v>298940.0066035572</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6347,11 +6391,15 @@
         <v>539404.3543035572</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6380,11 +6428,15 @@
         <v>1142964.325103557</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6413,11 +6465,15 @@
         <v>1531792.692586252</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6446,11 +6502,15 @@
         <v>2365417.590203557</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6479,11 +6539,15 @@
         <v>2101356.341103557</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6512,11 +6576,15 @@
         <v>2311093.718503557</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6545,11 +6613,15 @@
         <v>2918194.780903557</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6578,11 +6650,15 @@
         <v>4325475.8435917</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6611,11 +6687,15 @@
         <v>4092068.6085917</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6644,11 +6724,15 @@
         <v>3911575.314952895</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6677,11 +6761,15 @@
         <v>2460752.677852895</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6710,14 +6798,16 @@
         <v>2498694.556330586</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
@@ -6743,7 +6833,7 @@
         <v>2083342.320230586</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6776,7 +6866,7 @@
         <v>2072605.405230586</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6809,7 +6899,7 @@
         <v>1988175.938630586</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6842,7 +6932,7 @@
         <v>1847929.207630587</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6875,7 +6965,7 @@
         <v>1865692.987230587</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6908,7 +6998,7 @@
         <v>1776080.080930587</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6941,7 +7031,7 @@
         <v>1554837.647130587</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6974,7 +7064,7 @@
         <v>1566882.149930587</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7007,7 +7097,7 @@
         <v>1644595.201830587</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7040,7 +7130,7 @@
         <v>1564889.245230587</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7073,7 +7163,7 @@
         <v>1760518.879830587</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7106,7 +7196,7 @@
         <v>1760518.879830587</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7139,7 +7229,7 @@
         <v>1760518.879830587</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7172,7 +7262,7 @@
         <v>1760518.879830587</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7205,7 +7295,7 @@
         <v>1690175.880130587</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7238,7 +7328,7 @@
         <v>1548213.180030587</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7271,7 +7361,7 @@
         <v>1571391.278330587</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7304,7 +7394,7 @@
         <v>1435948.267330587</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7337,7 +7427,7 @@
         <v>1259044.862730587</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7370,7 +7460,7 @@
         <v>1278385.906130587</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7403,7 +7493,7 @@
         <v>1334286.931730587</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7436,7 +7526,7 @@
         <v>1244633.934330587</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7469,7 +7559,7 @@
         <v>1206106.177330587</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7535,7 +7625,7 @@
         <v>1031027.679630587</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7568,7 +7658,7 @@
         <v>1005749.587030587</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7601,7 +7691,7 @@
         <v>636825.1829305869</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7634,7 +7724,7 @@
         <v>869586.9377305869</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7667,7 +7757,7 @@
         <v>802968.6408305869</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7733,7 +7823,7 @@
         <v>683257.3317685616</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7799,7 +7889,7 @@
         <v>522330.6665685616</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7832,7 +7922,7 @@
         <v>848812.8310685616</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7865,7 +7955,7 @@
         <v>777442.4334685616</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7898,7 +7988,7 @@
         <v>400909.5767685616</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7931,7 +8021,7 @@
         <v>569532.1968685617</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7964,7 +8054,7 @@
         <v>598170.1339685617</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7997,7 +8087,7 @@
         <v>542748.7884685616</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8030,7 +8120,7 @@
         <v>627149.9034685616</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8063,7 +8153,7 @@
         <v>765358.2594685616</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8096,7 +8186,7 @@
         <v>742952.3922685616</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8129,7 +8219,7 @@
         <v>812091.0439685617</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8668,6 +8758,6 @@
       <c r="M232" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest FAB.xlsx
+++ b/BackTest/2020-01-16 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-464975.5025190786</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-603775.5080190785</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -531,7 +525,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -874,11 +868,9 @@
         <v>-793757.2646408591</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -913,11 +905,9 @@
         <v>-691156.2293408591</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -6169,18 +6159,16 @@
         <v>226511.1515035572</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
@@ -6206,15 +6194,11 @@
         <v>226511.1515035572</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6243,15 +6227,11 @@
         <v>220578.7772035572</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6284,11 +6264,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6321,11 +6297,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6330,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6395,11 +6363,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6432,11 +6396,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6469,11 +6429,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6506,11 +6462,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6543,11 +6495,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6580,11 +6528,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6617,11 +6561,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6654,11 +6594,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6691,11 +6627,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6728,11 +6660,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6765,11 +6693,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6798,16 +6722,14 @@
         <v>2498694.556330586</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
       <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
@@ -6833,7 +6755,7 @@
         <v>2083342.320230586</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6866,7 +6788,7 @@
         <v>2072605.405230586</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6899,7 +6821,7 @@
         <v>1988175.938630586</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6932,7 +6854,7 @@
         <v>1847929.207630587</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6965,7 +6887,7 @@
         <v>1865692.987230587</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6998,7 +6920,7 @@
         <v>1776080.080930587</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7031,7 +6953,7 @@
         <v>1554837.647130587</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7064,7 +6986,7 @@
         <v>1566882.149930587</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7097,7 +7019,7 @@
         <v>1644595.201830587</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7130,7 +7052,7 @@
         <v>1564889.245230587</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7163,7 +7085,7 @@
         <v>1760518.879830587</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7196,7 +7118,7 @@
         <v>1760518.879830587</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7229,7 +7151,7 @@
         <v>1760518.879830587</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7262,7 +7184,7 @@
         <v>1760518.879830587</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7295,7 +7217,7 @@
         <v>1690175.880130587</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7328,7 +7250,7 @@
         <v>1548213.180030587</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7361,7 +7283,7 @@
         <v>1571391.278330587</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7394,7 +7316,7 @@
         <v>1435948.267330587</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7592,7 +7514,7 @@
         <v>1143417.377730587</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7691,7 +7613,7 @@
         <v>636825.1829305869</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7724,7 +7646,7 @@
         <v>869586.9377305869</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7757,7 +7679,7 @@
         <v>802968.6408305869</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7823,7 +7745,7 @@
         <v>683257.3317685616</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7889,7 +7811,7 @@
         <v>522330.6665685616</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7922,7 +7844,7 @@
         <v>848812.8310685616</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7955,7 +7877,7 @@
         <v>777442.4334685616</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7988,7 +7910,7 @@
         <v>400909.5767685616</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8021,7 +7943,7 @@
         <v>569532.1968685617</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8054,7 +7976,7 @@
         <v>598170.1339685617</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8087,7 +8009,7 @@
         <v>542748.7884685616</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8120,7 +8042,7 @@
         <v>627149.9034685616</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8153,7 +8075,7 @@
         <v>765358.2594685616</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8186,7 +8108,7 @@
         <v>742952.3922685616</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8219,7 +8141,7 @@
         <v>812091.0439685617</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8758,6 +8680,6 @@
       <c r="M232" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest FAB.xlsx
+++ b/BackTest/2020-01-16 BackTest FAB.xlsx
@@ -517,17 +517,11 @@
         <v>-603775.5080190785</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -564,7 +558,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -868,9 +862,11 @@
         <v>-793757.2646408591</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13.58</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -905,9 +901,11 @@
         <v>-691156.2293408591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13.38</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -942,9 +940,11 @@
         <v>-503723.2506408591</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13.39</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -979,9 +979,11 @@
         <v>-503723.2506408591</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1719,9 +1721,11 @@
         <v>-555270.5508868444</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>13.3</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1756,9 +1760,11 @@
         <v>-562347.2557868444</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>13.3</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1793,9 +1799,11 @@
         <v>-565450.8840868444</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>13.1</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1830,9 +1838,11 @@
         <v>-563538.6232868443</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>13.01</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1867,9 +1877,11 @@
         <v>-767368.0012868444</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>13.28</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -6159,16 +6171,18 @@
         <v>226511.1515035572</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
       <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
@@ -6194,11 +6208,15 @@
         <v>226511.1515035572</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6227,11 +6245,15 @@
         <v>220578.7772035572</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6264,7 +6286,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6297,7 +6323,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6330,7 +6360,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6363,7 +6397,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6396,7 +6434,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6429,7 +6471,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6462,7 +6508,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6495,7 +6545,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6528,7 +6582,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6561,7 +6619,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6594,7 +6656,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6623,14 +6689,16 @@
         <v>4092068.6085917</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -6656,7 +6724,7 @@
         <v>3911575.314952895</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6689,7 +6757,7 @@
         <v>2460752.677852895</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6722,7 +6790,7 @@
         <v>2498694.556330586</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6755,7 +6823,7 @@
         <v>2083342.320230586</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7349,7 +7417,7 @@
         <v>1259044.862730587</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7382,7 +7450,7 @@
         <v>1278385.906130587</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7415,7 +7483,7 @@
         <v>1334286.931730587</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7448,7 +7516,7 @@
         <v>1244633.934330587</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7481,7 +7549,7 @@
         <v>1206106.177330587</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7514,7 +7582,7 @@
         <v>1143417.377730587</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7547,7 +7615,7 @@
         <v>1031027.679630587</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7580,7 +7648,7 @@
         <v>1005749.587030587</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>

--- a/BackTest/2020-01-16 BackTest FAB.xlsx
+++ b/BackTest/2020-01-16 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M232"/>
+  <dimension ref="A1:L232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>91916.9774</v>
       </c>
       <c r="G2" t="n">
-        <v>-464975.5025190786</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>138800.0055</v>
       </c>
       <c r="G3" t="n">
-        <v>-603775.5080190785</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>25327.4274</v>
       </c>
       <c r="G4" t="n">
-        <v>-603775.5080190785</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,24 +533,15 @@
         <v>261092.6871</v>
       </c>
       <c r="G5" t="n">
-        <v>-864868.1951190785</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -586,24 +563,15 @@
         <v>896.3619</v>
       </c>
       <c r="G6" t="n">
-        <v>-863971.8332190785</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -625,24 +593,15 @@
         <v>5312.2817</v>
       </c>
       <c r="G7" t="n">
-        <v>-858659.5515190784</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,24 +623,15 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>-858559.5515190784</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -703,24 +653,21 @@
         <v>6457.4337</v>
       </c>
       <c r="G9" t="n">
-        <v>-858559.5515190784</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
         <v>12.29</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,24 +689,21 @@
         <v>59013.5808</v>
       </c>
       <c r="G10" t="n">
-        <v>-799545.9707190784</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
         <v>12.29</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -781,24 +725,21 @@
         <v>76289.37077821928</v>
       </c>
       <c r="G11" t="n">
-        <v>-723256.5999408591</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
         <v>12.3</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -820,24 +761,21 @@
         <v>1472.754</v>
       </c>
       <c r="G12" t="n">
-        <v>-724729.3539408591</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
         <v>13.59</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -859,24 +797,21 @@
         <v>69027.91069999999</v>
       </c>
       <c r="G13" t="n">
-        <v>-793757.2646408591</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
         <v>13.58</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -898,24 +833,19 @@
         <v>102601.0353</v>
       </c>
       <c r="G14" t="n">
-        <v>-691156.2293408591</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -937,24 +867,19 @@
         <v>187432.9787</v>
       </c>
       <c r="G15" t="n">
-        <v>-503723.2506408591</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -976,24 +901,19 @@
         <v>17892.449</v>
       </c>
       <c r="G16" t="n">
-        <v>-503723.2506408591</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1015,22 +935,19 @@
         <v>15547.6123</v>
       </c>
       <c r="G17" t="n">
-        <v>-519270.8629408591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1052,22 +969,19 @@
         <v>187943.3951</v>
       </c>
       <c r="G18" t="n">
-        <v>-519270.8629408591</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1089,22 +1003,19 @@
         <v>26957.7083729927</v>
       </c>
       <c r="G19" t="n">
-        <v>-519270.8629408591</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1126,22 +1037,19 @@
         <v>1582.9916</v>
       </c>
       <c r="G20" t="n">
-        <v>-517687.8713408591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1163,22 +1071,19 @@
         <v>1040.344</v>
       </c>
       <c r="G21" t="n">
-        <v>-518728.2153408591</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1200,22 +1105,19 @@
         <v>6144.021</v>
       </c>
       <c r="G22" t="n">
-        <v>-512584.1943408591</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1237,22 +1139,19 @@
         <v>100000</v>
       </c>
       <c r="G23" t="n">
-        <v>-612584.1943408591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1274,22 +1173,19 @@
         <v>3628.4471</v>
       </c>
       <c r="G24" t="n">
-        <v>-608955.7472408591</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1311,22 +1207,19 @@
         <v>52283.088</v>
       </c>
       <c r="G25" t="n">
-        <v>-608955.7472408591</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1348,22 +1241,19 @@
         <v>135658.677</v>
       </c>
       <c r="G26" t="n">
-        <v>-473297.0702408591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1385,22 +1275,19 @@
         <v>29669.7980270073</v>
       </c>
       <c r="G27" t="n">
-        <v>-443627.2722138517</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1422,22 +1309,19 @@
         <v>13211.9336</v>
       </c>
       <c r="G28" t="n">
-        <v>-430415.3386138518</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1459,22 +1343,19 @@
         <v>480.1391</v>
       </c>
       <c r="G29" t="n">
-        <v>-429935.1995138518</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1496,22 +1377,19 @@
         <v>47500</v>
       </c>
       <c r="G30" t="n">
-        <v>-477435.1995138518</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1533,22 +1411,19 @@
         <v>71558.7328729927</v>
       </c>
       <c r="G31" t="n">
-        <v>-548993.9323868444</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1570,22 +1445,19 @@
         <v>496.9241</v>
       </c>
       <c r="G32" t="n">
-        <v>-549490.8564868444</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1607,22 +1479,19 @@
         <v>1103.0343</v>
       </c>
       <c r="G33" t="n">
-        <v>-549490.8564868444</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1644,22 +1513,19 @@
         <v>1570.447</v>
       </c>
       <c r="G34" t="n">
-        <v>-551061.3034868444</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1681,22 +1547,19 @@
         <v>4209.2474</v>
       </c>
       <c r="G35" t="n">
-        <v>-555270.5508868444</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1718,24 +1581,19 @@
         <v>87.0453</v>
       </c>
       <c r="G36" t="n">
-        <v>-555270.5508868444</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1757,24 +1615,19 @@
         <v>7076.7049</v>
       </c>
       <c r="G37" t="n">
-        <v>-562347.2557868444</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1796,24 +1649,19 @@
         <v>3103.6283</v>
       </c>
       <c r="G38" t="n">
-        <v>-565450.8840868444</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1835,24 +1683,19 @@
         <v>1912.2608</v>
       </c>
       <c r="G39" t="n">
-        <v>-563538.6232868443</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1874,24 +1717,19 @@
         <v>203829.378</v>
       </c>
       <c r="G40" t="n">
-        <v>-767368.0012868444</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1913,22 +1751,19 @@
         <v>1597.8287</v>
       </c>
       <c r="G41" t="n">
-        <v>-765770.1725868444</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1950,22 +1785,19 @@
         <v>65066.0587</v>
       </c>
       <c r="G42" t="n">
-        <v>-700704.1138868444</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1987,22 +1819,19 @@
         <v>204016.4608</v>
       </c>
       <c r="G43" t="n">
-        <v>-496687.6530868444</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2024,22 +1853,19 @@
         <v>1500</v>
       </c>
       <c r="G44" t="n">
-        <v>-496687.6530868444</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2061,22 +1887,19 @@
         <v>156194.5976</v>
       </c>
       <c r="G45" t="n">
-        <v>-652882.2506868443</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2098,22 +1921,19 @@
         <v>32318.1774</v>
       </c>
       <c r="G46" t="n">
-        <v>-652882.2506868443</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2135,22 +1955,19 @@
         <v>169731.8647</v>
       </c>
       <c r="G47" t="n">
-        <v>-483150.3859868443</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2172,22 +1989,19 @@
         <v>35252.0027</v>
       </c>
       <c r="G48" t="n">
-        <v>-483150.3859868443</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2209,22 +2023,19 @@
         <v>2855.0415</v>
       </c>
       <c r="G49" t="n">
-        <v>-480295.3444868443</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2246,22 +2057,19 @@
         <v>22096.2275</v>
       </c>
       <c r="G50" t="n">
-        <v>-458199.1169868443</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2283,22 +2091,19 @@
         <v>99792.32980000001</v>
       </c>
       <c r="G51" t="n">
-        <v>-358406.7871868443</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2320,22 +2125,19 @@
         <v>40697.5722</v>
       </c>
       <c r="G52" t="n">
-        <v>-358406.7871868443</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2357,22 +2159,19 @@
         <v>65489.4362</v>
       </c>
       <c r="G53" t="n">
-        <v>-358406.7871868443</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2394,22 +2193,19 @@
         <v>1336.6793</v>
       </c>
       <c r="G54" t="n">
-        <v>-358406.7871868443</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2431,22 +2227,19 @@
         <v>8742.607900000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-367149.3950868443</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2468,22 +2261,19 @@
         <v>118975.5092</v>
       </c>
       <c r="G56" t="n">
-        <v>-367149.3950868443</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2505,22 +2295,19 @@
         <v>60000</v>
       </c>
       <c r="G57" t="n">
-        <v>-367149.3950868443</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2542,22 +2329,19 @@
         <v>187547.1845</v>
       </c>
       <c r="G58" t="n">
-        <v>-367149.3950868443</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2579,22 +2363,19 @@
         <v>23925.2656</v>
       </c>
       <c r="G59" t="n">
-        <v>-391074.6606868443</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2616,22 +2397,19 @@
         <v>1399.8298</v>
       </c>
       <c r="G60" t="n">
-        <v>-389674.8308868443</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2653,22 +2431,19 @@
         <v>44818.2503</v>
       </c>
       <c r="G61" t="n">
-        <v>-434493.0811868443</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2690,22 +2465,19 @@
         <v>12405.7805</v>
       </c>
       <c r="G62" t="n">
-        <v>-422087.3006868443</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2727,22 +2499,19 @@
         <v>30489.0795</v>
       </c>
       <c r="G63" t="n">
-        <v>-422087.3006868443</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2764,22 +2533,19 @@
         <v>1823.9193</v>
       </c>
       <c r="G64" t="n">
-        <v>-420263.3813868443</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2801,22 +2567,19 @@
         <v>34781.2022</v>
       </c>
       <c r="G65" t="n">
-        <v>-455044.5835868443</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2838,22 +2601,19 @@
         <v>11451.8214</v>
       </c>
       <c r="G66" t="n">
-        <v>-455044.5835868443</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2875,22 +2635,19 @@
         <v>5776.4566</v>
       </c>
       <c r="G67" t="n">
-        <v>-455044.5835868443</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2912,22 +2669,19 @@
         <v>177926.9333</v>
       </c>
       <c r="G68" t="n">
-        <v>-277117.6502868443</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2949,22 +2703,19 @@
         <v>2623.9932</v>
       </c>
       <c r="G69" t="n">
-        <v>-277117.6502868443</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2986,22 +2737,19 @@
         <v>1399.8298</v>
       </c>
       <c r="G70" t="n">
-        <v>-278517.4800868444</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3023,22 +2771,19 @@
         <v>11241.7119</v>
       </c>
       <c r="G71" t="n">
-        <v>-267275.7681868444</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3060,22 +2805,19 @@
         <v>20399.5015</v>
       </c>
       <c r="G72" t="n">
-        <v>-287675.2696868444</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3097,22 +2839,19 @@
         <v>309.225</v>
       </c>
       <c r="G73" t="n">
-        <v>-287366.0446868444</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3134,22 +2873,19 @@
         <v>28417.9496</v>
       </c>
       <c r="G74" t="n">
-        <v>-315783.9942868444</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3171,22 +2907,19 @@
         <v>10000</v>
       </c>
       <c r="G75" t="n">
-        <v>-305783.9942868444</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3208,22 +2941,19 @@
         <v>44311.3873</v>
       </c>
       <c r="G76" t="n">
-        <v>-305783.9942868444</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3245,22 +2975,19 @@
         <v>89340.4163</v>
       </c>
       <c r="G77" t="n">
-        <v>-216443.5779868444</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3282,22 +3009,19 @@
         <v>1242</v>
       </c>
       <c r="G78" t="n">
-        <v>-215201.5779868444</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3319,22 +3043,19 @@
         <v>46883.2484</v>
       </c>
       <c r="G79" t="n">
-        <v>-215201.5779868444</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3356,22 +3077,19 @@
         <v>18934.4203</v>
       </c>
       <c r="G80" t="n">
-        <v>-234135.9982868444</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3393,22 +3111,19 @@
         <v>800.2320999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>-233335.7661868444</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3430,22 +3145,19 @@
         <v>11725.2688</v>
       </c>
       <c r="G82" t="n">
-        <v>-233335.7661868444</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3467,22 +3179,19 @@
         <v>3542.9193</v>
       </c>
       <c r="G83" t="n">
-        <v>-229792.8468868444</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3504,22 +3213,19 @@
         <v>8201.142599999999</v>
       </c>
       <c r="G84" t="n">
-        <v>-229792.8468868444</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3541,22 +3247,19 @@
         <v>58881.5822</v>
       </c>
       <c r="G85" t="n">
-        <v>-229792.8468868444</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3578,22 +3281,19 @@
         <v>58881.5822</v>
       </c>
       <c r="G86" t="n">
-        <v>-288674.4290868444</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3615,22 +3315,19 @@
         <v>1122.5969</v>
       </c>
       <c r="G87" t="n">
-        <v>-287551.8321868444</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3652,22 +3349,19 @@
         <v>292.693</v>
       </c>
       <c r="G88" t="n">
-        <v>-287844.5251868444</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3689,22 +3383,19 @@
         <v>7908.4496</v>
       </c>
       <c r="G89" t="n">
-        <v>-295752.9747868444</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3726,22 +3417,19 @@
         <v>15186</v>
       </c>
       <c r="G90" t="n">
-        <v>-310938.9747868444</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3763,22 +3451,19 @@
         <v>11725.2688</v>
       </c>
       <c r="G91" t="n">
-        <v>-310938.9747868444</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3800,22 +3485,19 @@
         <v>2029</v>
       </c>
       <c r="G92" t="n">
-        <v>-308909.9747868444</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3837,22 +3519,19 @@
         <v>34106.7771</v>
       </c>
       <c r="G93" t="n">
-        <v>-308909.9747868444</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3874,22 +3553,19 @@
         <v>6259.2231</v>
       </c>
       <c r="G94" t="n">
-        <v>-315169.1978868444</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3911,22 +3587,19 @@
         <v>77</v>
       </c>
       <c r="G95" t="n">
-        <v>-315092.1978868444</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3948,22 +3621,19 @@
         <v>559.9739</v>
       </c>
       <c r="G96" t="n">
-        <v>-315652.1717868444</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3985,22 +3655,19 @@
         <v>97</v>
       </c>
       <c r="G97" t="n">
-        <v>-315749.1717868444</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4022,22 +3689,19 @@
         <v>5775</v>
       </c>
       <c r="G98" t="n">
-        <v>-309974.1717868444</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4059,22 +3723,19 @@
         <v>77.56</v>
       </c>
       <c r="G99" t="n">
-        <v>-310051.7317868444</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4096,22 +3757,19 @@
         <v>6630.9656</v>
       </c>
       <c r="G100" t="n">
-        <v>-310051.7317868444</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4133,22 +3791,19 @@
         <v>59278.3671</v>
       </c>
       <c r="G101" t="n">
-        <v>-250773.3646868444</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4170,22 +3825,19 @@
         <v>35</v>
       </c>
       <c r="G102" t="n">
-        <v>-250773.3646868444</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4207,22 +3859,19 @@
         <v>577.1976</v>
       </c>
       <c r="G103" t="n">
-        <v>-251350.5622868444</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4244,22 +3893,19 @@
         <v>35</v>
       </c>
       <c r="G104" t="n">
-        <v>-251315.5622868444</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4281,22 +3927,19 @@
         <v>3426.3399</v>
       </c>
       <c r="G105" t="n">
-        <v>-254741.9021868444</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4318,22 +3961,19 @@
         <v>1252.2745</v>
       </c>
       <c r="G106" t="n">
-        <v>-255994.1766868444</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4355,22 +3995,19 @@
         <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>-255994.1766868444</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4392,22 +4029,19 @@
         <v>37902.2396</v>
       </c>
       <c r="G108" t="n">
-        <v>-218091.9370868444</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4429,22 +4063,19 @@
         <v>81413.1547</v>
       </c>
       <c r="G109" t="n">
-        <v>-136678.7823868444</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4466,22 +4097,19 @@
         <v>6903.6124</v>
       </c>
       <c r="G110" t="n">
-        <v>-129775.1699868444</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4503,22 +4131,19 @@
         <v>6970.8762</v>
       </c>
       <c r="G111" t="n">
-        <v>-136746.0461868444</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4540,22 +4165,19 @@
         <v>95047.7518</v>
       </c>
       <c r="G112" t="n">
-        <v>-41698.29438684441</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4577,22 +4199,19 @@
         <v>2056</v>
       </c>
       <c r="G113" t="n">
-        <v>-41698.29438684441</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4614,22 +4233,19 @@
         <v>40604.0257</v>
       </c>
       <c r="G114" t="n">
-        <v>-1094.268686844414</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4651,22 +4267,19 @@
         <v>49330.2767</v>
       </c>
       <c r="G115" t="n">
-        <v>-50424.54538684442</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4688,22 +4301,19 @@
         <v>1291.3172</v>
       </c>
       <c r="G116" t="n">
-        <v>-51715.86258684441</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4725,22 +4335,19 @@
         <v>33066.4492</v>
       </c>
       <c r="G117" t="n">
-        <v>-51715.86258684441</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4762,22 +4369,19 @@
         <v>15113.4659</v>
       </c>
       <c r="G118" t="n">
-        <v>-36602.39668684441</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4799,22 +4403,19 @@
         <v>52445.3513</v>
       </c>
       <c r="G119" t="n">
-        <v>-89047.74798684442</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4836,22 +4437,19 @@
         <v>674.3525</v>
       </c>
       <c r="G120" t="n">
-        <v>-89722.10048684441</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4873,22 +4471,19 @@
         <v>14744.77139040163</v>
       </c>
       <c r="G121" t="n">
-        <v>-74977.32909644279</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4910,22 +4505,19 @@
         <v>15111.2271</v>
       </c>
       <c r="G122" t="n">
-        <v>-90088.55619644279</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4947,22 +4539,19 @@
         <v>694.6746000000001</v>
       </c>
       <c r="G123" t="n">
-        <v>-89393.88159644279</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4984,22 +4573,19 @@
         <v>10538.0203</v>
       </c>
       <c r="G124" t="n">
-        <v>-89393.88159644279</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5021,22 +4607,19 @@
         <v>32974.0847</v>
       </c>
       <c r="G125" t="n">
-        <v>-56419.79689644279</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5058,22 +4641,19 @@
         <v>308.0367</v>
       </c>
       <c r="G126" t="n">
-        <v>-56727.83359644279</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5095,22 +4675,19 @@
         <v>1384.1126</v>
       </c>
       <c r="G127" t="n">
-        <v>-58111.94619644279</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5132,22 +4709,19 @@
         <v>30000</v>
       </c>
       <c r="G128" t="n">
-        <v>-58111.94619644279</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5169,22 +4743,19 @@
         <v>44.5196</v>
       </c>
       <c r="G129" t="n">
-        <v>-58111.94619644279</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5206,22 +4777,19 @@
         <v>21862.5578</v>
       </c>
       <c r="G130" t="n">
-        <v>-36249.3883964428</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5243,22 +4811,19 @@
         <v>10540</v>
       </c>
       <c r="G131" t="n">
-        <v>-25709.3883964428</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5280,22 +4845,19 @@
         <v>13953.8193</v>
       </c>
       <c r="G132" t="n">
-        <v>-25709.3883964428</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5317,22 +4879,19 @@
         <v>10000</v>
       </c>
       <c r="G133" t="n">
-        <v>-25709.3883964428</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5354,22 +4913,19 @@
         <v>217.3528</v>
       </c>
       <c r="G134" t="n">
-        <v>-25709.3883964428</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5391,22 +4947,19 @@
         <v>1422.0028</v>
       </c>
       <c r="G135" t="n">
-        <v>-27131.39119644279</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5428,22 +4981,19 @@
         <v>8106.5781</v>
       </c>
       <c r="G136" t="n">
-        <v>-19024.81309644279</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5465,22 +5015,19 @@
         <v>47761.3557</v>
       </c>
       <c r="G137" t="n">
-        <v>28736.54260355721</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5502,22 +5049,19 @@
         <v>22105.1943</v>
       </c>
       <c r="G138" t="n">
-        <v>28736.54260355721</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5539,22 +5083,19 @@
         <v>3074.971</v>
       </c>
       <c r="G139" t="n">
-        <v>31811.51360355721</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5576,22 +5117,19 @@
         <v>108767.4197</v>
       </c>
       <c r="G140" t="n">
-        <v>-76955.90609644279</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5613,22 +5151,19 @@
         <v>24499.8872</v>
       </c>
       <c r="G141" t="n">
-        <v>-52456.01889644279</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5650,22 +5185,19 @@
         <v>942.2618</v>
       </c>
       <c r="G142" t="n">
-        <v>-52456.01889644279</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5687,22 +5219,19 @@
         <v>93813.97689999999</v>
       </c>
       <c r="G143" t="n">
-        <v>41357.9580035572</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5724,22 +5253,19 @@
         <v>10043.4937</v>
       </c>
       <c r="G144" t="n">
-        <v>51401.4517035572</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5761,22 +5287,19 @@
         <v>46562.2098</v>
       </c>
       <c r="G145" t="n">
-        <v>4839.241903557202</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5798,22 +5321,19 @@
         <v>9934.4522</v>
       </c>
       <c r="G146" t="n">
-        <v>14773.6941035572</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5835,22 +5355,19 @@
         <v>45356.2314</v>
       </c>
       <c r="G147" t="n">
-        <v>-30582.5372964428</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5872,22 +5389,19 @@
         <v>16247.3346</v>
       </c>
       <c r="G148" t="n">
-        <v>-30582.5372964428</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5909,22 +5423,19 @@
         <v>72631.4556</v>
       </c>
       <c r="G149" t="n">
-        <v>-30582.5372964428</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5946,22 +5457,19 @@
         <v>99780.4106</v>
       </c>
       <c r="G150" t="n">
-        <v>69197.87330355721</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5983,22 +5491,19 @@
         <v>87.77800000000001</v>
       </c>
       <c r="G151" t="n">
-        <v>69197.87330355721</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6020,22 +5525,19 @@
         <v>80829.4951</v>
       </c>
       <c r="G152" t="n">
-        <v>150027.3684035572</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6057,22 +5559,19 @@
         <v>236000.4531</v>
       </c>
       <c r="G153" t="n">
-        <v>-85973.08469644279</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6094,22 +5593,19 @@
         <v>216113.5291</v>
       </c>
       <c r="G154" t="n">
-        <v>130140.4444035572</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6131,22 +5627,19 @@
         <v>96370.7071</v>
       </c>
       <c r="G155" t="n">
-        <v>226511.1515035572</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6168,22 +5661,19 @@
         <v>91137.8622</v>
       </c>
       <c r="G156" t="n">
-        <v>226511.1515035572</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6205,22 +5695,19 @@
         <v>63453.8758</v>
       </c>
       <c r="G157" t="n">
-        <v>226511.1515035572</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6242,22 +5729,19 @@
         <v>5932.3743</v>
       </c>
       <c r="G158" t="n">
-        <v>220578.7772035572</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6279,22 +5763,19 @@
         <v>60405.8412</v>
       </c>
       <c r="G159" t="n">
-        <v>280984.6184035572</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6316,22 +5797,19 @@
         <v>36145.4542</v>
       </c>
       <c r="G160" t="n">
-        <v>317130.0726035572</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6353,22 +5831,19 @@
         <v>18190.066</v>
       </c>
       <c r="G161" t="n">
-        <v>298940.0066035572</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6390,22 +5865,19 @@
         <v>240464.3477</v>
       </c>
       <c r="G162" t="n">
-        <v>539404.3543035572</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6427,22 +5899,19 @@
         <v>603559.9708</v>
       </c>
       <c r="G163" t="n">
-        <v>1142964.325103557</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6464,22 +5933,19 @@
         <v>388828.3674826944</v>
       </c>
       <c r="G164" t="n">
-        <v>1531792.692586252</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6501,22 +5967,19 @@
         <v>833624.8976173056</v>
       </c>
       <c r="G165" t="n">
-        <v>2365417.590203557</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6538,22 +6001,19 @@
         <v>264061.2491</v>
       </c>
       <c r="G166" t="n">
-        <v>2101356.341103557</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6575,22 +6035,19 @@
         <v>209737.3774</v>
       </c>
       <c r="G167" t="n">
-        <v>2311093.718503557</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6612,22 +6069,19 @@
         <v>607101.0624000001</v>
       </c>
       <c r="G168" t="n">
-        <v>2918194.780903557</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6649,22 +6103,19 @@
         <v>1407281.062688143</v>
       </c>
       <c r="G169" t="n">
-        <v>4325475.8435917</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6686,20 +6137,17 @@
         <v>233407.235</v>
       </c>
       <c r="G170" t="n">
-        <v>4092068.6085917</v>
-      </c>
-      <c r="H170" t="n">
         <v>2</v>
       </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
+      <c r="J170" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6721,18 +6169,15 @@
         <v>180493.293638806</v>
       </c>
       <c r="G171" t="n">
-        <v>3911575.314952895</v>
-      </c>
-      <c r="H171" t="n">
         <v>2</v>
       </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6754,18 +6199,15 @@
         <v>1450822.6371</v>
       </c>
       <c r="G172" t="n">
-        <v>2460752.677852895</v>
-      </c>
-      <c r="H172" t="n">
         <v>2</v>
       </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6787,18 +6229,15 @@
         <v>37941.87847769169</v>
       </c>
       <c r="G173" t="n">
-        <v>2498694.556330586</v>
-      </c>
-      <c r="H173" t="n">
         <v>2</v>
       </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6820,18 +6259,15 @@
         <v>415352.2361</v>
       </c>
       <c r="G174" t="n">
-        <v>2083342.320230586</v>
-      </c>
-      <c r="H174" t="n">
         <v>2</v>
       </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6853,18 +6289,15 @@
         <v>10736.915</v>
       </c>
       <c r="G175" t="n">
-        <v>2072605.405230586</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6886,18 +6319,15 @@
         <v>84429.4666</v>
       </c>
       <c r="G176" t="n">
-        <v>1988175.938630586</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6919,18 +6349,15 @@
         <v>140246.731</v>
       </c>
       <c r="G177" t="n">
-        <v>1847929.207630587</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6952,18 +6379,15 @@
         <v>17763.7796</v>
       </c>
       <c r="G178" t="n">
-        <v>1865692.987230587</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6985,18 +6409,15 @@
         <v>89612.9063</v>
       </c>
       <c r="G179" t="n">
-        <v>1776080.080930587</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7018,18 +6439,15 @@
         <v>221242.4338</v>
       </c>
       <c r="G180" t="n">
-        <v>1554837.647130587</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7051,18 +6469,15 @@
         <v>12044.5028</v>
       </c>
       <c r="G181" t="n">
-        <v>1566882.149930587</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7084,18 +6499,15 @@
         <v>77713.05190000001</v>
       </c>
       <c r="G182" t="n">
-        <v>1644595.201830587</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7117,18 +6529,15 @@
         <v>79705.9566</v>
       </c>
       <c r="G183" t="n">
-        <v>1564889.245230587</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7150,18 +6559,15 @@
         <v>195629.6346</v>
       </c>
       <c r="G184" t="n">
-        <v>1760518.879830587</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7183,18 +6589,15 @@
         <v>129449.6134</v>
       </c>
       <c r="G185" t="n">
-        <v>1760518.879830587</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7216,18 +6619,15 @@
         <v>14091.21111839081</v>
       </c>
       <c r="G186" t="n">
-        <v>1760518.879830587</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7249,18 +6649,15 @@
         <v>190.9772</v>
       </c>
       <c r="G187" t="n">
-        <v>1760518.879830587</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7282,18 +6679,15 @@
         <v>70342.9997</v>
       </c>
       <c r="G188" t="n">
-        <v>1690175.880130587</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7315,18 +6709,15 @@
         <v>141962.7001</v>
       </c>
       <c r="G189" t="n">
-        <v>1548213.180030587</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7348,18 +6739,15 @@
         <v>23178.0983</v>
       </c>
       <c r="G190" t="n">
-        <v>1571391.278330587</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7381,18 +6769,15 @@
         <v>135443.011</v>
       </c>
       <c r="G191" t="n">
-        <v>1435948.267330587</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7414,18 +6799,15 @@
         <v>176903.4046</v>
       </c>
       <c r="G192" t="n">
-        <v>1259044.862730587</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7447,18 +6829,15 @@
         <v>19341.0434</v>
       </c>
       <c r="G193" t="n">
-        <v>1278385.906130587</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7480,18 +6859,15 @@
         <v>55901.0256</v>
       </c>
       <c r="G194" t="n">
-        <v>1334286.931730587</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7513,18 +6889,15 @@
         <v>89652.99739999999</v>
       </c>
       <c r="G195" t="n">
-        <v>1244633.934330587</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7546,18 +6919,15 @@
         <v>38527.757</v>
       </c>
       <c r="G196" t="n">
-        <v>1206106.177330587</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7579,18 +6949,15 @@
         <v>62688.7996</v>
       </c>
       <c r="G197" t="n">
-        <v>1143417.377730587</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7612,18 +6979,15 @@
         <v>112389.6981</v>
       </c>
       <c r="G198" t="n">
-        <v>1031027.679630587</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7645,18 +7009,15 @@
         <v>25278.0926</v>
       </c>
       <c r="G199" t="n">
-        <v>1005749.587030587</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7678,18 +7039,15 @@
         <v>368924.4041</v>
       </c>
       <c r="G200" t="n">
-        <v>636825.1829305869</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7711,18 +7069,15 @@
         <v>232761.7548</v>
       </c>
       <c r="G201" t="n">
-        <v>869586.9377305869</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7744,18 +7099,15 @@
         <v>66618.2969</v>
       </c>
       <c r="G202" t="n">
-        <v>802968.6408305869</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7777,18 +7129,15 @@
         <v>9995.953862025317</v>
       </c>
       <c r="G203" t="n">
-        <v>792972.6869685616</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7810,18 +7159,15 @@
         <v>109715.3552</v>
       </c>
       <c r="G204" t="n">
-        <v>683257.3317685616</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7843,18 +7189,15 @@
         <v>109462.9423</v>
       </c>
       <c r="G205" t="n">
-        <v>573794.3894685616</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7876,18 +7219,15 @@
         <v>51463.7229</v>
       </c>
       <c r="G206" t="n">
-        <v>522330.6665685616</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7909,18 +7249,15 @@
         <v>326482.1645</v>
       </c>
       <c r="G207" t="n">
-        <v>848812.8310685616</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7942,18 +7279,15 @@
         <v>71370.3976</v>
       </c>
       <c r="G208" t="n">
-        <v>777442.4334685616</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7975,18 +7309,15 @@
         <v>376532.8567</v>
       </c>
       <c r="G209" t="n">
-        <v>400909.5767685616</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8008,18 +7339,15 @@
         <v>168622.6201</v>
       </c>
       <c r="G210" t="n">
-        <v>569532.1968685617</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8041,18 +7369,15 @@
         <v>28637.9371</v>
       </c>
       <c r="G211" t="n">
-        <v>598170.1339685617</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8074,18 +7399,15 @@
         <v>55421.3455</v>
       </c>
       <c r="G212" t="n">
-        <v>542748.7884685616</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8107,18 +7429,15 @@
         <v>84401.11500000001</v>
       </c>
       <c r="G213" t="n">
-        <v>627149.9034685616</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8140,18 +7459,15 @@
         <v>138208.356</v>
       </c>
       <c r="G214" t="n">
-        <v>765358.2594685616</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8173,18 +7489,15 @@
         <v>22405.8672</v>
       </c>
       <c r="G215" t="n">
-        <v>742952.3922685616</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8206,18 +7519,15 @@
         <v>69138.6517</v>
       </c>
       <c r="G216" t="n">
-        <v>812091.0439685617</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8239,18 +7549,15 @@
         <v>108</v>
       </c>
       <c r="G217" t="n">
-        <v>812199.0439685617</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8272,18 +7579,15 @@
         <v>6060.3345</v>
       </c>
       <c r="G218" t="n">
-        <v>806138.7094685617</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8305,18 +7609,15 @@
         <v>5126.3128</v>
       </c>
       <c r="G219" t="n">
-        <v>801012.3966685617</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8338,18 +7639,15 @@
         <v>2998.3245</v>
       </c>
       <c r="G220" t="n">
-        <v>804010.7211685617</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8371,18 +7669,15 @@
         <v>33993.0619</v>
       </c>
       <c r="G221" t="n">
-        <v>770017.6592685618</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8404,18 +7699,15 @@
         <v>20114.9577</v>
       </c>
       <c r="G222" t="n">
-        <v>770017.6592685618</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8437,18 +7729,15 @@
         <v>177364.7921</v>
       </c>
       <c r="G223" t="n">
-        <v>592652.8671685618</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8470,18 +7759,15 @@
         <v>4439.9536</v>
       </c>
       <c r="G224" t="n">
-        <v>597092.8207685618</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8503,18 +7789,15 @@
         <v>32019.3859</v>
       </c>
       <c r="G225" t="n">
-        <v>565073.4348685618</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8536,18 +7819,15 @@
         <v>243017.2588</v>
       </c>
       <c r="G226" t="n">
-        <v>322056.1760685618</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8569,18 +7849,15 @@
         <v>69105.1367</v>
       </c>
       <c r="G227" t="n">
-        <v>391161.3127685618</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8602,18 +7879,15 @@
         <v>6005.7272</v>
       </c>
       <c r="G228" t="n">
-        <v>385155.5855685617</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8635,18 +7909,15 @@
         <v>117605.129</v>
       </c>
       <c r="G229" t="n">
-        <v>502760.7145685618</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8668,18 +7939,15 @@
         <v>33</v>
       </c>
       <c r="G230" t="n">
-        <v>502793.7145685618</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8701,18 +7969,15 @@
         <v>51463.9726</v>
       </c>
       <c r="G231" t="n">
-        <v>502793.7145685618</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8734,18 +7999,15 @@
         <v>38460.8249</v>
       </c>
       <c r="G232" t="n">
-        <v>464332.8896685618</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
